--- a/Vasey20/N3.xlsx
+++ b/Vasey20/N3.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2506B7A-240D-4275-A2A2-5BC50B4AE2B1}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyvas\git\dz-caucasus\Vasey20\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E767F8E-BEF9-4B48-B707-21D7B756D0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2422" yWindow="2422" windowWidth="16876" windowHeight="10433" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
   <si>
     <t>Zircon Sample Number</t>
   </si>
@@ -905,13 +910,22 @@
   </si>
   <si>
     <t>C16034B-Spot 133</t>
+  </si>
+  <si>
+    <t>238 Error</t>
+  </si>
+  <si>
+    <t>206 Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,6 +948,11 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -955,11 +974,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1274,20 +1296,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C292"/>
+  <dimension ref="A1:E292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E291"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="1" max="2" width="20.73046875" customWidth="1"/>
+    <col min="3" max="3" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1297,8 +1319,14 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1308,8 +1336,14 @@
       <c r="C2" s="1">
         <v>315.60000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="4">
+        <v>3.8793319148213641</v>
+      </c>
+      <c r="E2" s="4">
+        <v>20.348903324795032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1319,8 +1353,14 @@
       <c r="C3" s="1">
         <v>311.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="4">
+        <v>5.2619668548834966</v>
+      </c>
+      <c r="E3" s="4">
+        <v>21.664207669354425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1330,8 +1370,14 @@
       <c r="C4" s="1">
         <v>335.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="4">
+        <v>6.4368146594260338</v>
+      </c>
+      <c r="E4" s="4">
+        <v>21.566365752251528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1341,8 +1387,14 @@
       <c r="C5" s="1">
         <v>339.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="4">
+        <v>4.5945859884025708</v>
+      </c>
+      <c r="E5" s="4">
+        <v>17.154870109600523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1352,8 +1404,14 @@
       <c r="C6" s="1">
         <v>347.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="4">
+        <v>4.9466339835579163</v>
+      </c>
+      <c r="E6" s="4">
+        <v>17.889163873902106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1363,8 +1421,14 @@
       <c r="C7" s="1">
         <v>367.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="4">
+        <v>2.8794039416898443</v>
+      </c>
+      <c r="E7" s="4">
+        <v>22.315676743087721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1374,8 +1438,14 @@
       <c r="C8" s="1">
         <v>378.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="4">
+        <v>3.507019134167507</v>
+      </c>
+      <c r="E8" s="4">
+        <v>20.71801853507003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1385,8 +1455,14 @@
       <c r="C9" s="1">
         <v>392.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="4">
+        <v>3.5927795961251263</v>
+      </c>
+      <c r="E9" s="4">
+        <v>21.64029855217558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1396,8 +1472,14 @@
       <c r="C10" s="1">
         <v>366.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="4">
+        <v>4.315719335131007</v>
+      </c>
+      <c r="E10" s="4">
+        <v>17.916179823083155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1407,8 +1489,14 @@
       <c r="C11" s="1">
         <v>406.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="4">
+        <v>3.2703632964242502</v>
+      </c>
+      <c r="E11" s="4">
+        <v>16.765614209773332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1418,8 +1506,14 @@
       <c r="C12" s="1">
         <v>355.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="4">
+        <v>3.298670947946448</v>
+      </c>
+      <c r="E12" s="4">
+        <v>18.565776011226944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1429,8 +1523,14 @@
       <c r="C13" s="1">
         <v>374.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="4">
+        <v>3.504986910123904</v>
+      </c>
+      <c r="E13" s="4">
+        <v>19.123030700940944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1440,8 +1540,14 @@
       <c r="C14" s="1">
         <v>360.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="4">
+        <v>9.5189545115362932</v>
+      </c>
+      <c r="E14" s="4">
+        <v>44.620357530236561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,8 +1557,14 @@
       <c r="C15" s="1">
         <v>360.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="4">
+        <v>5.5938247353681163</v>
+      </c>
+      <c r="E15" s="4">
+        <v>20.197457447188981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1462,8 +1574,14 @@
       <c r="C16" s="1">
         <v>379.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="4">
+        <v>4.736826159097518</v>
+      </c>
+      <c r="E16" s="4">
+        <v>32.50289066979056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1473,8 +1591,14 @@
       <c r="C17" s="1">
         <v>352.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="4">
+        <v>4.3477021805340428</v>
+      </c>
+      <c r="E17" s="4">
+        <v>19.982329444344543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1484,8 +1608,14 @@
       <c r="C18" s="1">
         <v>352.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="4">
+        <v>3.456506959168081</v>
+      </c>
+      <c r="E18" s="4">
+        <v>17.401776084700003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,8 +1625,14 @@
       <c r="C19" s="1">
         <v>389.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="4">
+        <v>3.4618214264098413</v>
+      </c>
+      <c r="E19" s="4">
+        <v>24.778474409089824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1506,8 +1642,14 @@
       <c r="C20" s="1">
         <v>406.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="4">
+        <v>3.1673506387635939</v>
+      </c>
+      <c r="E20" s="4">
+        <v>20.514540876389475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1517,8 +1659,14 @@
       <c r="C21" s="1">
         <v>395.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="4">
+        <v>4.8875543118607538</v>
+      </c>
+      <c r="E21" s="4">
+        <v>14.537746034811192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1528,8 +1676,14 @@
       <c r="C22" s="1">
         <v>389.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="4">
+        <v>3.0609830115863872</v>
+      </c>
+      <c r="E22" s="4">
+        <v>19.970651340290658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1539,8 +1693,14 @@
       <c r="C23" s="1">
         <v>397.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="4">
+        <v>4.1266925095320062</v>
+      </c>
+      <c r="E23" s="4">
+        <v>19.807010604331708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1550,8 +1710,14 @@
       <c r="C24" s="1">
         <v>374.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="4">
+        <v>3.8004585832629516</v>
+      </c>
+      <c r="E24" s="4">
+        <v>17.481700412389358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1561,8 +1727,14 @@
       <c r="C25" s="1">
         <v>375.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="4">
+        <v>7.6299987893451089</v>
+      </c>
+      <c r="E25" s="4">
+        <v>18.242322720993371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1572,8 +1744,14 @@
       <c r="C26" s="1">
         <v>344.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="4">
+        <v>7.0011318120889996</v>
+      </c>
+      <c r="E26" s="4">
+        <v>16.259275057586621</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1583,8 +1761,14 @@
       <c r="C27" s="1">
         <v>550.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="4">
+        <v>4.2318828670658775</v>
+      </c>
+      <c r="E27" s="4">
+        <v>33.835468758578145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1594,8 +1778,14 @@
       <c r="C28" s="1">
         <v>437.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="4">
+        <v>4.1221289488871093</v>
+      </c>
+      <c r="E28" s="4">
+        <v>19.891105086998436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1605,8 +1795,14 @@
       <c r="C29" s="1">
         <v>439.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="4">
+        <v>4.5000928934221918</v>
+      </c>
+      <c r="E29" s="4">
+        <v>26.642513810737313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1616,8 +1812,14 @@
       <c r="C30" s="1">
         <v>404.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="4">
+        <v>4.0554391087586339</v>
+      </c>
+      <c r="E30" s="4">
+        <v>21.067648652462225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1627,8 +1829,14 @@
       <c r="C31" s="1">
         <v>382.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="4">
+        <v>5.3456970591934692</v>
+      </c>
+      <c r="E31" s="4">
+        <v>23.446702247304785</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1638,8 +1846,14 @@
       <c r="C32" s="1">
         <v>418.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="4">
+        <v>4.9004716009428648</v>
+      </c>
+      <c r="E32" s="4">
+        <v>25.579477733285927</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1649,8 +1863,14 @@
       <c r="C33" s="1">
         <v>424</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="4">
+        <v>3.5647807692952256</v>
+      </c>
+      <c r="E33" s="4">
+        <v>23.067084699627031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1660,8 +1880,14 @@
       <c r="C34" s="1">
         <v>411.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="4">
+        <v>4.9868426597482483</v>
+      </c>
+      <c r="E34" s="4">
+        <v>10.951566449712033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1671,8 +1897,14 @@
       <c r="C35" s="1">
         <v>450.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="4">
+        <v>4.8825904331565937</v>
+      </c>
+      <c r="E35" s="4">
+        <v>21.726735834556678</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1682,8 +1914,14 @@
       <c r="C36" s="1">
         <v>433</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="4">
+        <v>20.774339081509396</v>
+      </c>
+      <c r="E36" s="4">
+        <v>19.670378757515522</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -1693,8 +1931,14 @@
       <c r="C37" s="1">
         <v>503.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="4">
+        <v>5.2006730853153158</v>
+      </c>
+      <c r="E37" s="4">
+        <v>21.043949276375713</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1704,8 +1948,14 @@
       <c r="C38" s="1">
         <v>458.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="4">
+        <v>5.4589294216514759</v>
+      </c>
+      <c r="E38" s="4">
+        <v>15.623220597975234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1715,8 +1965,14 @@
       <c r="C39" s="1">
         <v>486.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="4">
+        <v>5.5048753160807848</v>
+      </c>
+      <c r="E39" s="4">
+        <v>18.199830228798589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1726,8 +1982,14 @@
       <c r="C40" s="1">
         <v>494.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="4">
+        <v>6.0224190510932374</v>
+      </c>
+      <c r="E40" s="4">
+        <v>18.96064371899763</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1737,8 +1999,14 @@
       <c r="C41" s="1">
         <v>458.9</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="4">
+        <v>4.3714417467943747</v>
+      </c>
+      <c r="E41" s="4">
+        <v>13.257180507786899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -1748,8 +2016,14 @@
       <c r="C42" s="1">
         <v>438.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="4">
+        <v>5.2181957666217613</v>
+      </c>
+      <c r="E42" s="4">
+        <v>17.920595613607901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -1759,8 +2033,14 @@
       <c r="C43" s="1">
         <v>480.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="4">
+        <v>4.1370222756610247</v>
+      </c>
+      <c r="E43" s="4">
+        <v>20.148827801913569</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -1770,8 +2050,14 @@
       <c r="C44" s="1">
         <v>495.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="4">
+        <v>4.6470919449081407</v>
+      </c>
+      <c r="E44" s="4">
+        <v>17.442628682720169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -1781,8 +2067,14 @@
       <c r="C45" s="1">
         <v>496.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="4">
+        <v>3.3097210547290388</v>
+      </c>
+      <c r="E45" s="4">
+        <v>17.163117945561964</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -1792,8 +2084,14 @@
       <c r="C46" s="1">
         <v>512.70000000000005</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="4">
+        <v>5.3018834317956021</v>
+      </c>
+      <c r="E46" s="4">
+        <v>18.604938307199205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -1803,8 +2101,14 @@
       <c r="C47" s="1">
         <v>539.29999999999995</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="4">
+        <v>4.912919033783794</v>
+      </c>
+      <c r="E47" s="4">
+        <v>20.537948555871026</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -1814,8 +2118,14 @@
       <c r="C48" s="1">
         <v>508.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="4">
+        <v>4.5047736230687292</v>
+      </c>
+      <c r="E48" s="4">
+        <v>20.495996786570402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -1825,8 +2135,14 @@
       <c r="C49" s="1">
         <v>483.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="4">
+        <v>5.6311256777321717</v>
+      </c>
+      <c r="E49" s="4">
+        <v>15.273053333265324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -1836,8 +2152,14 @@
       <c r="C50" s="1">
         <v>512.79999999999995</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="4">
+        <v>3.9052575497141504</v>
+      </c>
+      <c r="E50" s="4">
+        <v>17.109802367725109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -1847,8 +2169,14 @@
       <c r="C51" s="1">
         <v>454.9</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="4">
+        <v>5.2697508790320171</v>
+      </c>
+      <c r="E51" s="4">
+        <v>17.129967957267894</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -1858,8 +2186,14 @@
       <c r="C52" s="1">
         <v>495.8</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="4">
+        <v>5.3340551867693478</v>
+      </c>
+      <c r="E52" s="4">
+        <v>20.132002030188005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -1869,8 +2203,14 @@
       <c r="C53" s="1">
         <v>480.7</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="4">
+        <v>4.1803392927358232</v>
+      </c>
+      <c r="E53" s="4">
+        <v>19.320547539525194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -1880,8 +2220,14 @@
       <c r="C54" s="1">
         <v>484.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="4">
+        <v>6.8326434188837197</v>
+      </c>
+      <c r="E54" s="4">
+        <v>24.498536247668795</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -1891,8 +2237,14 @@
       <c r="C55" s="1">
         <v>456.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="4">
+        <v>6.2482365444722916</v>
+      </c>
+      <c r="E55" s="4">
+        <v>19.263082316786182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -1902,8 +2254,14 @@
       <c r="C56" s="1">
         <v>515.9</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="4">
+        <v>4.5121980616554822</v>
+      </c>
+      <c r="E56" s="4">
+        <v>14.923613412056966</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -1913,8 +2271,14 @@
       <c r="C57" s="1">
         <v>500.9</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="4">
+        <v>6.6799558221925111</v>
+      </c>
+      <c r="E57" s="4">
+        <v>18.936981135669413</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -1924,8 +2288,14 @@
       <c r="C58" s="1">
         <v>506.1</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="4">
+        <v>5.4879846641484562</v>
+      </c>
+      <c r="E58" s="4">
+        <v>20.009578132052184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -1935,8 +2305,14 @@
       <c r="C59" s="1">
         <v>473.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="4">
+        <v>5.5933287734325461</v>
+      </c>
+      <c r="E59" s="4">
+        <v>15.538710544554107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -1946,8 +2322,14 @@
       <c r="C60" s="1">
         <v>542.9</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="4">
+        <v>5.4166747781521565</v>
+      </c>
+      <c r="E60" s="4">
+        <v>16.516671640089612</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -1957,8 +2339,14 @@
       <c r="C61" s="1">
         <v>506.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="4">
+        <v>4.2475448370012145</v>
+      </c>
+      <c r="E61" s="4">
+        <v>21.389859498341508</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -1968,8 +2356,14 @@
       <c r="C62" s="1">
         <v>488.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="4">
+        <v>5.0545176803789502</v>
+      </c>
+      <c r="E62" s="4">
+        <v>19.648937781281631</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -1979,8 +2373,14 @@
       <c r="C63" s="1">
         <v>487.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="4">
+        <v>6.3036562485376635</v>
+      </c>
+      <c r="E63" s="4">
+        <v>43.856011920831662</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -1990,8 +2390,14 @@
       <c r="C64" s="1">
         <v>490.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="4">
+        <v>6.2801344047255725</v>
+      </c>
+      <c r="E64" s="4">
+        <v>16.929927099224244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -2001,8 +2407,14 @@
       <c r="C65" s="1">
         <v>459.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="4">
+        <v>4.5025473547952117</v>
+      </c>
+      <c r="E65" s="4">
+        <v>20.410147684212006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -2012,8 +2424,14 @@
       <c r="C66" s="1">
         <v>470.4</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="4">
+        <v>4.9491619641753459</v>
+      </c>
+      <c r="E66" s="4">
+        <v>18.534081934027967</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -2023,8 +2441,14 @@
       <c r="C67" s="1">
         <v>458.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="4">
+        <v>4.5461443602494853</v>
+      </c>
+      <c r="E67" s="4">
+        <v>18.788932681262509</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -2034,8 +2458,14 @@
       <c r="C68" s="1">
         <v>524.20000000000005</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="4">
+        <v>7.2438896867590472</v>
+      </c>
+      <c r="E68" s="4">
+        <v>21.16964215287652</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -2045,8 +2475,14 @@
       <c r="C69" s="1">
         <v>523.6</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="4">
+        <v>4.3442126990947827</v>
+      </c>
+      <c r="E69" s="4">
+        <v>34.109652819134283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -2056,8 +2492,14 @@
       <c r="C70" s="1">
         <v>497.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="4">
+        <v>5.4991825728289996</v>
+      </c>
+      <c r="E70" s="4">
+        <v>18.460367209749677</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -2067,8 +2509,14 @@
       <c r="C71" s="1">
         <v>488.2</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="4">
+        <v>5.0256956556449381</v>
+      </c>
+      <c r="E71" s="4">
+        <v>20.151571153497628</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -2078,8 +2526,14 @@
       <c r="C72" s="1">
         <v>536.4</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="4">
+        <v>5.254672035823944</v>
+      </c>
+      <c r="E72" s="4">
+        <v>28.867034279808138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -2089,8 +2543,14 @@
       <c r="C73" s="1">
         <v>529.9</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="4">
+        <v>4.5527326941024739</v>
+      </c>
+      <c r="E73" s="4">
+        <v>18.266234595617789</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -2100,8 +2560,14 @@
       <c r="C74" s="1">
         <v>487.4</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="4">
+        <v>4.2009308615012628</v>
+      </c>
+      <c r="E74" s="4">
+        <v>15.670071916263993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -2111,8 +2577,14 @@
       <c r="C75" s="1">
         <v>493.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="4">
+        <v>6.3371287171163431</v>
+      </c>
+      <c r="E75" s="4">
+        <v>24.50583882132338</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -2122,8 +2594,14 @@
       <c r="C76" s="1">
         <v>476.6</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="4">
+        <v>3.7703037438009801</v>
+      </c>
+      <c r="E76" s="4">
+        <v>18.44760925031423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -2133,8 +2611,14 @@
       <c r="C77" s="1">
         <v>456.7</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="4">
+        <v>6.1958349859795305</v>
+      </c>
+      <c r="E77" s="4">
+        <v>19.850925663819652</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -2144,8 +2628,14 @@
       <c r="C78" s="1">
         <v>493.7</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="4">
+        <v>6.0301992784681033</v>
+      </c>
+      <c r="E78" s="4">
+        <v>26.109713954759258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -2155,8 +2645,14 @@
       <c r="C79" s="1">
         <v>528.79999999999995</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" s="4">
+        <v>4.2358064639043391</v>
+      </c>
+      <c r="E79" s="4">
+        <v>19.159054272224665</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
@@ -2166,8 +2662,14 @@
       <c r="C80" s="1">
         <v>495.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="4">
+        <v>5.3939314302200501</v>
+      </c>
+      <c r="E80" s="4">
+        <v>18.686261977073826</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
@@ -2177,8 +2679,14 @@
       <c r="C81" s="1">
         <v>523.79999999999995</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="4">
+        <v>4.9122773307868783</v>
+      </c>
+      <c r="E81" s="4">
+        <v>27.842356647425845</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
@@ -2188,8 +2696,14 @@
       <c r="C82" s="1">
         <v>548.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="4">
+        <v>4.7039874661952865</v>
+      </c>
+      <c r="E82" s="4">
+        <v>31.598308284621112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
@@ -2199,8 +2713,14 @@
       <c r="C83" s="1">
         <v>545.20000000000005</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="4">
+        <v>6.1644327608130141</v>
+      </c>
+      <c r="E83" s="4">
+        <v>35.528353007619444</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
@@ -2210,8 +2730,14 @@
       <c r="C84" s="1">
         <v>547.9</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="4">
+        <v>6.8918604454978549</v>
+      </c>
+      <c r="E84" s="4">
+        <v>16.946875179213862</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -2221,8 +2747,14 @@
       <c r="C85" s="1">
         <v>566.9</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" s="4">
+        <v>5.9707706563282557</v>
+      </c>
+      <c r="E85" s="4">
+        <v>42.056974279150097</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
@@ -2232,8 +2764,14 @@
       <c r="C86" s="1">
         <v>515.6</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="4">
+        <v>5.8257140826301566</v>
+      </c>
+      <c r="E86" s="4">
+        <v>19.124436957516764</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
@@ -2243,8 +2781,14 @@
       <c r="C87" s="1">
         <v>487.7</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" s="4">
+        <v>4.956711310936015</v>
+      </c>
+      <c r="E87" s="4">
+        <v>19.25184286217322</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -2254,8 +2798,14 @@
       <c r="C88" s="1">
         <v>496.1</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" s="4">
+        <v>5.6744346892176054</v>
+      </c>
+      <c r="E88" s="4">
+        <v>17.767715795623985</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
@@ -2265,8 +2815,14 @@
       <c r="C89" s="1">
         <v>578.1</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" s="4">
+        <v>6.4190477702715327</v>
+      </c>
+      <c r="E89" s="4">
+        <v>17.374997868368439</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -2276,8 +2832,14 @@
       <c r="C90" s="1">
         <v>533</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="4">
+        <v>4.5086754364126591</v>
+      </c>
+      <c r="E90" s="4">
+        <v>22.012512580745181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -2287,8 +2849,14 @@
       <c r="C91" s="1">
         <v>577.70000000000005</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" s="4">
+        <v>5.2822299769647714</v>
+      </c>
+      <c r="E91" s="4">
+        <v>18.907622123682984</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
@@ -2298,8 +2866,14 @@
       <c r="C92" s="1">
         <v>490.8</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" s="4">
+        <v>5.7405327164925666</v>
+      </c>
+      <c r="E92" s="4">
+        <v>20.648782274099602</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
@@ -2309,8 +2883,14 @@
       <c r="C93" s="1">
         <v>537.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" s="4">
+        <v>4.6933840486177303</v>
+      </c>
+      <c r="E93" s="4">
+        <v>18.68313006147747</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -2320,8 +2900,14 @@
       <c r="C94" s="1">
         <v>531.1</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="4">
+        <v>4.8556431075296018</v>
+      </c>
+      <c r="E94" s="4">
+        <v>20.120922685654619</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
@@ -2331,8 +2917,14 @@
       <c r="C95" s="1">
         <v>514.6</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" s="4">
+        <v>7.0110030451848502</v>
+      </c>
+      <c r="E95" s="4">
+        <v>18.060296318519988</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -2342,8 +2934,14 @@
       <c r="C96" s="1">
         <v>536.20000000000005</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" s="4">
+        <v>7.3635758673220266</v>
+      </c>
+      <c r="E96" s="4">
+        <v>17.010833000988669</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -2353,8 +2951,14 @@
       <c r="C97" s="1">
         <v>607</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" s="4">
+        <v>7.6442410256378253</v>
+      </c>
+      <c r="E97" s="4">
+        <v>27.046197602840266</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -2364,8 +2968,14 @@
       <c r="C98" s="1">
         <v>570.4</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" s="4">
+        <v>5.5825108223073698</v>
+      </c>
+      <c r="E98" s="4">
+        <v>22.061683320201041</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -2375,8 +2985,14 @@
       <c r="C99" s="1">
         <v>593.79999999999995</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" s="4">
+        <v>5.4952455281505763</v>
+      </c>
+      <c r="E99" s="4">
+        <v>24.250727526999185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -2386,8 +3002,14 @@
       <c r="C100" s="1">
         <v>580.9</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" s="4">
+        <v>5.0028042045329357</v>
+      </c>
+      <c r="E100" s="4">
+        <v>15.957288136104239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -2397,8 +3019,14 @@
       <c r="C101" s="1">
         <v>566.6</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" s="4">
+        <v>7.0876788723561504</v>
+      </c>
+      <c r="E101" s="4">
+        <v>20.06018261057784</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -2408,8 +3036,14 @@
       <c r="C102" s="1">
         <v>551</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" s="4">
+        <v>4.9765322647991752</v>
+      </c>
+      <c r="E102" s="4">
+        <v>17.779987613187416</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -2419,8 +3053,14 @@
       <c r="C103" s="1">
         <v>583.20000000000005</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" s="4">
+        <v>7.0484779004030997</v>
+      </c>
+      <c r="E103" s="4">
+        <v>26.46567152664511</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
@@ -2430,8 +3070,14 @@
       <c r="C104" s="1">
         <v>577.6</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" s="4">
+        <v>9.2357107904089162</v>
+      </c>
+      <c r="E104" s="4">
+        <v>27.742847285887478</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -2441,8 +3087,14 @@
       <c r="C105" s="1">
         <v>601.9</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" s="4">
+        <v>7.5383296657435039</v>
+      </c>
+      <c r="E105" s="4">
+        <v>31.008710765307399</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -2452,8 +3104,14 @@
       <c r="C106" s="1">
         <v>527.6</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" s="4">
+        <v>6.0072769006380327</v>
+      </c>
+      <c r="E106" s="4">
+        <v>14.90301639152807</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -2463,8 +3121,14 @@
       <c r="C107" s="1">
         <v>566.1</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" s="4">
+        <v>6.0461329201233411</v>
+      </c>
+      <c r="E107" s="4">
+        <v>15.961376360533677</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -2474,8 +3138,14 @@
       <c r="C108" s="1">
         <v>537.29999999999995</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" s="4">
+        <v>6.4914115134071722</v>
+      </c>
+      <c r="E108" s="4">
+        <v>20.713572913305541</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -2485,8 +3155,14 @@
       <c r="C109" s="1">
         <v>583.79999999999995</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" s="4">
+        <v>4.6591040111264306</v>
+      </c>
+      <c r="E109" s="4">
+        <v>18.031027429897676</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -2496,8 +3172,14 @@
       <c r="C110" s="1">
         <v>535</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" s="4">
+        <v>5.9634208892155129</v>
+      </c>
+      <c r="E110" s="4">
+        <v>18.152015406395492</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -2507,8 +3189,14 @@
       <c r="C111" s="1">
         <v>605.1</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" s="4">
+        <v>5.4930930590056732</v>
+      </c>
+      <c r="E111" s="4">
+        <v>22.47507746821401</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -2518,8 +3206,14 @@
       <c r="C112" s="1">
         <v>572.9</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" s="4">
+        <v>7.9603135417930275</v>
+      </c>
+      <c r="E112" s="4">
+        <v>24.290666694991785</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -2529,8 +3223,14 @@
       <c r="C113" s="1">
         <v>558.4</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" s="4">
+        <v>6.3944289193382247</v>
+      </c>
+      <c r="E113" s="4">
+        <v>17.41324432746751</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -2540,8 +3240,14 @@
       <c r="C114" s="1">
         <v>540.1</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" s="4">
+        <v>6.767045309992568</v>
+      </c>
+      <c r="E114" s="4">
+        <v>14.122896031481844</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -2551,8 +3257,14 @@
       <c r="C115" s="1">
         <v>577.79999999999995</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" s="4">
+        <v>6.2149684814272064</v>
+      </c>
+      <c r="E115" s="4">
+        <v>19.331919139134982</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -2562,8 +3274,14 @@
       <c r="C116" s="1">
         <v>584.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" s="4">
+        <v>4.0217695755508771</v>
+      </c>
+      <c r="E116" s="4">
+        <v>16.590233888264493</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -2573,8 +3291,14 @@
       <c r="C117" s="1">
         <v>542.29999999999995</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" s="4">
+        <v>8.0897428132126379</v>
+      </c>
+      <c r="E117" s="4">
+        <v>26.325603304764684</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -2584,8 +3308,14 @@
       <c r="C118" s="1">
         <v>588</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" s="4">
+        <v>5.7277988434992153</v>
+      </c>
+      <c r="E118" s="4">
+        <v>22.171295970659912</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -2595,8 +3325,14 @@
       <c r="C119" s="1">
         <v>552.6</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" s="4">
+        <v>8.1391722476450923</v>
+      </c>
+      <c r="E119" s="4">
+        <v>19.915007690238554</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -2606,8 +3342,14 @@
       <c r="C120" s="1">
         <v>564.9</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" s="4">
+        <v>5.3683483564295784</v>
+      </c>
+      <c r="E120" s="4">
+        <v>28.178685089274154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -2617,8 +3359,14 @@
       <c r="C121" s="1">
         <v>543.6</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" s="4">
+        <v>6.8127698838382571</v>
+      </c>
+      <c r="E121" s="4">
+        <v>18.65154956498003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -2628,8 +3376,14 @@
       <c r="C122" s="1">
         <v>585.79999999999995</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" s="4">
+        <v>8.9445540022098839</v>
+      </c>
+      <c r="E122" s="4">
+        <v>20.653044353143173</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -2639,8 +3393,14 @@
       <c r="C123" s="1">
         <v>596.79999999999995</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" s="4">
+        <v>4.7789604426819778</v>
+      </c>
+      <c r="E123" s="4">
+        <v>18.156350305306148</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -2650,8 +3410,14 @@
       <c r="C124" s="1">
         <v>579.70000000000005</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" s="4">
+        <v>7.0105725837630075</v>
+      </c>
+      <c r="E124" s="4">
+        <v>18.568188859692555</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -2661,8 +3427,14 @@
       <c r="C125" s="1">
         <v>602.9</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" s="4">
+        <v>6.781026097440872</v>
+      </c>
+      <c r="E125" s="4">
+        <v>18.717275704817268</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -2672,8 +3444,14 @@
       <c r="C126" s="1">
         <v>564.29999999999995</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" s="4">
+        <v>7.4432117107484146</v>
+      </c>
+      <c r="E126" s="4">
+        <v>17.889052729397577</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -2683,8 +3461,14 @@
       <c r="C127" s="1">
         <v>560</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" s="4">
+        <v>6.8083269721394117</v>
+      </c>
+      <c r="E127" s="4">
+        <v>16.198017101910182</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -2694,8 +3478,14 @@
       <c r="C128" s="1">
         <v>629.79999999999995</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" s="4">
+        <v>4.6907419003210293</v>
+      </c>
+      <c r="E128" s="4">
+        <v>23.071787673684071</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -2705,8 +3495,14 @@
       <c r="C129" s="1">
         <v>606.6</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" s="4">
+        <v>7.5189586716813324</v>
+      </c>
+      <c r="E129" s="4">
+        <v>20.444609694171845</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -2716,8 +3512,14 @@
       <c r="C130" s="1">
         <v>654.79999999999995</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" s="4">
+        <v>6.5988823551488736</v>
+      </c>
+      <c r="E130" s="4">
+        <v>26.995660210519304</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -2727,8 +3529,14 @@
       <c r="C131" s="1">
         <v>586.20000000000005</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" s="4">
+        <v>6.1152217241128142</v>
+      </c>
+      <c r="E131" s="4">
+        <v>16.873704200647978</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -2738,8 +3546,14 @@
       <c r="C132" s="1">
         <v>649.29999999999995</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" s="4">
+        <v>7.0286032611009546</v>
+      </c>
+      <c r="E132" s="4">
+        <v>16.693887262951762</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -2749,8 +3563,14 @@
       <c r="C133" s="1">
         <v>702.4</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" s="4">
+        <v>6.1566365229261919</v>
+      </c>
+      <c r="E133" s="4">
+        <v>26.877856593710646</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -2760,8 +3580,14 @@
       <c r="C134" s="1">
         <v>565.5</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134" s="4">
+        <v>6.2985484530576628</v>
+      </c>
+      <c r="E134" s="4">
+        <v>15.201543275087204</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -2771,8 +3597,14 @@
       <c r="C135" s="1">
         <v>595.5</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135" s="4">
+        <v>8.1439859691720926</v>
+      </c>
+      <c r="E135" s="4">
+        <v>16.476930720470591</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -2782,8 +3614,14 @@
       <c r="C136" s="1">
         <v>557.1</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136" s="4">
+        <v>5.2806419891256269</v>
+      </c>
+      <c r="E136" s="4">
+        <v>17.177166263580489</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -2793,8 +3631,14 @@
       <c r="C137" s="1">
         <v>620.1</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137" s="4">
+        <v>5.1319577307610302</v>
+      </c>
+      <c r="E137" s="4">
+        <v>21.255568893216719</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -2804,8 +3648,14 @@
       <c r="C138" s="1">
         <v>641.20000000000005</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" s="4">
+        <v>6.7405582746478672</v>
+      </c>
+      <c r="E138" s="4">
+        <v>39.425767564216471</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
@@ -2815,8 +3665,14 @@
       <c r="C139" s="1">
         <v>645.9</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" s="4">
+        <v>5.2507785758434125</v>
+      </c>
+      <c r="E139" s="4">
+        <v>16.098745599399706</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
@@ -2826,8 +3682,14 @@
       <c r="C140" s="1">
         <v>617.79999999999995</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" s="4">
+        <v>5.3716638806990318</v>
+      </c>
+      <c r="E140" s="4">
+        <v>19.222210228381641</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -2837,8 +3699,14 @@
       <c r="C141" s="1">
         <v>597.20000000000005</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" s="4">
+        <v>6.2477641104730992</v>
+      </c>
+      <c r="E141" s="4">
+        <v>26.832206823257479</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
@@ -2848,8 +3716,14 @@
       <c r="C142" s="1">
         <v>597.29999999999995</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" s="4">
+        <v>6.1468704481496843</v>
+      </c>
+      <c r="E142" s="4">
+        <v>17.641542002672224</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
@@ -2859,8 +3733,14 @@
       <c r="C143" s="1">
         <v>623.5</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" s="4">
+        <v>5.7137276977241527</v>
+      </c>
+      <c r="E143" s="4">
+        <v>18.050500276666639</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
@@ -2870,8 +3750,14 @@
       <c r="C144" s="1">
         <v>669.1</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144" s="4">
+        <v>7.7125328560068738</v>
+      </c>
+      <c r="E144" s="4">
+        <v>28.172349493249897</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -2881,8 +3767,14 @@
       <c r="C145" s="1">
         <v>581.9</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145" s="4">
+        <v>6.8860372877856548</v>
+      </c>
+      <c r="E145" s="4">
+        <v>16.603448687822834</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
@@ -2892,8 +3784,14 @@
       <c r="C146" s="1">
         <v>592.70000000000005</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" s="4">
+        <v>5.0410695228420082</v>
+      </c>
+      <c r="E146" s="4">
+        <v>19.322564540472172</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
@@ -2903,8 +3801,14 @@
       <c r="C147" s="1">
         <v>574.20000000000005</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" s="4">
+        <v>8.3655763302983246</v>
+      </c>
+      <c r="E147" s="4">
+        <v>17.793156152123061</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
@@ -2914,8 +3818,14 @@
       <c r="C148" s="1">
         <v>581.9</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148" s="4">
+        <v>5.9773154606453431</v>
+      </c>
+      <c r="E148" s="4">
+        <v>18.723836067723198</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
@@ -2925,8 +3835,14 @@
       <c r="C149" s="1">
         <v>585.20000000000005</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149" s="4">
+        <v>6.3610091295834081</v>
+      </c>
+      <c r="E149" s="4">
+        <v>17.859606900823053</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
@@ -2936,8 +3852,14 @@
       <c r="C150" s="1">
         <v>636.4</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150" s="4">
+        <v>6.5487839781595767</v>
+      </c>
+      <c r="E150" s="4">
+        <v>16.010361956251813</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
@@ -2947,8 +3869,14 @@
       <c r="C151" s="1">
         <v>645</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151" s="4">
+        <v>5.8599315841119051</v>
+      </c>
+      <c r="E151" s="4">
+        <v>18.177974265609919</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>153</v>
       </c>
@@ -2958,8 +3886,14 @@
       <c r="C152" s="1">
         <v>570</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152" s="4">
+        <v>5.3658088847445242</v>
+      </c>
+      <c r="E152" s="4">
+        <v>20.963784516973362</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>154</v>
       </c>
@@ -2969,8 +3903,14 @@
       <c r="C153" s="1">
         <v>572.5</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153" s="4">
+        <v>5.5724389318691578</v>
+      </c>
+      <c r="E153" s="4">
+        <v>16.142548784683015</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
@@ -2980,8 +3920,14 @@
       <c r="C154" s="1">
         <v>731</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154" s="4">
+        <v>5.7140013900620943</v>
+      </c>
+      <c r="E154" s="4">
+        <v>27.14140711633712</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>156</v>
       </c>
@@ -2991,8 +3937,14 @@
       <c r="C155" s="1">
         <v>623.70000000000005</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155" s="4">
+        <v>6.4432285776826461</v>
+      </c>
+      <c r="E155" s="4">
+        <v>20.600476534491179</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
@@ -3002,8 +3954,14 @@
       <c r="C156" s="1">
         <v>590.4</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156" s="4">
+        <v>6.9325723140453306</v>
+      </c>
+      <c r="E156" s="4">
+        <v>23.966047096460329</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>158</v>
       </c>
@@ -3013,8 +3971,14 @@
       <c r="C157" s="1">
         <v>659.3</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157" s="4">
+        <v>7.4889226188746534</v>
+      </c>
+      <c r="E157" s="4">
+        <v>20.096517627560161</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
@@ -3024,8 +3988,14 @@
       <c r="C158" s="1">
         <v>640.79999999999995</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158" s="4">
+        <v>7.8638294292720161</v>
+      </c>
+      <c r="E158" s="4">
+        <v>19.71175838205636</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
@@ -3035,8 +4005,14 @@
       <c r="C159" s="1">
         <v>642.79999999999995</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159" s="4">
+        <v>5.8667418716764246</v>
+      </c>
+      <c r="E159" s="4">
+        <v>22.057101137376492</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -3046,8 +4022,14 @@
       <c r="C160" s="1">
         <v>564.9</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160" s="4">
+        <v>7.4325495275941762</v>
+      </c>
+      <c r="E160" s="4">
+        <v>14.763989679040776</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
@@ -3057,8 +4039,14 @@
       <c r="C161" s="1">
         <v>586.5</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161" s="4">
+        <v>6.3242263658072488</v>
+      </c>
+      <c r="E161" s="4">
+        <v>16.245754644247938</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>163</v>
       </c>
@@ -3068,8 +4056,14 @@
       <c r="C162" s="1">
         <v>646.4</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162" s="4">
+        <v>5.0206946809605597</v>
+      </c>
+      <c r="E162" s="4">
+        <v>17.669314547350325</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>164</v>
       </c>
@@ -3079,8 +4073,14 @@
       <c r="C163" s="1">
         <v>699.1</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163" s="4">
+        <v>7.9914899769932504</v>
+      </c>
+      <c r="E163" s="4">
+        <v>23.152728264898769</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>165</v>
       </c>
@@ -3090,8 +4090,14 @@
       <c r="C164" s="1">
         <v>590.29999999999995</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164" s="4">
+        <v>9.4145094866967725</v>
+      </c>
+      <c r="E164" s="4">
+        <v>17.96234560088044</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>166</v>
       </c>
@@ -3101,8 +4107,14 @@
       <c r="C165" s="1">
         <v>652.6</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165" s="4">
+        <v>6.2051706208840756</v>
+      </c>
+      <c r="E165" s="4">
+        <v>16.248034906889131</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
@@ -3112,8 +4124,14 @@
       <c r="C166" s="1">
         <v>648.4</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166" s="4">
+        <v>6.4466952262050654</v>
+      </c>
+      <c r="E166" s="4">
+        <v>18.98030366238271</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>168</v>
       </c>
@@ -3123,8 +4141,14 @@
       <c r="C167" s="1">
         <v>648.79999999999995</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="D167" s="4">
+        <v>8.5005615470599309</v>
+      </c>
+      <c r="E167" s="4">
+        <v>25.634892938051735</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
@@ -3134,8 +4158,14 @@
       <c r="C168" s="1">
         <v>658</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="D168" s="4">
+        <v>8.4105135481863726</v>
+      </c>
+      <c r="E168" s="4">
+        <v>22.524668397929588</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
@@ -3145,8 +4175,14 @@
       <c r="C169" s="1">
         <v>620.1</v>
       </c>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="D169" s="4">
+        <v>6.2411446430558044</v>
+      </c>
+      <c r="E169" s="4">
+        <v>13.980621911916217</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
@@ -3156,8 +4192,14 @@
       <c r="C170" s="1">
         <v>630.70000000000005</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="D170" s="4">
+        <v>6.5140367028164405</v>
+      </c>
+      <c r="E170" s="4">
+        <v>17.981856780971782</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
@@ -3167,8 +4209,14 @@
       <c r="C171" s="1">
         <v>705.1</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="D171" s="4">
+        <v>7.9971045120791473</v>
+      </c>
+      <c r="E171" s="4">
+        <v>26.782752592794452</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
@@ -3178,8 +4226,14 @@
       <c r="C172" s="1">
         <v>680.4</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="D172" s="4">
+        <v>6.4069906675175048</v>
+      </c>
+      <c r="E172" s="4">
+        <v>15.369692291136857</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
@@ -3189,8 +4243,14 @@
       <c r="C173" s="1">
         <v>685.3</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="D173" s="4">
+        <v>5.117059578552869</v>
+      </c>
+      <c r="E173" s="4">
+        <v>15.840816283859851</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>175</v>
       </c>
@@ -3200,8 +4260,14 @@
       <c r="C174" s="1">
         <v>655.4</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="D174" s="4">
+        <v>7.2556424093733654</v>
+      </c>
+      <c r="E174" s="4">
+        <v>29.420170854766695</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
@@ -3211,8 +4277,14 @@
       <c r="C175" s="1">
         <v>652.9</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="D175" s="4">
+        <v>6.8115399060294521</v>
+      </c>
+      <c r="E175" s="4">
+        <v>23.374669947300958</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
@@ -3222,8 +4294,14 @@
       <c r="C176" s="1">
         <v>601.5</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="D176" s="4">
+        <v>6.2866740650218844</v>
+      </c>
+      <c r="E176" s="4">
+        <v>15.458990212763069</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>178</v>
       </c>
@@ -3233,8 +4311,14 @@
       <c r="C177" s="1">
         <v>651.1</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="D177" s="4">
+        <v>7.8198013412777527</v>
+      </c>
+      <c r="E177" s="4">
+        <v>16.095656346491353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>179</v>
       </c>
@@ -3244,8 +4328,14 @@
       <c r="C178" s="1">
         <v>673.7</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="D178" s="4">
+        <v>12.739981134419907</v>
+      </c>
+      <c r="E178" s="4">
+        <v>24.153157727489884</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
@@ -3255,8 +4345,14 @@
       <c r="C179" s="1">
         <v>645.70000000000005</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="D179" s="4">
+        <v>7.456958912668199</v>
+      </c>
+      <c r="E179" s="4">
+        <v>18.671022307451892</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
@@ -3266,8 +4362,14 @@
       <c r="C180" s="1">
         <v>615.6</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="D180" s="4">
+        <v>6.202763189741006</v>
+      </c>
+      <c r="E180" s="4">
+        <v>19.694251659603879</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
@@ -3277,8 +4379,14 @@
       <c r="C181" s="1">
         <v>662.7</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="D181" s="4">
+        <v>12.99081206874547</v>
+      </c>
+      <c r="E181" s="4">
+        <v>18.541779148799549</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
@@ -3288,8 +4396,14 @@
       <c r="C182" s="1">
         <v>634.70000000000005</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="D182" s="4">
+        <v>8.23603715096732</v>
+      </c>
+      <c r="E182" s="4">
+        <v>17.618090146735483</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
@@ -3299,8 +4413,14 @@
       <c r="C183" s="1">
         <v>734</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="D183" s="4">
+        <v>5.9467909323300319</v>
+      </c>
+      <c r="E183" s="4">
+        <v>39.234045555155205</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
@@ -3310,8 +4430,14 @@
       <c r="C184" s="1">
         <v>607.4</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="D184" s="4">
+        <v>7.7217522204512079</v>
+      </c>
+      <c r="E184" s="4">
+        <v>16.02806429793776</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
@@ -3321,8 +4447,14 @@
       <c r="C185" s="1">
         <v>696.8</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
+      <c r="D185" s="4">
+        <v>6.148779893070639</v>
+      </c>
+      <c r="E185" s="4">
+        <v>12.568040025505184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>187</v>
       </c>
@@ -3332,8 +4464,14 @@
       <c r="C186" s="1">
         <v>641.6</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="D186" s="4">
+        <v>7.3180877431999534</v>
+      </c>
+      <c r="E186" s="4">
+        <v>17.588629519723725</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>188</v>
       </c>
@@ -3343,8 +4481,14 @@
       <c r="C187" s="1">
         <v>655.1</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="D187" s="4">
+        <v>5.9873189952069765</v>
+      </c>
+      <c r="E187" s="4">
+        <v>17.039412851960662</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>189</v>
       </c>
@@ -3354,8 +4498,14 @@
       <c r="C188" s="1">
         <v>646.9</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="D188" s="4">
+        <v>6.5515944030955779</v>
+      </c>
+      <c r="E188" s="4">
+        <v>19.218210225767336</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>190</v>
       </c>
@@ -3365,8 +4515,14 @@
       <c r="C189" s="1">
         <v>678.2</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="D189" s="4">
+        <v>7.9469540328133803</v>
+      </c>
+      <c r="E189" s="4">
+        <v>31.298979936079434</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>191</v>
       </c>
@@ -3376,8 +4532,14 @@
       <c r="C190" s="1">
         <v>643.4</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="D190" s="4">
+        <v>6.8506120615536474</v>
+      </c>
+      <c r="E190" s="4">
+        <v>17.594863523812705</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>192</v>
       </c>
@@ -3387,8 +4549,14 @@
       <c r="C191" s="1">
         <v>658.7</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="D191" s="4">
+        <v>6.0997301557495121</v>
+      </c>
+      <c r="E191" s="4">
+        <v>17.31627074396215</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>193</v>
       </c>
@@ -3398,8 +4566,14 @@
       <c r="C192" s="1">
         <v>679</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="D192" s="4">
+        <v>7.136280312297572</v>
+      </c>
+      <c r="E192" s="4">
+        <v>19.717577160164979</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
@@ -3409,8 +4583,14 @@
       <c r="C193" s="1">
         <v>631.29999999999995</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="D193" s="4">
+        <v>5.9220247885979802</v>
+      </c>
+      <c r="E193" s="4">
+        <v>22.684030335642603</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>195</v>
       </c>
@@ -3420,8 +4600,14 @@
       <c r="C194" s="1">
         <v>670.6</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="D194" s="4">
+        <v>6.9253047484359058</v>
+      </c>
+      <c r="E194" s="4">
+        <v>25.620627918259686</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
@@ -3431,8 +4617,14 @@
       <c r="C195" s="1">
         <v>676.3</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="D195" s="4">
+        <v>6.7210724188786912</v>
+      </c>
+      <c r="E195" s="4">
+        <v>22.103483136644854</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
@@ -3442,8 +4634,14 @@
       <c r="C196" s="1">
         <v>655.29999999999995</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="D196" s="4">
+        <v>7.712240259491864</v>
+      </c>
+      <c r="E196" s="4">
+        <v>23.850175526138116</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
@@ -3453,8 +4651,14 @@
       <c r="C197" s="1">
         <v>672</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="D197" s="4">
+        <v>7.0804616126293354</v>
+      </c>
+      <c r="E197" s="4">
+        <v>26.568679932900295</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>199</v>
       </c>
@@ -3464,8 +4668,14 @@
       <c r="C198" s="1">
         <v>638.70000000000005</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="D198" s="4">
+        <v>7.1752045895602805</v>
+      </c>
+      <c r="E198" s="4">
+        <v>27.803575096834834</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>200</v>
       </c>
@@ -3475,8 +4685,14 @@
       <c r="C199" s="1">
         <v>636</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="D199" s="4">
+        <v>7.6772466783347113</v>
+      </c>
+      <c r="E199" s="4">
+        <v>30.796038937334288</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>201</v>
       </c>
@@ -3486,8 +4702,14 @@
       <c r="C200" s="1">
         <v>658.2</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="D200" s="4">
+        <v>6.955183859493161</v>
+      </c>
+      <c r="E200" s="4">
+        <v>18.960546088552974</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>202</v>
       </c>
@@ -3497,8 +4719,14 @@
       <c r="C201" s="1">
         <v>668.4</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="D201" s="4">
+        <v>8.6922072667956058</v>
+      </c>
+      <c r="E201" s="4">
+        <v>17.083695918733667</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>203</v>
       </c>
@@ -3508,8 +4736,14 @@
       <c r="C202" s="1">
         <v>664.8</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="D202" s="4">
+        <v>7.719672374533161</v>
+      </c>
+      <c r="E202" s="4">
+        <v>34.36724328491448</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
@@ -3519,8 +4753,14 @@
       <c r="C203" s="1">
         <v>633.9</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
+      <c r="D203" s="4">
+        <v>5.1457428619236225</v>
+      </c>
+      <c r="E203" s="4">
+        <v>19.360712058114757</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>205</v>
       </c>
@@ -3530,8 +4770,14 @@
       <c r="C204" s="1">
         <v>741</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
+      <c r="D204" s="4">
+        <v>8.3926639436625123</v>
+      </c>
+      <c r="E204" s="4">
+        <v>22.360936506309827</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>206</v>
       </c>
@@ -3541,8 +4787,14 @@
       <c r="C205" s="1">
         <v>658</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
+      <c r="D205" s="4">
+        <v>7.9930485169526833</v>
+      </c>
+      <c r="E205" s="4">
+        <v>18.08813074231432</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
@@ -3552,8 +4804,14 @@
       <c r="C206" s="1">
         <v>671.5</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
+      <c r="D206" s="4">
+        <v>10.336197633005497</v>
+      </c>
+      <c r="E206" s="4">
+        <v>18.526764437254656</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
@@ -3563,8 +4821,14 @@
       <c r="C207" s="1">
         <v>651.6</v>
       </c>
-    </row>
-    <row r="208" spans="1:3">
+      <c r="D207" s="4">
+        <v>9.246547917068483</v>
+      </c>
+      <c r="E207" s="4">
+        <v>21.722260540102297</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
@@ -3574,8 +4838,14 @@
       <c r="C208" s="1">
         <v>719.2</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
+      <c r="D208" s="4">
+        <v>8.2397761766130202</v>
+      </c>
+      <c r="E208" s="4">
+        <v>31.297168951741241</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
@@ -3585,8 +4855,14 @@
       <c r="C209" s="1">
         <v>692.2</v>
       </c>
-    </row>
-    <row r="210" spans="1:3">
+      <c r="D209" s="4">
+        <v>6.4260037061574735</v>
+      </c>
+      <c r="E209" s="4">
+        <v>35.679681999244281</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
@@ -3596,8 +4872,14 @@
       <c r="C210" s="1">
         <v>691.3</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
+      <c r="D210" s="4">
+        <v>7.9131254162177811</v>
+      </c>
+      <c r="E210" s="4">
+        <v>20.194229204672638</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
@@ -3607,8 +4889,14 @@
       <c r="C211" s="1">
         <v>655.7</v>
       </c>
-    </row>
-    <row r="212" spans="1:3">
+      <c r="D211" s="4">
+        <v>7.0977672079648073</v>
+      </c>
+      <c r="E211" s="4">
+        <v>17.814784636478919</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
@@ -3618,8 +4906,14 @@
       <c r="C212" s="1">
         <v>713.7</v>
       </c>
-    </row>
-    <row r="213" spans="1:3">
+      <c r="D212" s="4">
+        <v>6.4674448027495259</v>
+      </c>
+      <c r="E212" s="4">
+        <v>21.566489295039958</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>214</v>
       </c>
@@ -3629,8 +4923,14 @@
       <c r="C213" s="1">
         <v>715</v>
       </c>
-    </row>
-    <row r="214" spans="1:3">
+      <c r="D213" s="4">
+        <v>9.6538730394997287</v>
+      </c>
+      <c r="E213" s="4">
+        <v>16.495360094517707</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>215</v>
       </c>
@@ -3640,8 +4940,14 @@
       <c r="C214" s="1">
         <v>764.1</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="D214" s="4">
+        <v>9.1159474691520472</v>
+      </c>
+      <c r="E214" s="4">
+        <v>26.738090296697749</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>216</v>
       </c>
@@ -3651,8 +4957,14 @@
       <c r="C215" s="1">
         <v>682.7</v>
       </c>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="D215" s="4">
+        <v>7.7683098615219137</v>
+      </c>
+      <c r="E215" s="4">
+        <v>13.950488091507395</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>217</v>
       </c>
@@ -3662,8 +4974,14 @@
       <c r="C216" s="1">
         <v>711.8</v>
       </c>
-    </row>
-    <row r="217" spans="1:3">
+      <c r="D216" s="4">
+        <v>13.022037226067312</v>
+      </c>
+      <c r="E216" s="4">
+        <v>17.024465094347704</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
@@ -3673,8 +4991,14 @@
       <c r="C217" s="1">
         <v>693.4</v>
       </c>
-    </row>
-    <row r="218" spans="1:3">
+      <c r="D217" s="4">
+        <v>9.2963500677911384</v>
+      </c>
+      <c r="E217" s="4">
+        <v>18.964516446503239</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
@@ -3684,8 +5008,14 @@
       <c r="C218" s="1">
         <v>698.7</v>
       </c>
-    </row>
-    <row r="219" spans="1:3">
+      <c r="D218" s="4">
+        <v>14.412695496828576</v>
+      </c>
+      <c r="E218" s="4">
+        <v>16.189699213968765</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>220</v>
       </c>
@@ -3695,8 +5025,14 @@
       <c r="C219" s="1">
         <v>706.9</v>
       </c>
-    </row>
-    <row r="220" spans="1:3">
+      <c r="D219" s="4">
+        <v>8.1345620036007062</v>
+      </c>
+      <c r="E219" s="4">
+        <v>34.868788353915477</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>221</v>
       </c>
@@ -3706,8 +5042,14 @@
       <c r="C220" s="1">
         <v>760.8</v>
       </c>
-    </row>
-    <row r="221" spans="1:3">
+      <c r="D220" s="4">
+        <v>7.9598368248068709</v>
+      </c>
+      <c r="E220" s="4">
+        <v>16.105396546218742</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>222</v>
       </c>
@@ -3717,8 +5059,14 @@
       <c r="C221" s="1">
         <v>810</v>
       </c>
-    </row>
-    <row r="222" spans="1:3">
+      <c r="D221" s="4">
+        <v>8.3860916192289778</v>
+      </c>
+      <c r="E221" s="4">
+        <v>19.370921123484322</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>223</v>
       </c>
@@ -3728,8 +5076,14 @@
       <c r="C222" s="1">
         <v>806.5</v>
       </c>
-    </row>
-    <row r="223" spans="1:3">
+      <c r="D222" s="4">
+        <v>6.1954512483519579</v>
+      </c>
+      <c r="E222" s="4">
+        <v>13.631110426589373</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>224</v>
       </c>
@@ -3739,8 +5093,14 @@
       <c r="C223" s="1">
         <v>923.5</v>
       </c>
-    </row>
-    <row r="224" spans="1:3">
+      <c r="D223" s="4">
+        <v>16.372868027176878</v>
+      </c>
+      <c r="E223" s="4">
+        <v>36.789261043415536</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>225</v>
       </c>
@@ -3750,8 +5110,14 @@
       <c r="C224" s="1">
         <v>810.9</v>
       </c>
-    </row>
-    <row r="225" spans="1:3">
+      <c r="D224" s="4">
+        <v>10.904161521796311</v>
+      </c>
+      <c r="E224" s="4">
+        <v>18.361553228614241</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>226</v>
       </c>
@@ -3761,8 +5127,14 @@
       <c r="C225" s="1">
         <v>858.7</v>
       </c>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="D225" s="4">
+        <v>9.5154813543410341</v>
+      </c>
+      <c r="E225" s="4">
+        <v>20.725021771044112</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>227</v>
       </c>
@@ -3772,8 +5144,14 @@
       <c r="C226" s="1">
         <v>823</v>
       </c>
-    </row>
-    <row r="227" spans="1:3">
+      <c r="D226" s="4">
+        <v>8.7946662675953462</v>
+      </c>
+      <c r="E226" s="4">
+        <v>15.743366383523494</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>228</v>
       </c>
@@ -3783,8 +5161,14 @@
       <c r="C227" s="1">
         <v>932.7</v>
       </c>
-    </row>
-    <row r="228" spans="1:3">
+      <c r="D227" s="4">
+        <v>10.060429170497969</v>
+      </c>
+      <c r="E227" s="4">
+        <v>21.546553457922698</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
         <v>229</v>
       </c>
@@ -3794,8 +5178,14 @@
       <c r="C228" s="1">
         <v>842.7</v>
       </c>
-    </row>
-    <row r="229" spans="1:3">
+      <c r="D228" s="4">
+        <v>8.4392493291543929</v>
+      </c>
+      <c r="E228" s="4">
+        <v>16.318045697704633</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>230</v>
       </c>
@@ -3805,8 +5195,14 @@
       <c r="C229" s="1">
         <v>944.4</v>
       </c>
-    </row>
-    <row r="230" spans="1:3">
+      <c r="D229" s="4">
+        <v>8.4387167445052</v>
+      </c>
+      <c r="E229" s="4">
+        <v>13.771371990363605</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>231</v>
       </c>
@@ -3816,8 +5212,14 @@
       <c r="C230" s="1">
         <v>956</v>
       </c>
-    </row>
-    <row r="231" spans="1:3">
+      <c r="D230" s="4">
+        <v>9.4783923751103885</v>
+      </c>
+      <c r="E230" s="4">
+        <v>16.065625404660523</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>232</v>
       </c>
@@ -3827,8 +5229,14 @@
       <c r="C231" s="1">
         <v>981.2</v>
       </c>
-    </row>
-    <row r="232" spans="1:3">
+      <c r="D231" s="4">
+        <v>11.598223370916003</v>
+      </c>
+      <c r="E231" s="4">
+        <v>21.440775695631373</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>233</v>
       </c>
@@ -3838,8 +5246,14 @@
       <c r="C232" s="1">
         <v>985.9</v>
       </c>
-    </row>
-    <row r="233" spans="1:3">
+      <c r="D232" s="4">
+        <v>9.4945533119191623</v>
+      </c>
+      <c r="E232" s="4">
+        <v>15.926768573689856</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
         <v>234</v>
       </c>
@@ -3849,8 +5263,14 @@
       <c r="C233" s="1">
         <v>996.5</v>
       </c>
-    </row>
-    <row r="234" spans="1:3">
+      <c r="D233" s="4">
+        <v>10.261901534541437</v>
+      </c>
+      <c r="E233" s="4">
+        <v>35.517386338398296</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>235</v>
       </c>
@@ -3860,8 +5280,14 @@
       <c r="C234" s="1">
         <v>1005.9</v>
       </c>
-    </row>
-    <row r="235" spans="1:3">
+      <c r="D234" s="4">
+        <v>9.8087093129726668</v>
+      </c>
+      <c r="E234" s="4">
+        <v>19.550022493819142</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>236</v>
       </c>
@@ -3871,8 +5297,14 @@
       <c r="C235" s="1">
         <v>1017.8</v>
       </c>
-    </row>
-    <row r="236" spans="1:3">
+      <c r="D235" s="4">
+        <v>9.2067620959665533</v>
+      </c>
+      <c r="E235" s="4">
+        <v>16.573146436291438</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>237</v>
       </c>
@@ -3882,8 +5314,14 @@
       <c r="C236" s="1">
         <v>1021.1</v>
       </c>
-    </row>
-    <row r="237" spans="1:3">
+      <c r="D236" s="4">
+        <v>10.562759041656022</v>
+      </c>
+      <c r="E236" s="4">
+        <v>22.36013241332148</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
         <v>238</v>
       </c>
@@ -3893,8 +5331,14 @@
       <c r="C237" s="1">
         <v>1092.3</v>
       </c>
-    </row>
-    <row r="238" spans="1:3">
+      <c r="D237" s="4">
+        <v>10.504127620573399</v>
+      </c>
+      <c r="E237" s="4">
+        <v>22.756049642952462</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
         <v>239</v>
       </c>
@@ -3904,8 +5348,14 @@
       <c r="C238" s="1">
         <v>1413.6</v>
       </c>
-    </row>
-    <row r="239" spans="1:3">
+      <c r="D238" s="4">
+        <v>15.502654088667896</v>
+      </c>
+      <c r="E238" s="4">
+        <v>13.525847670377061</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>240</v>
       </c>
@@ -3915,8 +5365,14 @@
       <c r="C239" s="1">
         <v>1701.6</v>
       </c>
-    </row>
-    <row r="240" spans="1:3">
+      <c r="D239" s="4">
+        <v>24.888289803418729</v>
+      </c>
+      <c r="E239" s="4">
+        <v>13.305500118252894</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>241</v>
       </c>
@@ -3926,8 +5382,14 @@
       <c r="C240" s="1">
         <v>1730.7</v>
       </c>
-    </row>
-    <row r="241" spans="1:3">
+      <c r="D240" s="4">
+        <v>15.283224333446242</v>
+      </c>
+      <c r="E240" s="4">
+        <v>19.587474646547776</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>242</v>
       </c>
@@ -3937,8 +5399,14 @@
       <c r="C241" s="1">
         <v>1749.4</v>
       </c>
-    </row>
-    <row r="242" spans="1:3">
+      <c r="D241" s="4">
+        <v>19.271192058327642</v>
+      </c>
+      <c r="E241" s="4">
+        <v>12.813822337234342</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>243</v>
       </c>
@@ -3948,8 +5416,14 @@
       <c r="C242" s="1">
         <v>1825.2</v>
       </c>
-    </row>
-    <row r="243" spans="1:3">
+      <c r="D242" s="4">
+        <v>14.653032915409312</v>
+      </c>
+      <c r="E242" s="4">
+        <v>12.349837730297395</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
         <v>244</v>
       </c>
@@ -3959,8 +5433,14 @@
       <c r="C243" s="1">
         <v>1844.1</v>
       </c>
-    </row>
-    <row r="244" spans="1:3">
+      <c r="D243" s="4">
+        <v>37.634309576152646</v>
+      </c>
+      <c r="E243" s="4">
+        <v>25.709878751429414</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
         <v>245</v>
       </c>
@@ -3970,8 +5450,14 @@
       <c r="C244" s="1">
         <v>1846.2</v>
       </c>
-    </row>
-    <row r="245" spans="1:3">
+      <c r="D244" s="4">
+        <v>21.592899874468799</v>
+      </c>
+      <c r="E244" s="4">
+        <v>14.282366310923976</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>246</v>
       </c>
@@ -3981,8 +5467,14 @@
       <c r="C245" s="1">
         <v>1855</v>
       </c>
-    </row>
-    <row r="246" spans="1:3">
+      <c r="D245" s="4">
+        <v>18.613988922233375</v>
+      </c>
+      <c r="E245" s="4">
+        <v>16.402652786182443</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
         <v>247</v>
       </c>
@@ -3992,8 +5484,14 @@
       <c r="C246" s="1">
         <v>1868.3</v>
       </c>
-    </row>
-    <row r="247" spans="1:3">
+      <c r="D246" s="4">
+        <v>25.602736161116354</v>
+      </c>
+      <c r="E246" s="4">
+        <v>12.885143838220415</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>248</v>
       </c>
@@ -4003,8 +5501,14 @@
       <c r="C247" s="1">
         <v>1876.7</v>
       </c>
-    </row>
-    <row r="248" spans="1:3">
+      <c r="D247" s="4">
+        <v>17.985532859814157</v>
+      </c>
+      <c r="E247" s="4">
+        <v>14.497959418630671</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
         <v>249</v>
       </c>
@@ -4014,8 +5518,14 @@
       <c r="C248" s="1">
         <v>1897.3</v>
       </c>
-    </row>
-    <row r="249" spans="1:3">
+      <c r="D248" s="4">
+        <v>30.222411832459102</v>
+      </c>
+      <c r="E248" s="4">
+        <v>15.757251764643797</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
         <v>250</v>
       </c>
@@ -4025,8 +5535,14 @@
       <c r="C249" s="1">
         <v>1898.4</v>
       </c>
-    </row>
-    <row r="250" spans="1:3">
+      <c r="D249" s="4">
+        <v>19.554867909816835</v>
+      </c>
+      <c r="E249" s="4">
+        <v>11.617360691570298</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>251</v>
       </c>
@@ -4036,8 +5552,14 @@
       <c r="C250" s="1">
         <v>1899.1</v>
       </c>
-    </row>
-    <row r="251" spans="1:3">
+      <c r="D250" s="4">
+        <v>15.731574013158934</v>
+      </c>
+      <c r="E250" s="4">
+        <v>13.192105434703421</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>252</v>
       </c>
@@ -4047,8 +5569,14 @@
       <c r="C251" s="1">
         <v>1915.2</v>
       </c>
-    </row>
-    <row r="252" spans="1:3">
+      <c r="D251" s="4">
+        <v>21.380890674282568</v>
+      </c>
+      <c r="E251" s="4">
+        <v>16.107386539850495</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
         <v>253</v>
       </c>
@@ -4058,8 +5586,14 @@
       <c r="C252" s="1">
         <v>1924.7</v>
       </c>
-    </row>
-    <row r="253" spans="1:3">
+      <c r="D252" s="4">
+        <v>12.219886261842817</v>
+      </c>
+      <c r="E252" s="4">
+        <v>11.258899887304096</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>254</v>
       </c>
@@ -4069,8 +5603,14 @@
       <c r="C253" s="1">
         <v>1927.7</v>
       </c>
-    </row>
-    <row r="254" spans="1:3">
+      <c r="D253" s="4">
+        <v>22.480407660422316</v>
+      </c>
+      <c r="E253" s="4">
+        <v>12.945884521783</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
         <v>255</v>
       </c>
@@ -4080,8 +5620,14 @@
       <c r="C254" s="1">
         <v>1941.8</v>
       </c>
-    </row>
-    <row r="255" spans="1:3">
+      <c r="D254" s="4">
+        <v>17.408215788604366</v>
+      </c>
+      <c r="E254" s="4">
+        <v>12.556815307865918</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
         <v>256</v>
       </c>
@@ -4091,8 +5637,14 @@
       <c r="C255" s="1">
         <v>1942.1</v>
       </c>
-    </row>
-    <row r="256" spans="1:3">
+      <c r="D255" s="4">
+        <v>19.246121802034054</v>
+      </c>
+      <c r="E255" s="4">
+        <v>13.670873012286506</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>257</v>
       </c>
@@ -4102,8 +5654,14 @@
       <c r="C256" s="1">
         <v>1944.9</v>
       </c>
-    </row>
-    <row r="257" spans="1:3">
+      <c r="D256" s="4">
+        <v>16.957556868225311</v>
+      </c>
+      <c r="E256" s="4">
+        <v>10.435173228348503</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>258</v>
       </c>
@@ -4113,8 +5671,14 @@
       <c r="C257" s="1">
         <v>1946.7</v>
       </c>
-    </row>
-    <row r="258" spans="1:3">
+      <c r="D257" s="4">
+        <v>19.528309442413274</v>
+      </c>
+      <c r="E257" s="4">
+        <v>14.179623228040555</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>259</v>
       </c>
@@ -4124,8 +5688,14 @@
       <c r="C258" s="1">
         <v>1966.9</v>
       </c>
-    </row>
-    <row r="259" spans="1:3">
+      <c r="D258" s="4">
+        <v>22.088842221301888</v>
+      </c>
+      <c r="E258" s="4">
+        <v>10.546564066009637</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
         <v>260</v>
       </c>
@@ -4135,8 +5705,14 @@
       <c r="C259" s="1">
         <v>1979.3</v>
       </c>
-    </row>
-    <row r="260" spans="1:3">
+      <c r="D259" s="4">
+        <v>20.253897609936757</v>
+      </c>
+      <c r="E259" s="4">
+        <v>12.73245204295074</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
         <v>261</v>
       </c>
@@ -4146,8 +5722,14 @@
       <c r="C260" s="1">
         <v>1980.8</v>
       </c>
-    </row>
-    <row r="261" spans="1:3">
+      <c r="D260" s="4">
+        <v>16.175415513698454</v>
+      </c>
+      <c r="E260" s="4">
+        <v>13.707880186765578</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>262</v>
       </c>
@@ -4157,8 +5739,14 @@
       <c r="C261" s="1">
         <v>1997.2</v>
       </c>
-    </row>
-    <row r="262" spans="1:3">
+      <c r="D261" s="4">
+        <v>15.816001965767782</v>
+      </c>
+      <c r="E261" s="4">
+        <v>14.315359097280293</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
         <v>263</v>
       </c>
@@ -4168,8 +5756,14 @@
       <c r="C262" s="1">
         <v>1997.8</v>
       </c>
-    </row>
-    <row r="263" spans="1:3">
+      <c r="D262" s="4">
+        <v>22.145141233960771</v>
+      </c>
+      <c r="E262" s="4">
+        <v>15.693100203298854</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>264</v>
       </c>
@@ -4179,8 +5773,14 @@
       <c r="C263" s="1">
         <v>2000.2</v>
       </c>
-    </row>
-    <row r="264" spans="1:3">
+      <c r="D263" s="4">
+        <v>29.037926931978632</v>
+      </c>
+      <c r="E263" s="4">
+        <v>11.961783440765771</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>265</v>
       </c>
@@ -4190,8 +5790,14 @@
       <c r="C264" s="1">
         <v>2000.6</v>
       </c>
-    </row>
-    <row r="265" spans="1:3">
+      <c r="D264" s="4">
+        <v>14.996849890736485</v>
+      </c>
+      <c r="E264" s="4">
+        <v>11.304649197447702</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>266</v>
       </c>
@@ -4201,8 +5807,14 @@
       <c r="C265" s="1">
         <v>2013.6</v>
       </c>
-    </row>
-    <row r="266" spans="1:3">
+      <c r="D265" s="4">
+        <v>17.031803165145789</v>
+      </c>
+      <c r="E265" s="4">
+        <v>11.773974933348654</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>267</v>
       </c>
@@ -4212,8 +5824,14 @@
       <c r="C266" s="1">
         <v>2021.2</v>
       </c>
-    </row>
-    <row r="267" spans="1:3">
+      <c r="D266" s="4">
+        <v>17.16265506497848</v>
+      </c>
+      <c r="E266" s="4">
+        <v>13.020032043989886</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>268</v>
       </c>
@@ -4223,8 +5841,14 @@
       <c r="C267" s="1">
         <v>2041.5</v>
       </c>
-    </row>
-    <row r="268" spans="1:3">
+      <c r="D267" s="4">
+        <v>23.940849591664914</v>
+      </c>
+      <c r="E267" s="4">
+        <v>14.385708222688777</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
         <v>269</v>
       </c>
@@ -4234,8 +5858,14 @@
       <c r="C268" s="1">
         <v>2051.3000000000002</v>
       </c>
-    </row>
-    <row r="269" spans="1:3">
+      <c r="D268" s="4">
+        <v>21.112232207432726</v>
+      </c>
+      <c r="E268" s="4">
+        <v>13.136682435767398</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
         <v>270</v>
       </c>
@@ -4245,8 +5875,14 @@
       <c r="C269" s="1">
         <v>2055.8000000000002</v>
       </c>
-    </row>
-    <row r="270" spans="1:3">
+      <c r="D269" s="4">
+        <v>17.735527735892447</v>
+      </c>
+      <c r="E269" s="4">
+        <v>15.131590193843522</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A270" s="1" t="s">
         <v>271</v>
       </c>
@@ -4256,8 +5892,14 @@
       <c r="C270" s="1">
         <v>2056.8000000000002</v>
       </c>
-    </row>
-    <row r="271" spans="1:3">
+      <c r="D270" s="4">
+        <v>22.92574399258001</v>
+      </c>
+      <c r="E270" s="4">
+        <v>10.306343421485963</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
         <v>272</v>
       </c>
@@ -4267,8 +5909,14 @@
       <c r="C271" s="1">
         <v>2067.1999999999998</v>
       </c>
-    </row>
-    <row r="272" spans="1:3">
+      <c r="D271" s="4">
+        <v>18.887460421132914</v>
+      </c>
+      <c r="E271" s="4">
+        <v>12.648349856685854</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
         <v>273</v>
       </c>
@@ -4278,8 +5926,14 @@
       <c r="C272" s="1">
         <v>2103.8000000000002</v>
       </c>
-    </row>
-    <row r="273" spans="1:3">
+      <c r="D272" s="4">
+        <v>15.282364487952691</v>
+      </c>
+      <c r="E272" s="4">
+        <v>10.329330593661552</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
         <v>274</v>
       </c>
@@ -4289,8 +5943,14 @@
       <c r="C273" s="1">
         <v>2114.1999999999998</v>
       </c>
-    </row>
-    <row r="274" spans="1:3">
+      <c r="D273" s="4">
+        <v>20.847484580085734</v>
+      </c>
+      <c r="E273" s="4">
+        <v>13.191499878122386</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
         <v>275</v>
       </c>
@@ -4300,8 +5960,14 @@
       <c r="C274" s="1">
         <v>2120.9</v>
       </c>
-    </row>
-    <row r="275" spans="1:3">
+      <c r="D274" s="4">
+        <v>18.505518535768033</v>
+      </c>
+      <c r="E274" s="4">
+        <v>13.689553245066236</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
         <v>276</v>
       </c>
@@ -4311,8 +5977,14 @@
       <c r="C275" s="1">
         <v>2143.8000000000002</v>
       </c>
-    </row>
-    <row r="276" spans="1:3">
+      <c r="D275" s="4">
+        <v>23.072993749883494</v>
+      </c>
+      <c r="E275" s="4">
+        <v>12.147511585789516</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
         <v>277</v>
       </c>
@@ -4322,8 +5994,14 @@
       <c r="C276" s="1">
         <v>2144.5</v>
       </c>
-    </row>
-    <row r="277" spans="1:3">
+      <c r="D276" s="4">
+        <v>24.561477267375835</v>
+      </c>
+      <c r="E276" s="4">
+        <v>20.016381510492693</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
         <v>278</v>
       </c>
@@ -4333,8 +6011,14 @@
       <c r="C277" s="1">
         <v>2163.1999999999998</v>
       </c>
-    </row>
-    <row r="278" spans="1:3">
+      <c r="D277" s="4">
+        <v>17.690663181567629</v>
+      </c>
+      <c r="E277" s="4">
+        <v>12.648484256046459</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
         <v>279</v>
       </c>
@@ -4344,8 +6028,14 @@
       <c r="C278" s="1">
         <v>2202.6</v>
       </c>
-    </row>
-    <row r="279" spans="1:3">
+      <c r="D278" s="4">
+        <v>21.826285631099609</v>
+      </c>
+      <c r="E278" s="4">
+        <v>13.207096997670305</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A279" s="1" t="s">
         <v>280</v>
       </c>
@@ -4355,8 +6045,14 @@
       <c r="C279" s="1">
         <v>2237.1</v>
       </c>
-    </row>
-    <row r="280" spans="1:3">
+      <c r="D279" s="4">
+        <v>21.963163156521205</v>
+      </c>
+      <c r="E279" s="4">
+        <v>37.982644464393843</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A280" s="1" t="s">
         <v>281</v>
       </c>
@@ -4366,8 +6062,14 @@
       <c r="C280" s="1">
         <v>2343.9</v>
       </c>
-    </row>
-    <row r="281" spans="1:3">
+      <c r="D280" s="4">
+        <v>21.297077469780561</v>
+      </c>
+      <c r="E280" s="4">
+        <v>30.079889541391367</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
         <v>282</v>
       </c>
@@ -4377,8 +6079,14 @@
       <c r="C281" s="1">
         <v>2361.8000000000002</v>
       </c>
-    </row>
-    <row r="282" spans="1:3">
+      <c r="D281" s="4">
+        <v>20.585888545527041</v>
+      </c>
+      <c r="E281" s="4">
+        <v>14.715179970332201</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
         <v>283</v>
       </c>
@@ -4388,8 +6096,14 @@
       <c r="C282" s="1">
         <v>2381.8000000000002</v>
       </c>
-    </row>
-    <row r="283" spans="1:3">
+      <c r="D282" s="4">
+        <v>26.80542918229321</v>
+      </c>
+      <c r="E282" s="4">
+        <v>13.249827304523251</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283" s="1" t="s">
         <v>284</v>
       </c>
@@ -4399,8 +6113,14 @@
       <c r="C283" s="1">
         <v>2431.9</v>
       </c>
-    </row>
-    <row r="284" spans="1:3">
+      <c r="D283" s="4">
+        <v>32.575117622975313</v>
+      </c>
+      <c r="E283" s="4">
+        <v>23.767341851419133</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A284" s="1" t="s">
         <v>285</v>
       </c>
@@ -4410,8 +6130,14 @@
       <c r="C284" s="1">
         <v>2498.9</v>
       </c>
-    </row>
-    <row r="285" spans="1:3">
+      <c r="D284" s="4">
+        <v>26.02051585064919</v>
+      </c>
+      <c r="E284" s="4">
+        <v>20.086628670710979</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A285" s="1" t="s">
         <v>286</v>
       </c>
@@ -4421,8 +6147,14 @@
       <c r="C285" s="1">
         <v>2499.1</v>
       </c>
-    </row>
-    <row r="286" spans="1:3">
+      <c r="D285" s="4">
+        <v>27.116487680350247</v>
+      </c>
+      <c r="E285" s="4">
+        <v>13.217835565979613</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A286" s="1" t="s">
         <v>287</v>
       </c>
@@ -4432,8 +6164,14 @@
       <c r="C286" s="1">
         <v>2540.9</v>
       </c>
-    </row>
-    <row r="287" spans="1:3">
+      <c r="D286" s="4">
+        <v>26.329695663807342</v>
+      </c>
+      <c r="E286" s="4">
+        <v>11.629046756469052</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A287" s="1" t="s">
         <v>288</v>
       </c>
@@ -4443,8 +6181,14 @@
       <c r="C287" s="1">
         <v>2585.6</v>
       </c>
-    </row>
-    <row r="288" spans="1:3">
+      <c r="D287" s="4">
+        <v>38.125117371865144</v>
+      </c>
+      <c r="E287" s="4">
+        <v>18.215520177029703</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288" s="1" t="s">
         <v>289</v>
       </c>
@@ -4454,8 +6198,14 @@
       <c r="C288" s="1">
         <v>2585.9</v>
       </c>
-    </row>
-    <row r="289" spans="1:3">
+      <c r="D288" s="4">
+        <v>35.825641984221193</v>
+      </c>
+      <c r="E288" s="4">
+        <v>20.266362847760774</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A289" s="1" t="s">
         <v>290</v>
       </c>
@@ -4465,8 +6215,14 @@
       <c r="C289" s="1">
         <v>2608.6999999999998</v>
       </c>
-    </row>
-    <row r="290" spans="1:3">
+      <c r="D289" s="4">
+        <v>31.292217680799695</v>
+      </c>
+      <c r="E289" s="4">
+        <v>12.882004250720911</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A290" s="1" t="s">
         <v>291</v>
       </c>
@@ -4476,8 +6232,14 @@
       <c r="C290" s="1">
         <v>2613.8000000000002</v>
       </c>
-    </row>
-    <row r="291" spans="1:3">
+      <c r="D290" s="4">
+        <v>33.183534004428793</v>
+      </c>
+      <c r="E290" s="4">
+        <v>13.068716821076578</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A291" s="1" t="s">
         <v>292</v>
       </c>
@@ -4487,8 +6249,14 @@
       <c r="C291" s="1">
         <v>3255.4</v>
       </c>
-    </row>
-    <row r="292" spans="1:3">
+      <c r="D291" s="4">
+        <v>41.46290857769327</v>
+      </c>
+      <c r="E291" s="4">
+        <v>14.373969464372294</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>

--- a/Vasey20/N3.xlsx
+++ b/Vasey20/N3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyvas\git\dz-caucasus\Vasey20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E767F8E-BEF9-4B48-B707-21D7B756D0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F2D5E2-F95B-4D5C-AB2B-5DB527B5C5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2422" yWindow="2422" windowWidth="16876" windowHeight="10433" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
   <si>
     <t>Zircon Sample Number</t>
   </si>
@@ -916,6 +916,12 @@
   </si>
   <si>
     <t>206 Error</t>
+  </si>
+  <si>
+    <t>235/207 U-Pb Age</t>
+  </si>
+  <si>
+    <t>235 Error</t>
   </si>
 </sst>
 </file>
@@ -976,7 +982,7 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1296,11 +1302,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E292"/>
+  <dimension ref="A1:G292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E291"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:G291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1309,7 +1315,7 @@
     <col min="3" max="3" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1325,8 +1331,14 @@
       <c r="E1" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1342,8 +1354,14 @@
       <c r="E2" s="4">
         <v>20.348903324795032</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" s="4">
+        <v>325.75532213892899</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4.2069429500112108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1359,8 +1377,14 @@
       <c r="E3" s="4">
         <v>21.664207669354425</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" s="4">
+        <v>325.39541364714154</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5.3002992101415884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1376,8 +1400,14 @@
       <c r="E4" s="4">
         <v>21.566365752251528</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4" s="4">
+        <v>338.4688408787203</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6.2452020258992889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1393,8 +1423,14 @@
       <c r="E5" s="4">
         <v>17.154870109600523</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5" s="4">
+        <v>343.71235881346172</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4.5674176549641174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1410,8 +1446,14 @@
       <c r="E6" s="4">
         <v>17.889163873902106</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6" s="4">
+        <v>345.63845828500138</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4.8935807433131515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1427,8 +1469,14 @@
       <c r="E7" s="4">
         <v>22.315676743087721</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F7" s="4">
+        <v>351.61454096293727</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3.8745939240718315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1444,8 +1492,14 @@
       <c r="E8" s="4">
         <v>20.71801853507003</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8" s="4">
+        <v>354.19643162629774</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.1272974959876194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1461,8 +1515,14 @@
       <c r="E9" s="4">
         <v>21.64029855217558</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F9" s="4">
+        <v>356.85878050640878</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4.2917585594368006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1478,8 +1538,14 @@
       <c r="E10" s="4">
         <v>17.916179823083155</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F10" s="4">
+        <v>353.55960778320127</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4.452560473301503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1495,8 +1561,14 @@
       <c r="E11" s="4">
         <v>16.765614209773332</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F11" s="4">
+        <v>360.51766170154792</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3.6737485747926257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,8 +1584,14 @@
       <c r="E12" s="4">
         <v>18.565776011226944</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F12" s="4">
+        <v>353.90639020099542</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3.7738323963426694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1529,8 +1607,14 @@
       <c r="E13" s="4">
         <v>19.123030700940944</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F13" s="4">
+        <v>357.54278373367515</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3.9897326034359821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1546,8 +1630,14 @@
       <c r="E14" s="4">
         <v>44.620357530236561</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F14" s="4">
+        <v>355.98059950492183</v>
+      </c>
+      <c r="G14" s="4">
+        <v>10.180898431517051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1563,8 +1653,14 @@
       <c r="E15" s="4">
         <v>20.197457447188981</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F15" s="4">
+        <v>356.40002503532435</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5.5552281339396359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1580,8 +1676,14 @@
       <c r="E16" s="4">
         <v>32.50289066979056</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F16" s="4">
+        <v>360.16506195204965</v>
+      </c>
+      <c r="G16" s="4">
+        <v>6.024464067491067</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1597,8 +1699,14 @@
       <c r="E17" s="4">
         <v>19.982329444344543</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F17" s="4">
+        <v>357.01692334539939</v>
+      </c>
+      <c r="G17" s="4">
+        <v>4.6086209390726651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1614,8 +1722,14 @@
       <c r="E18" s="4">
         <v>17.401776084700003</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F18" s="4">
+        <v>357.52027751744083</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3.7843996012370837</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1631,8 +1745,14 @@
       <c r="E19" s="4">
         <v>24.778474409089824</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F19" s="4">
+        <v>363.90920138866994</v>
+      </c>
+      <c r="G19" s="4">
+        <v>4.5324202584210411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1648,8 +1768,14 @@
       <c r="E20" s="4">
         <v>20.514540876389475</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F20" s="4">
+        <v>368.72053188589706</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3.9675856900219912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1665,8 +1791,14 @@
       <c r="E21" s="4">
         <v>14.537746034811192</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F21" s="4">
+        <v>372.70813648790971</v>
+      </c>
+      <c r="G21" s="4">
+        <v>4.7067389047047641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1682,8 +1814,14 @@
       <c r="E22" s="4">
         <v>19.970651340290658</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F22" s="4">
+        <v>372.34667860019539</v>
+      </c>
+      <c r="G22" s="4">
+        <v>3.8395571745043071</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1699,8 +1837,14 @@
       <c r="E23" s="4">
         <v>19.807010604331708</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F23" s="4">
+        <v>373.71172226476079</v>
+      </c>
+      <c r="G23" s="4">
+        <v>4.5297367144262353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1716,8 +1860,14 @@
       <c r="E24" s="4">
         <v>17.481700412389358</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F24" s="4">
+        <v>370.89800006827613</v>
+      </c>
+      <c r="G24" s="4">
+        <v>4.0735473735319943</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1733,8 +1883,14 @@
       <c r="E25" s="4">
         <v>18.242322720993371</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F25" s="4">
+        <v>371.80362149214108</v>
+      </c>
+      <c r="G25" s="4">
+        <v>7.0515153761052147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1906,14 @@
       <c r="E26" s="4">
         <v>16.259275057586621</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F26" s="4">
+        <v>369.03536198716267</v>
+      </c>
+      <c r="G26" s="4">
+        <v>6.3776866830674237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1767,8 +1929,14 @@
       <c r="E27" s="4">
         <v>33.835468758578145</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F27" s="4">
+        <v>400.45135401804919</v>
+      </c>
+      <c r="G27" s="4">
+        <v>6.4072969715196564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1784,8 +1952,14 @@
       <c r="E28" s="4">
         <v>19.891105086998436</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F28" s="4">
+        <v>383.878727987518</v>
+      </c>
+      <c r="G28" s="4">
+        <v>4.6070414969410649</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1801,8 +1975,14 @@
       <c r="E29" s="4">
         <v>26.642513810737313</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F29" s="4">
+        <v>387.78400922386317</v>
+      </c>
+      <c r="G29" s="4">
+        <v>5.5127364525507119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1818,8 +1998,14 @@
       <c r="E30" s="4">
         <v>21.067648652462225</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F30" s="4">
+        <v>383.91777799362035</v>
+      </c>
+      <c r="G30" s="4">
+        <v>4.6222492328140845</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1835,8 +2021,14 @@
       <c r="E31" s="4">
         <v>23.446702247304785</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F31" s="4">
+        <v>380.78939962960339</v>
+      </c>
+      <c r="G31" s="4">
+        <v>5.6638023030406259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1852,8 +2044,14 @@
       <c r="E32" s="4">
         <v>25.579477733285927</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F32" s="4">
+        <v>387.67467656817945</v>
+      </c>
+      <c r="G32" s="4">
+        <v>5.6297270844657419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1869,8 +2067,14 @@
       <c r="E33" s="4">
         <v>23.067084699627031</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F33" s="4">
+        <v>389.16516658618445</v>
+      </c>
+      <c r="G33" s="4">
+        <v>4.5560193861837774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1886,8 +2090,14 @@
       <c r="E34" s="4">
         <v>10.951566449712033</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F34" s="4">
+        <v>393.53107428002534</v>
+      </c>
+      <c r="G34" s="4">
+        <v>4.5817786854517806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1903,8 +2113,14 @@
       <c r="E35" s="4">
         <v>21.726735834556678</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F35" s="4">
+        <v>443.1789351324154</v>
+      </c>
+      <c r="G35" s="4">
+        <v>5.404470227124051</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1920,8 +2136,14 @@
       <c r="E36" s="4">
         <v>19.670378757515522</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F36" s="4">
+        <v>449.69729771587345</v>
+      </c>
+      <c r="G36" s="4">
+        <v>17.55292473044824</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -1937,8 +2159,14 @@
       <c r="E37" s="4">
         <v>21.043949276375713</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F37" s="4">
+        <v>461.69712860096445</v>
+      </c>
+      <c r="G37" s="4">
+        <v>5.6593832184608743</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1954,8 +2182,14 @@
       <c r="E38" s="4">
         <v>15.623220597975234</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F38" s="4">
+        <v>455.04106796646585</v>
+      </c>
+      <c r="G38" s="4">
+        <v>5.242452863550028</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1971,8 +2205,14 @@
       <c r="E39" s="4">
         <v>18.199830228798589</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F39" s="4">
+        <v>461.01846839010142</v>
+      </c>
+      <c r="G39" s="4">
+        <v>5.5514362709174918</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1988,8 +2228,14 @@
       <c r="E40" s="4">
         <v>18.96064371899763</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F40" s="4">
+        <v>464.00958190649891</v>
+      </c>
+      <c r="G40" s="4">
+        <v>6.0032967115221822</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -2005,8 +2251,14 @@
       <c r="E41" s="4">
         <v>13.257180507786899</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F41" s="4">
+        <v>461.55379673420776</v>
+      </c>
+      <c r="G41" s="4">
+        <v>4.2568547700225565</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -2022,8 +2274,14 @@
       <c r="E42" s="4">
         <v>17.920595613607901</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F42" s="4">
+        <v>458.5040918848519</v>
+      </c>
+      <c r="G42" s="4">
+        <v>5.2380122125274227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -2039,8 +2297,14 @@
       <c r="E43" s="4">
         <v>20.148827801913569</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F43" s="4">
+        <v>466.25472107831223</v>
+      </c>
+      <c r="G43" s="4">
+        <v>4.8540686733810219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -2056,8 +2320,14 @@
       <c r="E44" s="4">
         <v>17.442628682720169</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F44" s="4">
+        <v>469.88615707855587</v>
+      </c>
+      <c r="G44" s="4">
+        <v>4.9052218829294532</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -2073,8 +2343,14 @@
       <c r="E45" s="4">
         <v>17.163117945561964</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F45" s="4">
+        <v>470.96994779046355</v>
+      </c>
+      <c r="G45" s="4">
+        <v>4.0404740748629138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -2090,8 +2366,14 @@
       <c r="E46" s="4">
         <v>18.604938307199205</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F46" s="4">
+        <v>476.1533839986414</v>
+      </c>
+      <c r="G46" s="4">
+        <v>5.4967121256959217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -2107,8 +2389,14 @@
       <c r="E47" s="4">
         <v>20.537948555871026</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F47" s="4">
+        <v>481.34296240779338</v>
+      </c>
+      <c r="G47" s="4">
+        <v>5.4992263549399638</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -2124,8 +2412,14 @@
       <c r="E48" s="4">
         <v>20.495996786570402</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F48" s="4">
+        <v>477.6420880111495</v>
+      </c>
+      <c r="G48" s="4">
+        <v>5.1834834932628837</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -2141,8 +2435,14 @@
       <c r="E49" s="4">
         <v>15.273053333265324</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F49" s="4">
+        <v>474.39824988261648</v>
+      </c>
+      <c r="G49" s="4">
+        <v>5.3687510747642762</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -2158,8 +2458,14 @@
       <c r="E50" s="4">
         <v>17.109802367725109</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F50" s="4">
+        <v>479.83947296600763</v>
+      </c>
+      <c r="G50" s="4">
+        <v>4.4245577094421549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -2175,8 +2481,14 @@
       <c r="E51" s="4">
         <v>17.129967957267894</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F51" s="4">
+        <v>470.26819768295616</v>
+      </c>
+      <c r="G51" s="4">
+        <v>5.2273022041229638</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -2192,8 +2504,14 @@
       <c r="E52" s="4">
         <v>20.132002030188005</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F52" s="4">
+        <v>477.42449526110551</v>
+      </c>
+      <c r="G52" s="4">
+        <v>5.6495398027084889</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -2209,8 +2527,14 @@
       <c r="E53" s="4">
         <v>19.320547539525194</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F53" s="4">
+        <v>474.93836347850123</v>
+      </c>
+      <c r="G53" s="4">
+        <v>4.799249205175272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -2226,8 +2550,14 @@
       <c r="E54" s="4">
         <v>24.498536247668795</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F54" s="4">
+        <v>475.95041681176281</v>
+      </c>
+      <c r="G54" s="4">
+        <v>7.072002186670602</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -2243,8 +2573,14 @@
       <c r="E55" s="4">
         <v>19.263082316786182</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F55" s="4">
+        <v>471.98576610034809</v>
+      </c>
+      <c r="G55" s="4">
+        <v>6.1013023111209463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -2260,8 +2596,14 @@
       <c r="E56" s="4">
         <v>14.923613412056966</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F56" s="4">
+        <v>483.26086925858391</v>
+      </c>
+      <c r="G56" s="4">
+        <v>4.5917616900250096</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -2277,8 +2619,14 @@
       <c r="E57" s="4">
         <v>18.936981135669413</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F57" s="4">
+        <v>481.19665250811437</v>
+      </c>
+      <c r="G57" s="4">
+        <v>6.471803899184863</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -2294,8 +2642,14 @@
       <c r="E58" s="4">
         <v>20.009578132052184</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F58" s="4">
+        <v>482.24804094807979</v>
+      </c>
+      <c r="G58" s="4">
+        <v>5.7584799531648798</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -2311,8 +2665,14 @@
       <c r="E59" s="4">
         <v>15.538710544554107</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F59" s="4">
+        <v>476.6745829860273</v>
+      </c>
+      <c r="G59" s="4">
+        <v>5.3402901208791036</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2688,14 @@
       <c r="E60" s="4">
         <v>16.516671640089612</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F60" s="4">
+        <v>489.37979862366927</v>
+      </c>
+      <c r="G60" s="4">
+        <v>5.4282494677325985</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -2345,8 +2711,14 @@
       <c r="E61" s="4">
         <v>21.389859498341508</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F61" s="4">
+        <v>483.01834252391063</v>
+      </c>
+      <c r="G61" s="4">
+        <v>5.1493913073406929</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -2362,8 +2734,14 @@
       <c r="E62" s="4">
         <v>19.648937781281631</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F62" s="4">
+        <v>480.31232131021858</v>
+      </c>
+      <c r="G62" s="4">
+        <v>5.403725516352381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -2379,8 +2757,14 @@
       <c r="E63" s="4">
         <v>43.856011920831662</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F63" s="4">
+        <v>480.31605894351287</v>
+      </c>
+      <c r="G63" s="4">
+        <v>9.2255507100791192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -2396,8 +2780,14 @@
       <c r="E64" s="4">
         <v>16.929927099224244</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F64" s="4">
+        <v>480.91148623179282</v>
+      </c>
+      <c r="G64" s="4">
+        <v>5.9846285556836563</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -2413,8 +2803,14 @@
       <c r="E65" s="4">
         <v>20.410147684212006</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F65" s="4">
+        <v>475.7307972210283</v>
+      </c>
+      <c r="G65" s="4">
+        <v>5.0931697928285757</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -2430,8 +2826,14 @@
       <c r="E66" s="4">
         <v>18.534081934027967</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F66" s="4">
+        <v>477.92972380429285</v>
+      </c>
+      <c r="G66" s="4">
+        <v>5.1802198239858228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -2447,8 +2849,14 @@
       <c r="E67" s="4">
         <v>18.788932681262509</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F67" s="4">
+        <v>476.41354486422262</v>
+      </c>
+      <c r="G67" s="4">
+        <v>4.9330872471213922</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -2464,8 +2872,14 @@
       <c r="E68" s="4">
         <v>21.16964215287652</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F68" s="4">
+        <v>488.20426156725239</v>
+      </c>
+      <c r="G68" s="4">
+        <v>7.1254787609020127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -2481,8 +2895,14 @@
       <c r="E69" s="4">
         <v>34.109652819134283</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F69" s="4">
+        <v>488.1161751877234</v>
+      </c>
+      <c r="G69" s="4">
+        <v>7.0362688914662783</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -2498,8 +2918,14 @@
       <c r="E70" s="4">
         <v>18.460367209749677</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F70" s="4">
+        <v>484.03463361494357</v>
+      </c>
+      <c r="G70" s="4">
+        <v>5.5907928228173773</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -2515,8 +2941,14 @@
       <c r="E71" s="4">
         <v>20.151571153497628</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F71" s="4">
+        <v>482.62291425659049</v>
+      </c>
+      <c r="G71" s="4">
+        <v>5.4432089393374667</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -2532,8 +2964,14 @@
       <c r="E72" s="4">
         <v>28.867034279808138</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F72" s="4">
+        <v>491.50144325114337</v>
+      </c>
+      <c r="G72" s="4">
+        <v>6.7715307613801485</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -2549,8 +2987,14 @@
       <c r="E73" s="4">
         <v>18.266234595617789</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F73" s="4">
+        <v>490.63589453834709</v>
+      </c>
+      <c r="G73" s="4">
+        <v>5.0033188263581394</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -2566,8 +3010,14 @@
       <c r="E74" s="4">
         <v>15.670071916263993</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F74" s="4">
+        <v>483.30947369557606</v>
+      </c>
+      <c r="G74" s="4">
+        <v>4.4189540981981565</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -2583,8 +3033,14 @@
       <c r="E75" s="4">
         <v>24.50583882132338</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F75" s="4">
+        <v>484.33795113998048</v>
+      </c>
+      <c r="G75" s="4">
+        <v>6.7764857234953979</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -2600,8 +3056,14 @@
       <c r="E76" s="4">
         <v>18.44760925031423</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F76" s="4">
+        <v>481.92490149363221</v>
+      </c>
+      <c r="G76" s="4">
+        <v>4.4633636043643605</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -2617,8 +3079,14 @@
       <c r="E77" s="4">
         <v>19.850925663819652</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F77" s="4">
+        <v>478.73878480007249</v>
+      </c>
+      <c r="G77" s="4">
+        <v>6.1202708969929063</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -2634,8 +3102,14 @@
       <c r="E78" s="4">
         <v>26.109713954759258</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F78" s="4">
+        <v>486.08400602815993</v>
+      </c>
+      <c r="G78" s="4">
+        <v>6.7708894307971264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -2651,8 +3125,14 @@
       <c r="E79" s="4">
         <v>19.159054272224665</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F79" s="4">
+        <v>495.2584213547031</v>
+      </c>
+      <c r="G79" s="4">
+        <v>4.9207789206041923</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
@@ -2668,8 +3148,14 @@
       <c r="E80" s="4">
         <v>18.686261977073826</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F80" s="4">
+        <v>489.77072068503588</v>
+      </c>
+      <c r="G80" s="4">
+        <v>5.5405315413684662</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
@@ -2685,8 +3171,14 @@
       <c r="E81" s="4">
         <v>27.842356647425845</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F81" s="4">
+        <v>496.62279137043583</v>
+      </c>
+      <c r="G81" s="4">
+        <v>6.4457797375043526</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
@@ -2702,8 +3194,14 @@
       <c r="E82" s="4">
         <v>31.598308284621112</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F82" s="4">
+        <v>501.82249490572474</v>
+      </c>
+      <c r="G82" s="4">
+        <v>6.9486071097297497</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
@@ -2719,8 +3217,14 @@
       <c r="E83" s="4">
         <v>35.528353007619444</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F83" s="4">
+        <v>501.85517322821119</v>
+      </c>
+      <c r="G83" s="4">
+        <v>8.2419865547863935</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
@@ -2736,8 +3240,14 @@
       <c r="E84" s="4">
         <v>16.946875179213862</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F84" s="4">
+        <v>503.52014972359535</v>
+      </c>
+      <c r="G84" s="4">
+        <v>6.5295440585702238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -2753,8 +3263,14 @@
       <c r="E85" s="4">
         <v>42.056974279150097</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F85" s="4">
+        <v>507.5231952385065</v>
+      </c>
+      <c r="G85" s="4">
+        <v>9.1996034886666394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
@@ -2770,8 +3286,14 @@
       <c r="E86" s="4">
         <v>19.124436957516764</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F86" s="4">
+        <v>500.48750680992435</v>
+      </c>
+      <c r="G86" s="4">
+        <v>5.9154003763062519</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
@@ -2787,8 +3309,14 @@
       <c r="E87" s="4">
         <v>19.25184286217322</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F87" s="4">
+        <v>495.56408021856464</v>
+      </c>
+      <c r="G87" s="4">
+        <v>5.3090971483082399</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -2804,8 +3332,14 @@
       <c r="E88" s="4">
         <v>17.767715795623985</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F88" s="4">
+        <v>497.73610798615749</v>
+      </c>
+      <c r="G88" s="4">
+        <v>5.6354810379097273</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
@@ -2821,8 +3355,14 @@
       <c r="E89" s="4">
         <v>17.374997868368439</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F89" s="4">
+        <v>513.18742900538564</v>
+      </c>
+      <c r="G89" s="4">
+        <v>6.2787574152240211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -2838,8 +3378,14 @@
       <c r="E90" s="4">
         <v>22.012512580745181</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F90" s="4">
+        <v>508.83695909583787</v>
+      </c>
+      <c r="G90" s="4">
+        <v>5.4814245767127261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -2855,8 +3401,14 @@
       <c r="E91" s="4">
         <v>18.907622123682984</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F91" s="4">
+        <v>517.41366853028921</v>
+      </c>
+      <c r="G91" s="4">
+        <v>5.6520454023793434</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
@@ -2872,8 +3424,14 @@
       <c r="E92" s="4">
         <v>20.648782274099602</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F92" s="4">
+        <v>504.22463717039636</v>
+      </c>
+      <c r="G92" s="4">
+        <v>5.9777319291495132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
@@ -2889,8 +3447,14 @@
       <c r="E93" s="4">
         <v>18.68313006147747</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F93" s="4">
+        <v>515.0950260683345</v>
+      </c>
+      <c r="G93" s="4">
+        <v>5.1801551781362036</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -2906,8 +3470,14 @@
       <c r="E94" s="4">
         <v>20.120922685654619</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F94" s="4">
+        <v>516.779151423553</v>
+      </c>
+      <c r="G94" s="4">
+        <v>5.4522448628026723</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
@@ -2923,8 +3493,14 @@
       <c r="E95" s="4">
         <v>18.060296318519988</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F95" s="4">
+        <v>521.48539043725361</v>
+      </c>
+      <c r="G95" s="4">
+        <v>6.6078762628447407</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -2940,8 +3516,14 @@
       <c r="E96" s="4">
         <v>17.010833000988669</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F96" s="4">
+        <v>525.59049902906816</v>
+      </c>
+      <c r="G96" s="4">
+        <v>6.8049913969351792</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -2957,8 +3539,14 @@
       <c r="E97" s="4">
         <v>27.046197602840266</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F97" s="4">
+        <v>541.81065782831581</v>
+      </c>
+      <c r="G97" s="4">
+        <v>8.23802449654778</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -2974,8 +3562,14 @@
       <c r="E98" s="4">
         <v>22.061683320201041</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F98" s="4">
+        <v>535.18898497404916</v>
+      </c>
+      <c r="G98" s="4">
+        <v>6.2328937686103814</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -2991,8 +3585,14 @@
       <c r="E99" s="4">
         <v>24.250727526999185</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F99" s="4">
+        <v>542.52704906824351</v>
+      </c>
+      <c r="G99" s="4">
+        <v>6.5349934884863501</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -3008,8 +3608,14 @@
       <c r="E100" s="4">
         <v>15.957288136104239</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F100" s="4">
+        <v>544.10304878748127</v>
+      </c>
+      <c r="G100" s="4">
+        <v>5.1372479404406022</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -3025,8 +3631,14 @@
       <c r="E101" s="4">
         <v>20.06018261057784</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F101" s="4">
+        <v>543.27556936878898</v>
+      </c>
+      <c r="G101" s="4">
+        <v>6.9586273989629603</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -3042,8 +3654,14 @@
       <c r="E102" s="4">
         <v>17.779987613187416</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F102" s="4">
+        <v>540.61939165116462</v>
+      </c>
+      <c r="G102" s="4">
+        <v>5.288994178427572</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -3059,8 +3677,14 @@
       <c r="E103" s="4">
         <v>26.46567152664511</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F103" s="4">
+        <v>547.44863431089698</v>
+      </c>
+      <c r="G103" s="4">
+        <v>7.7418450196504409</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
@@ -3076,8 +3700,14 @@
       <c r="E104" s="4">
         <v>27.742847285887478</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F104" s="4">
+        <v>546.59551408878212</v>
+      </c>
+      <c r="G104" s="4">
+        <v>9.2797957227652432</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -3093,8 +3723,14 @@
       <c r="E105" s="4">
         <v>31.008710765307399</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F105" s="4">
+        <v>552.45461857808789</v>
+      </c>
+      <c r="G105" s="4">
+        <v>8.6973157004583754</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -3110,8 +3746,14 @@
       <c r="E106" s="4">
         <v>14.90301639152807</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F106" s="4">
+        <v>538.439771934693</v>
+      </c>
+      <c r="G106" s="4">
+        <v>5.6092573217795803</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -3127,8 +3769,14 @@
       <c r="E107" s="4">
         <v>15.961376360533677</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F107" s="4">
+        <v>547.13658972157077</v>
+      </c>
+      <c r="G107" s="4">
+        <v>5.8086125316295352</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -3144,8 +3792,14 @@
       <c r="E108" s="4">
         <v>20.713572913305541</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F108" s="4">
+        <v>545.79721529487551</v>
+      </c>
+      <c r="G108" s="4">
+        <v>6.5733084976335476</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -3161,8 +3815,14 @@
       <c r="E109" s="4">
         <v>18.031027429897676</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F109" s="4">
+        <v>555.15932881083086</v>
+      </c>
+      <c r="G109" s="4">
+        <v>5.1978656585091016</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -3178,8 +3838,14 @@
       <c r="E110" s="4">
         <v>18.152015406395492</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F110" s="4">
+        <v>546.21416809424431</v>
+      </c>
+      <c r="G110" s="4">
+        <v>5.9308057911522951</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -3195,8 +3861,14 @@
       <c r="E111" s="4">
         <v>22.47507746821401</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F111" s="4">
+        <v>560.15982055407164</v>
+      </c>
+      <c r="G111" s="4">
+        <v>6.3396724345992084</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -3212,8 +3884,14 @@
       <c r="E112" s="4">
         <v>24.290666694991785</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F112" s="4">
+        <v>558.31914054763433</v>
+      </c>
+      <c r="G112" s="4">
+        <v>8.0227831817236961</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -3229,8 +3907,14 @@
       <c r="E113" s="4">
         <v>17.41324432746751</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F113" s="4">
+        <v>557.10146464517015</v>
+      </c>
+      <c r="G113" s="4">
+        <v>6.1784534006393983</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -3246,8 +3930,14 @@
       <c r="E114" s="4">
         <v>14.122896031481844</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F114" s="4">
+        <v>553.56740243946831</v>
+      </c>
+      <c r="G114" s="4">
+        <v>6.0760371131337365</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -3263,8 +3953,14 @@
       <c r="E115" s="4">
         <v>19.331919139134982</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F115" s="4">
+        <v>561.5919946462343</v>
+      </c>
+      <c r="G115" s="4">
+        <v>6.317690074873326</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -3280,8 +3976,14 @@
       <c r="E116" s="4">
         <v>16.590233888264493</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F116" s="4">
+        <v>563.34347439406793</v>
+      </c>
+      <c r="G116" s="4">
+        <v>4.6394166214413417</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -3297,8 +3999,14 @@
       <c r="E117" s="4">
         <v>26.325603304764684</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F117" s="4">
+        <v>556.61436786743059</v>
+      </c>
+      <c r="G117" s="4">
+        <v>8.2661707530984927</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -3314,8 +4022,14 @@
       <c r="E118" s="4">
         <v>22.171295970659912</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F118" s="4">
+        <v>567.21947076604124</v>
+      </c>
+      <c r="G118" s="4">
+        <v>6.4149804182171692</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -3331,8 +4045,14 @@
       <c r="E119" s="4">
         <v>19.915007690238554</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F119" s="4">
+        <v>560.20653240376794</v>
+      </c>
+      <c r="G119" s="4">
+        <v>7.6027244723194372</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -3348,8 +4068,14 @@
       <c r="E120" s="4">
         <v>28.178685089274154</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F120" s="4">
+        <v>562.99790476459475</v>
+      </c>
+      <c r="G120" s="4">
+        <v>7.0568830385020647</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -3365,8 +4091,14 @@
       <c r="E121" s="4">
         <v>18.65154956498003</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F121" s="4">
+        <v>561.06710581763718</v>
+      </c>
+      <c r="G121" s="4">
+        <v>6.554657378501588</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -3382,8 +4114,14 @@
       <c r="E122" s="4">
         <v>20.653044353143173</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F122" s="4">
+        <v>571.34455453563623</v>
+      </c>
+      <c r="G122" s="4">
+        <v>8.3095986902083609</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -3399,8 +4137,14 @@
       <c r="E123" s="4">
         <v>18.156350305306148</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F123" s="4">
+        <v>574.00243825203563</v>
+      </c>
+      <c r="G123" s="4">
+        <v>5.3260632100632961</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -3416,8 +4160,14 @@
       <c r="E124" s="4">
         <v>18.568188859692555</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F124" s="4">
+        <v>570.59866631863258</v>
+      </c>
+      <c r="G124" s="4">
+        <v>6.7492094278994159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -3433,8 +4183,14 @@
       <c r="E125" s="4">
         <v>18.717275704817268</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F125" s="4">
+        <v>575.32346710286356</v>
+      </c>
+      <c r="G125" s="4">
+        <v>6.6657577075079644</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -3450,8 +4206,14 @@
       <c r="E126" s="4">
         <v>17.889052729397577</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F126" s="4">
+        <v>567.61592549504758</v>
+      </c>
+      <c r="G126" s="4">
+        <v>6.9379488230928246</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -3467,8 +4229,14 @@
       <c r="E127" s="4">
         <v>16.198017101910182</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F127" s="4">
+        <v>567.93778164035848</v>
+      </c>
+      <c r="G127" s="4">
+        <v>6.3170067682167428</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -3484,8 +4252,14 @@
       <c r="E128" s="4">
         <v>23.071787673684071</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F128" s="4">
+        <v>584.16643810546316</v>
+      </c>
+      <c r="G128" s="4">
+        <v>6.0902999889899547</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -3501,8 +4275,14 @@
       <c r="E129" s="4">
         <v>20.444609694171845</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F129" s="4">
+        <v>580.37066299240746</v>
+      </c>
+      <c r="G129" s="4">
+        <v>7.3577948965514679</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -3518,8 +4298,14 @@
       <c r="E130" s="4">
         <v>26.995660210519304</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F130" s="4">
+        <v>590.44274924447029</v>
+      </c>
+      <c r="G130" s="4">
+        <v>7.7908591902715898</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -3535,8 +4321,14 @@
       <c r="E131" s="4">
         <v>16.873704200647978</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F131" s="4">
+        <v>576.50896758802628</v>
+      </c>
+      <c r="G131" s="4">
+        <v>5.9761388911568929</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -3552,8 +4344,14 @@
       <c r="E132" s="4">
         <v>16.693887262951762</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F132" s="4">
+        <v>591.52023083008567</v>
+      </c>
+      <c r="G132" s="4">
+        <v>6.6946051312807526</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -3569,8 +4367,14 @@
       <c r="E133" s="4">
         <v>26.877856593710646</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F133" s="4">
+        <v>603.9395206393466</v>
+      </c>
+      <c r="G133" s="4">
+        <v>7.6612120048852148</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -3586,8 +4390,14 @@
       <c r="E134" s="4">
         <v>15.201543275087204</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F134" s="4">
+        <v>575.55827997744598</v>
+      </c>
+      <c r="G134" s="4">
+        <v>5.8696864018717747</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -3603,8 +4413,14 @@
       <c r="E135" s="4">
         <v>16.476930720470591</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F135" s="4">
+        <v>581.82589751186435</v>
+      </c>
+      <c r="G135" s="4">
+        <v>7.3393676675150914</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -3620,8 +4436,14 @@
       <c r="E136" s="4">
         <v>17.177166263580489</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F136" s="4">
+        <v>574.42244721578288</v>
+      </c>
+      <c r="G136" s="4">
+        <v>5.4279752763900433</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -3637,8 +4459,14 @@
       <c r="E137" s="4">
         <v>21.255568893216719</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F137" s="4">
+        <v>587.51206409314398</v>
+      </c>
+      <c r="G137" s="4">
+        <v>6.030307411180047</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -3654,8 +4482,14 @@
       <c r="E138" s="4">
         <v>39.425767564216471</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F138" s="4">
+        <v>592.56685470280127</v>
+      </c>
+      <c r="G138" s="4">
+        <v>9.874562579048586</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
@@ -3671,8 +4505,14 @@
       <c r="E139" s="4">
         <v>16.098745599399706</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F139" s="4">
+        <v>593.57566824357207</v>
+      </c>
+      <c r="G139" s="4">
+        <v>5.4292329607770853</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
@@ -3688,8 +4528,14 @@
       <c r="E140" s="4">
         <v>19.222210228381641</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F140" s="4">
+        <v>588.10358926831668</v>
+      </c>
+      <c r="G140" s="4">
+        <v>5.8682709711011967</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -3705,8 +4551,14 @@
       <c r="E141" s="4">
         <v>26.832206823257479</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F141" s="4">
+        <v>584.37836757348782</v>
+      </c>
+      <c r="G141" s="4">
+        <v>7.4334033265875519</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
@@ -3722,8 +4574,14 @@
       <c r="E142" s="4">
         <v>17.641542002672224</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F142" s="4">
+        <v>585.71195165291749</v>
+      </c>
+      <c r="G142" s="4">
+        <v>6.1046826958006477</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
@@ -3739,8 +4597,14 @@
       <c r="E143" s="4">
         <v>18.050500276666639</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F143" s="4">
+        <v>591.57651033967545</v>
+      </c>
+      <c r="G143" s="4">
+        <v>5.9291314704048546</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
@@ -3756,8 +4620,14 @@
       <c r="E144" s="4">
         <v>28.172349493249897</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F144" s="4">
+        <v>601.39598991416142</v>
+      </c>
+      <c r="G144" s="4">
+        <v>8.6621061703305031</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -3773,8 +4643,14 @@
       <c r="E145" s="4">
         <v>16.603448687822834</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F145" s="4">
+        <v>584.40891601999863</v>
+      </c>
+      <c r="G145" s="4">
+        <v>6.4398528157599344</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
@@ -3790,8 +4666,14 @@
       <c r="E146" s="4">
         <v>19.322564540472172</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F146" s="4">
+        <v>586.96389873101475</v>
+      </c>
+      <c r="G146" s="4">
+        <v>5.6518753670663386</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
@@ -3807,8 +4689,14 @@
       <c r="E147" s="4">
         <v>17.793156152123061</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F147" s="4">
+        <v>583.4006692334267</v>
+      </c>
+      <c r="G147" s="4">
+        <v>7.5605954351983655</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
@@ -3824,8 +4712,14 @@
       <c r="E148" s="4">
         <v>18.723836067723198</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F148" s="4">
+        <v>586.86223177909267</v>
+      </c>
+      <c r="G148" s="4">
+        <v>6.1018406740825526</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
@@ -3841,8 +4735,14 @@
       <c r="E149" s="4">
         <v>17.859606900823053</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F149" s="4">
+        <v>589.87255567545969</v>
+      </c>
+      <c r="G149" s="4">
+        <v>6.2429683832922933</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
@@ -3858,8 +4758,14 @@
       <c r="E150" s="4">
         <v>16.010361956251813</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F150" s="4">
+        <v>601.06554321956719</v>
+      </c>
+      <c r="G150" s="4">
+        <v>6.2431089412869483</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
@@ -3875,8 +4781,14 @@
       <c r="E151" s="4">
         <v>18.177974265609919</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F151" s="4">
+        <v>603.22008115272081</v>
+      </c>
+      <c r="G151" s="4">
+        <v>6.0793064834518304</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>153</v>
       </c>
@@ -3892,8 +4804,14 @@
       <c r="E152" s="4">
         <v>20.963784516973362</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F152" s="4">
+        <v>590.08508953901753</v>
+      </c>
+      <c r="G152" s="4">
+        <v>6.0379814182619498</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>154</v>
       </c>
@@ -3909,8 +4827,14 @@
       <c r="E153" s="4">
         <v>16.142548784683015</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F153" s="4">
+        <v>590.87651676566657</v>
+      </c>
+      <c r="G153" s="4">
+        <v>5.5065832380536222</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
@@ -3926,8 +4850,14 @@
       <c r="E154" s="4">
         <v>27.14140711633712</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F154" s="4">
+        <v>625.15793937869569</v>
+      </c>
+      <c r="G154" s="4">
+        <v>7.5971078473426701</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>156</v>
       </c>
@@ -3943,8 +4873,14 @@
       <c r="E155" s="4">
         <v>20.600476534491179</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F155" s="4">
+        <v>602.30181488337666</v>
+      </c>
+      <c r="G155" s="4">
+        <v>6.722010535185575</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
@@ -3960,8 +4896,14 @@
       <c r="E156" s="4">
         <v>23.966047096460329</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F156" s="4">
+        <v>595.57035865161652</v>
+      </c>
+      <c r="G156" s="4">
+        <v>7.4067026546079546</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>158</v>
       </c>
@@ -3977,8 +4919,14 @@
       <c r="E157" s="4">
         <v>20.096517627560161</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F157" s="4">
+        <v>610.77335959074844</v>
+      </c>
+      <c r="G157" s="4">
+        <v>7.402668825219223</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
@@ -3994,8 +4942,14 @@
       <c r="E158" s="4">
         <v>19.71175838205636</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F158" s="4">
+        <v>608.36288653151882</v>
+      </c>
+      <c r="G158" s="4">
+        <v>7.5555180057899634</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
@@ -4011,8 +4965,14 @@
       <c r="E159" s="4">
         <v>22.057101137376492</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F159" s="4">
+        <v>609.46230438600003</v>
+      </c>
+      <c r="G159" s="4">
+        <v>6.6383115664150978</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -4028,8 +4988,14 @@
       <c r="E160" s="4">
         <v>14.763989679040776</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F160" s="4">
+        <v>594.05259438573671</v>
+      </c>
+      <c r="G160" s="4">
+        <v>6.5709985834330951</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
@@ -4045,8 +5011,14 @@
       <c r="E161" s="4">
         <v>16.245754644247938</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F161" s="4">
+        <v>598.65815713886377</v>
+      </c>
+      <c r="G161" s="4">
+        <v>6.0217034336453708</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>163</v>
       </c>
@@ -4062,8 +5034,14 @@
       <c r="E162" s="4">
         <v>17.669314547350325</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F162" s="4">
+        <v>611.40233161573076</v>
+      </c>
+      <c r="G162" s="4">
+        <v>5.5078828459920146</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>164</v>
       </c>
@@ -4079,8 +5057,14 @@
       <c r="E163" s="4">
         <v>23.152728264898769</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F163" s="4">
+        <v>626.69914895851548</v>
+      </c>
+      <c r="G163" s="4">
+        <v>8.2164063943615133</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>165</v>
       </c>
@@ -4096,8 +5080,14 @@
       <c r="E164" s="4">
         <v>17.96234560088044</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F164" s="4">
+        <v>603.60997084706003</v>
+      </c>
+      <c r="G164" s="4">
+        <v>8.2985302315442482</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>166</v>
       </c>
@@ -4113,8 +5103,14 @@
       <c r="E165" s="4">
         <v>16.248034906889131</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F165" s="4">
+        <v>617.35136999100177</v>
+      </c>
+      <c r="G165" s="4">
+        <v>6.0628484714800948</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
@@ -4130,8 +5126,14 @@
       <c r="E166" s="4">
         <v>18.98030366238271</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F166" s="4">
+        <v>617.85850304979431</v>
+      </c>
+      <c r="G166" s="4">
+        <v>6.5614463364401558</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>168</v>
       </c>
@@ -4147,8 +5149,14 @@
       <c r="E167" s="4">
         <v>25.634892938051735</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F167" s="4">
+        <v>618.58666717414599</v>
+      </c>
+      <c r="G167" s="4">
+        <v>8.7321200208995151</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
@@ -4164,8 +5172,14 @@
       <c r="E168" s="4">
         <v>22.524668397929588</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F168" s="4">
+        <v>621.32378405780787</v>
+      </c>
+      <c r="G168" s="4">
+        <v>8.2938642334307247</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
@@ -4181,8 +5195,14 @@
       <c r="E169" s="4">
         <v>13.980621911916217</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F169" s="4">
+        <v>615.04730251607361</v>
+      </c>
+      <c r="G169" s="4">
+        <v>5.7532607867963179</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
@@ -4198,8 +5218,14 @@
       <c r="E170" s="4">
         <v>17.981856780971782</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F170" s="4">
+        <v>617.30251515749205</v>
+      </c>
+      <c r="G170" s="4">
+        <v>6.4339979993645784</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
@@ -4215,8 +5241,14 @@
       <c r="E171" s="4">
         <v>26.782752592794452</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F171" s="4">
+        <v>634.75593536982797</v>
+      </c>
+      <c r="G171" s="4">
+        <v>8.7533471911202696</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
@@ -4232,8 +5264,14 @@
       <c r="E172" s="4">
         <v>15.369692291136857</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F172" s="4">
+        <v>629.89988793286227</v>
+      </c>
+      <c r="G172" s="4">
+        <v>6.1315113562674242</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
@@ -4249,8 +5287,14 @@
       <c r="E173" s="4">
         <v>15.840816283859851</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F173" s="4">
+        <v>631.55903718412276</v>
+      </c>
+      <c r="G173" s="4">
+        <v>5.3763117947235628</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>175</v>
       </c>
@@ -4266,8 +5310,14 @@
       <c r="E174" s="4">
         <v>29.420170854766695</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F174" s="4">
+        <v>625.15987355818652</v>
+      </c>
+      <c r="G174" s="4">
+        <v>8.606806501726453</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
@@ -4283,8 +5333,14 @@
       <c r="E175" s="4">
         <v>23.374669947300958</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F175" s="4">
+        <v>624.87690296773985</v>
+      </c>
+      <c r="G175" s="4">
+        <v>7.4190501436183922</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
@@ -4300,8 +5356,14 @@
       <c r="E176" s="4">
         <v>15.458990212763069</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F176" s="4">
+        <v>614.94563845972584</v>
+      </c>
+      <c r="G176" s="4">
+        <v>5.9198373732587015</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>178</v>
       </c>
@@ -4317,8 +5379,14 @@
       <c r="E177" s="4">
         <v>16.095656346491353</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F177" s="4">
+        <v>626.75767469085872</v>
+      </c>
+      <c r="G177" s="4">
+        <v>7.1132506436118774</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>179</v>
       </c>
@@ -4334,8 +5402,14 @@
       <c r="E178" s="4">
         <v>24.153157727489884</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F178" s="4">
+        <v>632.04651681177324</v>
+      </c>
+      <c r="G178" s="4">
+        <v>11.442246557848364</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
@@ -4351,8 +5425,14 @@
       <c r="E179" s="4">
         <v>18.671022307451892</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F179" s="4">
+        <v>626.31180966071781</v>
+      </c>
+      <c r="G179" s="4">
+        <v>7.1505186730162222</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
@@ -4368,8 +5448,14 @@
       <c r="E180" s="4">
         <v>19.694251659603879</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F180" s="4">
+        <v>620.16400407842002</v>
+      </c>
+      <c r="G180" s="4">
+        <v>6.4413764418749224</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
@@ -4385,8 +5471,14 @@
       <c r="E181" s="4">
         <v>18.541779148799549</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F181" s="4">
+        <v>631.7843543820901</v>
+      </c>
+      <c r="G181" s="4">
+        <v>11.065203564633975</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
@@ -4402,8 +5494,14 @@
       <c r="E182" s="4">
         <v>17.618090146735483</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F182" s="4">
+        <v>626.13525020633529</v>
+      </c>
+      <c r="G182" s="4">
+        <v>7.5170698686087576</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
@@ -4419,8 +5517,14 @@
       <c r="E183" s="4">
         <v>39.234045555155205</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F183" s="4">
+        <v>648.15653307134426</v>
+      </c>
+      <c r="G183" s="4">
+        <v>10.088040805278979</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
@@ -4436,8 +5540,14 @@
       <c r="E184" s="4">
         <v>16.02806429793776</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F184" s="4">
+        <v>620.65403444449271</v>
+      </c>
+      <c r="G184" s="4">
+        <v>6.942344648985852</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
@@ -4453,8 +5563,14 @@
       <c r="E185" s="4">
         <v>12.568040025505184</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F185" s="4">
+        <v>640.8360880996097</v>
+      </c>
+      <c r="G185" s="4">
+        <v>5.6494741494762479</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>187</v>
       </c>
@@ -4470,8 +5586,14 @@
       <c r="E186" s="4">
         <v>17.588629519723725</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F186" s="4">
+        <v>629.59822523244782</v>
+      </c>
+      <c r="G186" s="4">
+        <v>6.9136946974297757</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>188</v>
       </c>
@@ -4487,8 +5609,14 @@
       <c r="E187" s="4">
         <v>17.039412851960662</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F187" s="4">
+        <v>632.62136757595954</v>
+      </c>
+      <c r="G187" s="4">
+        <v>6.0253580125313988</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>189</v>
       </c>
@@ -4504,8 +5632,14 @@
       <c r="E188" s="4">
         <v>19.218210225767336</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F188" s="4">
+        <v>632.49012967694591</v>
+      </c>
+      <c r="G188" s="4">
+        <v>6.6515388046465205</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>190</v>
       </c>
@@ -4521,8 +5655,14 @@
       <c r="E189" s="4">
         <v>31.298979936079434</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F189" s="4">
+        <v>639.60783579999645</v>
+      </c>
+      <c r="G189" s="4">
+        <v>9.3781542009978693</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>191</v>
       </c>
@@ -4538,8 +5678,14 @@
       <c r="E190" s="4">
         <v>17.594863523812705</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F190" s="4">
+        <v>632.76488535039994</v>
+      </c>
+      <c r="G190" s="4">
+        <v>6.6154679345656859</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>192</v>
       </c>
@@ -4555,8 +5701,14 @@
       <c r="E191" s="4">
         <v>17.31627074396215</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F191" s="4">
+        <v>637.10697182502349</v>
+      </c>
+      <c r="G191" s="4">
+        <v>6.1382790938519065</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>193</v>
       </c>
@@ -4572,8 +5724,14 @@
       <c r="E192" s="4">
         <v>19.717577160164979</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F192" s="4">
+        <v>641.70054776641791</v>
+      </c>
+      <c r="G192" s="4">
+        <v>7.1529396936912804</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
@@ -4589,8 +5747,14 @@
       <c r="E193" s="4">
         <v>22.684030335642603</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F193" s="4">
+        <v>632.13662245751448</v>
+      </c>
+      <c r="G193" s="4">
+        <v>6.7797420001166415</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>195</v>
       </c>
@@ -4606,8 +5770,14 @@
       <c r="E194" s="4">
         <v>25.620627918259686</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F194" s="4">
+        <v>641.16350265770018</v>
+      </c>
+      <c r="G194" s="4">
+        <v>7.8908092729703299</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
@@ -4623,8 +5793,14 @@
       <c r="E195" s="4">
         <v>22.103483136644854</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F195" s="4">
+        <v>643.32034711897256</v>
+      </c>
+      <c r="G195" s="4">
+        <v>7.2395969187987248</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
@@ -4640,8 +5816,14 @@
       <c r="E196" s="4">
         <v>23.850175526138116</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F196" s="4">
+        <v>638.79103342045141</v>
+      </c>
+      <c r="G196" s="4">
+        <v>8.0306087618766924</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
@@ -4657,8 +5839,14 @@
       <c r="E197" s="4">
         <v>26.568679932900295</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F197" s="4">
+        <v>642.50589466607983</v>
+      </c>
+      <c r="G197" s="4">
+        <v>8.1345289776718346</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>199</v>
       </c>
@@ -4674,8 +5862,14 @@
       <c r="E198" s="4">
         <v>27.803575096834834</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F198" s="4">
+        <v>637.86283400826937</v>
+      </c>
+      <c r="G198" s="4">
+        <v>8.2935234763816084</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>200</v>
       </c>
@@ -4691,8 +5885,14 @@
       <c r="E199" s="4">
         <v>30.796038937334288</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F199" s="4">
+        <v>638.11023701176077</v>
+      </c>
+      <c r="G199" s="4">
+        <v>9.037891407070731</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>201</v>
       </c>
@@ -4708,8 +5908,14 @@
       <c r="E200" s="4">
         <v>18.960546088552974</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F200" s="4">
+        <v>643.68444713745623</v>
+      </c>
+      <c r="G200" s="4">
+        <v>6.8895226951132145</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>202</v>
       </c>
@@ -4725,8 +5931,14 @@
       <c r="E201" s="4">
         <v>17.083695918733667</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F201" s="4">
+        <v>652.42508223592836</v>
+      </c>
+      <c r="G201" s="4">
+        <v>7.7981765590733403</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>203</v>
       </c>
@@ -4742,8 +5954,14 @@
       <c r="E202" s="4">
         <v>34.36724328491448</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F202" s="4">
+        <v>651.62663492035324</v>
+      </c>
+      <c r="G202" s="4">
+        <v>9.7925848652804461</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
@@ -4759,8 +5977,14 @@
       <c r="E203" s="4">
         <v>19.360712058114757</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F203" s="4">
+        <v>647.09283967642705</v>
+      </c>
+      <c r="G203" s="4">
+        <v>5.8583077119278641</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>205</v>
       </c>
@@ -4776,8 +6000,14 @@
       <c r="E204" s="4">
         <v>22.360936506309827</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F204" s="4">
+        <v>675.31101791449737</v>
+      </c>
+      <c r="G204" s="4">
+        <v>8.4418748702806852</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>206</v>
       </c>
@@ -4793,8 +6023,14 @@
       <c r="E205" s="4">
         <v>18.08813074231432</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F205" s="4">
+        <v>661.79416871837066</v>
+      </c>
+      <c r="G205" s="4">
+        <v>7.4096116770687672</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
@@ -4810,8 +6046,14 @@
       <c r="E206" s="4">
         <v>18.526764437254656</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F206" s="4">
+        <v>673.52253205747377</v>
+      </c>
+      <c r="G206" s="4">
+        <v>9.0218353071603588</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
@@ -4827,8 +6069,14 @@
       <c r="E207" s="4">
         <v>21.722260540102297</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F207" s="4">
+        <v>671.45640085250784</v>
+      </c>
+      <c r="G207" s="4">
+        <v>8.6382472721826389</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
@@ -4844,8 +6092,14 @@
       <c r="E208" s="4">
         <v>31.297168951741241</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F208" s="4">
+        <v>689.09629558354482</v>
+      </c>
+      <c r="G208" s="4">
+        <v>9.7579809998606493</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
@@ -4861,8 +6115,14 @@
       <c r="E209" s="4">
         <v>35.679681999244281</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F209" s="4">
+        <v>683.07585622093143</v>
+      </c>
+      <c r="G209" s="4">
+        <v>9.6789323230173636</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
@@ -4878,8 +6138,14 @@
       <c r="E210" s="4">
         <v>20.194229204672638</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F210" s="4">
+        <v>684.07175398833851</v>
+      </c>
+      <c r="G210" s="4">
+        <v>7.6990020562971608</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
@@ -4895,8 +6161,14 @@
       <c r="E211" s="4">
         <v>17.814784636478919</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F211" s="4">
+        <v>677.16514670161018</v>
+      </c>
+      <c r="G211" s="4">
+        <v>6.78934784910291</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
@@ -4912,8 +6184,14 @@
       <c r="E212" s="4">
         <v>21.566489295039958</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F212" s="4">
+        <v>700.11396143335025</v>
+      </c>
+      <c r="G212" s="4">
+        <v>7.1352318404875064</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>214</v>
       </c>
@@ -4929,8 +6207,14 @@
       <c r="E213" s="4">
         <v>16.495360094517707</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F213" s="4">
+        <v>700.66401960637609</v>
+      </c>
+      <c r="G213" s="4">
+        <v>8.380298013833567</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>215</v>
       </c>
@@ -4946,8 +6230,14 @@
       <c r="E214" s="4">
         <v>26.738090296697749</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F214" s="4">
+        <v>722.20418893156489</v>
+      </c>
+      <c r="G214" s="4">
+        <v>9.6053899172811157</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>216</v>
       </c>
@@ -4963,8 +6253,14 @@
       <c r="E215" s="4">
         <v>13.950488091507395</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F215" s="4">
+        <v>703.47563237813392</v>
+      </c>
+      <c r="G215" s="4">
+        <v>6.7358504455415869</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>217</v>
       </c>
@@ -4980,8 +6276,14 @@
       <c r="E216" s="4">
         <v>17.024465094347704</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F216" s="4">
+        <v>716.19844253069721</v>
+      </c>
+      <c r="G216" s="4">
+        <v>10.677046294928971</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
@@ -4997,8 +6299,14 @@
       <c r="E217" s="4">
         <v>18.964516446503239</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F217" s="4">
+        <v>714.7169559201559</v>
+      </c>
+      <c r="G217" s="4">
+        <v>8.3469776975371133</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
@@ -5014,8 +6322,14 @@
       <c r="E218" s="4">
         <v>16.189699213968765</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F218" s="4">
+        <v>717.86415279732466</v>
+      </c>
+      <c r="G218" s="4">
+        <v>11.517846164107937</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>220</v>
       </c>
@@ -5031,8 +6345,14 @@
       <c r="E219" s="4">
         <v>34.868788353915477</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F219" s="4">
+        <v>723.78196177422308</v>
+      </c>
+      <c r="G219" s="4">
+        <v>10.453474767096054</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>221</v>
       </c>
@@ -5048,8 +6368,14 @@
       <c r="E220" s="4">
         <v>16.105396546218742</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F220" s="4">
+        <v>769.1970185511924</v>
+      </c>
+      <c r="G220" s="4">
+        <v>7.1962733241359729</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>222</v>
       </c>
@@ -5065,8 +6391,14 @@
       <c r="E221" s="4">
         <v>19.370921123484322</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F221" s="4">
+        <v>791.946429739716</v>
+      </c>
+      <c r="G221" s="4">
+        <v>8.0503761422208413</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>223</v>
       </c>
@@ -5082,8 +6414,14 @@
       <c r="E222" s="4">
         <v>13.631110426589373</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F222" s="4">
+        <v>801.97923934625521</v>
+      </c>
+      <c r="G222" s="4">
+        <v>5.8165414249758669</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>224</v>
       </c>
@@ -5099,8 +6437,14 @@
       <c r="E223" s="4">
         <v>36.789261043415536</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F223" s="4">
+        <v>841.2580002070215</v>
+      </c>
+      <c r="G223" s="4">
+        <v>16.00327668442452</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>225</v>
       </c>
@@ -5116,8 +6460,14 @@
       <c r="E224" s="4">
         <v>18.361553228614241</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F224" s="4">
+        <v>811.88276040680898</v>
+      </c>
+      <c r="G224" s="4">
+        <v>9.3735747311417299</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>226</v>
       </c>
@@ -5133,8 +6483,14 @@
       <c r="E225" s="4">
         <v>20.725021771044112</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F225" s="4">
+        <v>842.324203753848</v>
+      </c>
+      <c r="G225" s="4">
+        <v>8.9954709206835446</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>227</v>
       </c>
@@ -5150,8 +6506,14 @@
       <c r="E226" s="4">
         <v>15.743366383523494</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F226" s="4">
+        <v>840.2851999964148</v>
+      </c>
+      <c r="G226" s="4">
+        <v>7.6614468318797435</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>228</v>
       </c>
@@ -5167,8 +6529,14 @@
       <c r="E227" s="4">
         <v>21.546553457922698</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F227" s="4">
+        <v>875.01232023048419</v>
+      </c>
+      <c r="G227" s="4">
+        <v>9.6194212578505471</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
         <v>229</v>
       </c>
@@ -5184,8 +6552,14 @@
       <c r="E228" s="4">
         <v>16.318045697704633</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F228" s="4">
+        <v>850.46966677864782</v>
+      </c>
+      <c r="G228" s="4">
+        <v>7.5771918140643493</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>230</v>
       </c>
@@ -5201,8 +6575,14 @@
       <c r="E229" s="4">
         <v>13.771371990363605</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F229" s="4">
+        <v>947.27890785694115</v>
+      </c>
+      <c r="G229" s="4">
+        <v>7.2004656415297745</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>231</v>
       </c>
@@ -5218,8 +6598,14 @@
       <c r="E230" s="4">
         <v>16.065625404660523</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F230" s="4">
+        <v>979.22935570679954</v>
+      </c>
+      <c r="G230" s="4">
+        <v>8.1568793757174376</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>232</v>
       </c>
@@ -5235,8 +6621,14 @@
       <c r="E231" s="4">
         <v>21.440775695631373</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F231" s="4">
+        <v>970.63140444057444</v>
+      </c>
+      <c r="G231" s="4">
+        <v>10.424608980654455</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>233</v>
       </c>
@@ -5252,8 +6644,14 @@
       <c r="E232" s="4">
         <v>15.926768573689856</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F232" s="4">
+        <v>987.12326293737271</v>
+      </c>
+      <c r="G232" s="4">
+        <v>8.2009739736478764</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
         <v>234</v>
       </c>
@@ -5269,8 +6667,14 @@
       <c r="E233" s="4">
         <v>35.517386338398296</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F233" s="4">
+        <v>985.62015275347176</v>
+      </c>
+      <c r="G233" s="4">
+        <v>13.126254759858227</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>235</v>
       </c>
@@ -5286,8 +6690,14 @@
       <c r="E234" s="4">
         <v>19.550022493819142</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F234" s="4">
+        <v>977.51567911715358</v>
+      </c>
+      <c r="G234" s="4">
+        <v>9.1539801279509447</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>236</v>
       </c>
@@ -5303,8 +6713,14 @@
       <c r="E235" s="4">
         <v>16.573146436291438</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F235" s="4">
+        <v>1001.3338028617369</v>
+      </c>
+      <c r="G235" s="4">
+        <v>8.224669451554405</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>237</v>
       </c>
@@ -5320,8 +6736,14 @@
       <c r="E236" s="4">
         <v>22.36013241332148</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F236" s="4">
+        <v>988.40445647689614</v>
+      </c>
+      <c r="G236" s="4">
+        <v>10.155982802961091</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
         <v>238</v>
       </c>
@@ -5337,8 +6759,14 @@
       <c r="E237" s="4">
         <v>22.756049642952462</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F237" s="4">
+        <v>1073.83743360927</v>
+      </c>
+      <c r="G237" s="4">
+        <v>10.344895454474909</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
         <v>239</v>
       </c>
@@ -5354,8 +6782,14 @@
       <c r="E238" s="4">
         <v>13.525847670377061</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F238" s="4">
+        <v>1367.5770644469951</v>
+      </c>
+      <c r="G238" s="4">
+        <v>11.005425627907925</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>240</v>
       </c>
@@ -5371,8 +6805,14 @@
       <c r="E239" s="4">
         <v>13.305500118252894</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F239" s="4">
+        <v>1590.0580506349006</v>
+      </c>
+      <c r="G239" s="4">
+        <v>15.968282547309741</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>241</v>
       </c>
@@ -5388,8 +6828,14 @@
       <c r="E240" s="4">
         <v>19.587474646547776</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F240" s="4">
+        <v>1691.0939763669053</v>
+      </c>
+      <c r="G240" s="4">
+        <v>12.298023277046468</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>242</v>
       </c>
@@ -5405,8 +6851,14 @@
       <c r="E241" s="4">
         <v>12.813822337234342</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F241" s="4">
+        <v>1751.3571414095954</v>
+      </c>
+      <c r="G241" s="4">
+        <v>11.995523749722906</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>243</v>
       </c>
@@ -5422,8 +6874,14 @@
       <c r="E242" s="4">
         <v>12.349837730297395</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F242" s="4">
+        <v>1742.9785417744531</v>
+      </c>
+      <c r="G242" s="4">
+        <v>10.030814036382139</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
         <v>244</v>
       </c>
@@ -5439,8 +6897,14 @@
       <c r="E243" s="4">
         <v>25.709878751429414</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F243" s="4">
+        <v>1890.4479636729493</v>
+      </c>
+      <c r="G243" s="4">
+        <v>22.849635117813591</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
         <v>245</v>
       </c>
@@ -5456,8 +6920,14 @@
       <c r="E244" s="4">
         <v>14.282366310923976</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F244" s="4">
+        <v>1736.8557993664094</v>
+      </c>
+      <c r="G244" s="4">
+        <v>13.992521197115593</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>246</v>
       </c>
@@ -5473,8 +6943,14 @@
       <c r="E245" s="4">
         <v>16.402652786182443</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F245" s="4">
+        <v>1841.835242888123</v>
+      </c>
+      <c r="G245" s="4">
+        <v>12.573472921498592</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
         <v>247</v>
       </c>
@@ -5490,8 +6966,14 @@
       <c r="E246" s="4">
         <v>12.885143838220415</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F246" s="4">
+        <v>1898.1271871984814</v>
+      </c>
+      <c r="G246" s="4">
+        <v>14.5639516275495</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>248</v>
       </c>
@@ -5507,8 +6989,14 @@
       <c r="E247" s="4">
         <v>14.497959418630671</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F247" s="4">
+        <v>1845.1961505098175</v>
+      </c>
+      <c r="G247" s="4">
+        <v>11.835698549102972</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
         <v>249</v>
       </c>
@@ -5524,8 +7012,14 @@
       <c r="E248" s="4">
         <v>15.757251764643797</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F248" s="4">
+        <v>1913.4123789361925</v>
+      </c>
+      <c r="G248" s="4">
+        <v>17.345095218635606</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
         <v>250</v>
       </c>
@@ -5541,8 +7035,14 @@
       <c r="E249" s="4">
         <v>11.617360691570298</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F249" s="4">
+        <v>1810.54754173937</v>
+      </c>
+      <c r="G249" s="4">
+        <v>12.153073024369291</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>251</v>
       </c>
@@ -5558,8 +7058,14 @@
       <c r="E250" s="4">
         <v>13.192105434703421</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F250" s="4">
+        <v>1891.2739128525734</v>
+      </c>
+      <c r="G250" s="4">
+        <v>10.384774725950365</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>252</v>
       </c>
@@ -5575,8 +7081,14 @@
       <c r="E251" s="4">
         <v>16.107386539850495</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F251" s="4">
+        <v>1886.310083347337</v>
+      </c>
+      <c r="G251" s="4">
+        <v>13.70361058158062</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
         <v>253</v>
       </c>
@@ -5592,8 +7104,14 @@
       <c r="E252" s="4">
         <v>11.258899887304096</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F252" s="4">
+        <v>1887.4879874698215</v>
+      </c>
+      <c r="G252" s="4">
+        <v>8.4421843915818044</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>254</v>
       </c>
@@ -5609,8 +7127,14 @@
       <c r="E253" s="4">
         <v>12.945884521783</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F253" s="4">
+        <v>1948.0883014617043</v>
+      </c>
+      <c r="G253" s="4">
+        <v>13.082318281656171</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
         <v>255</v>
       </c>
@@ -5626,8 +7150,14 @@
       <c r="E254" s="4">
         <v>12.556815307865918</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F254" s="4">
+        <v>1975.1764320603079</v>
+      </c>
+      <c r="G254" s="4">
+        <v>10.699251814277886</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
         <v>256</v>
       </c>
@@ -5643,8 +7173,14 @@
       <c r="E255" s="4">
         <v>13.670873012286506</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F255" s="4">
+        <v>1973.2708587651869</v>
+      </c>
+      <c r="G255" s="4">
+        <v>11.780860883953892</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>257</v>
       </c>
@@ -5660,8 +7196,14 @@
       <c r="E256" s="4">
         <v>10.435173228348503</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F256" s="4">
+        <v>1808.4556108661429</v>
+      </c>
+      <c r="G256" s="4">
+        <v>10.807861128019795</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>258</v>
       </c>
@@ -5677,8 +7219,14 @@
       <c r="E257" s="4">
         <v>14.179623228040555</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F257" s="4">
+        <v>1789.6322114698048</v>
+      </c>
+      <c r="G257" s="4">
+        <v>13.067974559662161</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>259</v>
       </c>
@@ -5694,8 +7242,14 @@
       <c r="E258" s="4">
         <v>10.546564066009637</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F258" s="4">
+        <v>1943.384859661059</v>
+      </c>
+      <c r="G258" s="4">
+        <v>12.596083071551107</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
         <v>260</v>
       </c>
@@ -5711,8 +7265,14 @@
       <c r="E259" s="4">
         <v>12.73245204295074</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F259" s="4">
+        <v>2001.2510798175588</v>
+      </c>
+      <c r="G259" s="4">
+        <v>11.958390318802572</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
         <v>261</v>
       </c>
@@ -5728,8 +7288,14 @@
       <c r="E260" s="4">
         <v>13.707880186765578</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F260" s="4">
+        <v>1979.0239430689187</v>
+      </c>
+      <c r="G260" s="4">
+        <v>10.647503135838292</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>262</v>
       </c>
@@ -5745,8 +7311,14 @@
       <c r="E261" s="4">
         <v>14.315359097280293</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F261" s="4">
+        <v>2037.1648552918448</v>
+      </c>
+      <c r="G261" s="4">
+        <v>10.555421513221404</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
         <v>263</v>
       </c>
@@ -5762,8 +7334,14 @@
       <c r="E262" s="4">
         <v>15.693100203298854</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F262" s="4">
+        <v>1975.1220191659468</v>
+      </c>
+      <c r="G262" s="4">
+        <v>13.778797086830764</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>264</v>
       </c>
@@ -5779,8 +7357,14 @@
       <c r="E263" s="4">
         <v>11.961783440765771</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F263" s="4">
+        <v>1970.9272626072448</v>
+      </c>
+      <c r="G263" s="4">
+        <v>16.153001775857433</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>265</v>
       </c>
@@ -5796,8 +7380,14 @@
       <c r="E264" s="4">
         <v>11.304649197447702</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F264" s="4">
+        <v>2038.8479501990448</v>
+      </c>
+      <c r="G264" s="4">
+        <v>9.2971009500447508</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>266</v>
       </c>
@@ -5813,8 +7403,14 @@
       <c r="E265" s="4">
         <v>11.773974933348654</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F265" s="4">
+        <v>2018.507416286847</v>
+      </c>
+      <c r="G265" s="4">
+        <v>10.378227668727277</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>267</v>
       </c>
@@ -5830,8 +7426,14 @@
       <c r="E266" s="4">
         <v>13.020032043989886</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F266" s="4">
+        <v>2024.185283003259</v>
+      </c>
+      <c r="G266" s="4">
+        <v>10.790100144346184</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>268</v>
       </c>
@@ -5847,8 +7449,14 @@
       <c r="E267" s="4">
         <v>14.385708222688777</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F267" s="4">
+        <v>1975.0086037730721</v>
+      </c>
+      <c r="G267" s="4">
+        <v>14.44670565725562</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
         <v>269</v>
       </c>
@@ -5864,8 +7472,14 @@
       <c r="E268" s="4">
         <v>13.136682435767398</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F268" s="4">
+        <v>2072.2904941332517</v>
+      </c>
+      <c r="G268" s="4">
+        <v>12.331924149160841</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
         <v>270</v>
       </c>
@@ -5881,8 +7495,14 @@
       <c r="E269" s="4">
         <v>15.131590193843522</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F269" s="4">
+        <v>1994.3241342429837</v>
+      </c>
+      <c r="G269" s="4">
+        <v>11.905601137392637</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A270" s="1" t="s">
         <v>271</v>
       </c>
@@ -5898,8 +7518,14 @@
       <c r="E270" s="4">
         <v>10.306343421485963</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F270" s="4">
+        <v>2011.8763393908632</v>
+      </c>
+      <c r="G270" s="4">
+        <v>12.888642744519302</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
         <v>272</v>
       </c>
@@ -5915,8 +7541,14 @@
       <c r="E271" s="4">
         <v>12.648349856685854</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F271" s="4">
+        <v>2047.08386611635</v>
+      </c>
+      <c r="G271" s="4">
+        <v>11.456215926372693</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
         <v>273</v>
       </c>
@@ -5932,8 +7564,14 @@
       <c r="E272" s="4">
         <v>10.329330593661552</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F272" s="4">
+        <v>2162.02886661189</v>
+      </c>
+      <c r="G272" s="4">
+        <v>8.9755828046052102</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
         <v>274</v>
       </c>
@@ -5949,8 +7587,14 @@
       <c r="E273" s="4">
         <v>13.191499878122386</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F273" s="4">
+        <v>2028.8948329556633</v>
+      </c>
+      <c r="G273" s="4">
+        <v>12.739119306834937</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
         <v>275</v>
       </c>
@@ -5966,8 +7610,14 @@
       <c r="E274" s="4">
         <v>13.689553245066236</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F274" s="4">
+        <v>2106.5972298515194</v>
+      </c>
+      <c r="G274" s="4">
+        <v>11.520710664564831</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
         <v>276</v>
       </c>
@@ -5983,8 +7633,14 @@
       <c r="E275" s="4">
         <v>12.147511585789516</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F275" s="4">
+        <v>2065.3149362702902</v>
+      </c>
+      <c r="G275" s="4">
+        <v>13.394484761265858</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
         <v>277</v>
       </c>
@@ -6000,8 +7656,14 @@
       <c r="E276" s="4">
         <v>20.016381510492693</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F276" s="4">
+        <v>2075.6470833369508</v>
+      </c>
+      <c r="G276" s="4">
+        <v>16.15577742135315</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
         <v>278</v>
       </c>
@@ -6017,8 +7679,14 @@
       <c r="E277" s="4">
         <v>12.648484256046459</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F277" s="4">
+        <v>2041.8901349205455</v>
+      </c>
+      <c r="G277" s="4">
+        <v>11.321101077780895</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
         <v>279</v>
       </c>
@@ -6034,8 +7702,14 @@
       <c r="E278" s="4">
         <v>13.207096997670305</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F278" s="4">
+        <v>2243.0335852628841</v>
+      </c>
+      <c r="G278" s="4">
+        <v>12.337864527538841</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A279" s="1" t="s">
         <v>280</v>
       </c>
@@ -6051,8 +7725,14 @@
       <c r="E279" s="4">
         <v>37.982644464393843</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F279" s="4">
+        <v>2139.8822404821135</v>
+      </c>
+      <c r="G279" s="4">
+        <v>22.564094739072971</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A280" s="1" t="s">
         <v>281</v>
       </c>
@@ -6068,8 +7748,14 @@
       <c r="E280" s="4">
         <v>30.079889541391367</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F280" s="4">
+        <v>2302.2517136691749</v>
+      </c>
+      <c r="G280" s="4">
+        <v>18.973719258686288</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
         <v>282</v>
       </c>
@@ -6085,8 +7771,14 @@
       <c r="E281" s="4">
         <v>14.715179970332201</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F281" s="4">
+        <v>2384.1852282739137</v>
+      </c>
+      <c r="G281" s="4">
+        <v>12.289293545661394</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
         <v>283</v>
       </c>
@@ -6102,8 +7794,14 @@
       <c r="E282" s="4">
         <v>13.249827304523251</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F282" s="4">
+        <v>2382.9209758060642</v>
+      </c>
+      <c r="G282" s="4">
+        <v>14.267192098124497</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A283" s="1" t="s">
         <v>284</v>
       </c>
@@ -6119,8 +7817,14 @@
       <c r="E283" s="4">
         <v>23.767341851419133</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F283" s="4">
+        <v>2419.4638130282801</v>
+      </c>
+      <c r="G283" s="4">
+        <v>19.770808023757354</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A284" s="1" t="s">
         <v>285</v>
       </c>
@@ -6136,8 +7840,14 @@
       <c r="E284" s="4">
         <v>20.086628670710979</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F284" s="4">
+        <v>2526.3152688236023</v>
+      </c>
+      <c r="G284" s="4">
+        <v>15.964629285524779</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A285" s="1" t="s">
         <v>286</v>
       </c>
@@ -6153,8 +7863,14 @@
       <c r="E285" s="4">
         <v>13.217835565979613</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F285" s="4">
+        <v>2540.4708258081282</v>
+      </c>
+      <c r="G285" s="4">
+        <v>13.922338127704052</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A286" s="1" t="s">
         <v>287</v>
       </c>
@@ -6170,8 +7886,14 @@
       <c r="E286" s="4">
         <v>11.629046756469052</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F286" s="4">
+        <v>2499.368881889206</v>
+      </c>
+      <c r="G286" s="4">
+        <v>13.624441321541099</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A287" s="1" t="s">
         <v>288</v>
       </c>
@@ -6187,8 +7909,14 @@
       <c r="E287" s="4">
         <v>18.215520177029703</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F287" s="4">
+        <v>2602.372794807442</v>
+      </c>
+      <c r="G287" s="4">
+        <v>19.478033234290024</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A288" s="1" t="s">
         <v>289</v>
       </c>
@@ -6204,8 +7932,14 @@
       <c r="E288" s="4">
         <v>20.266362847760774</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F288" s="4">
+        <v>2575.1245228398789</v>
+      </c>
+      <c r="G288" s="4">
+        <v>19.495603723049271</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A289" s="1" t="s">
         <v>290</v>
       </c>
@@ -6221,8 +7955,14 @@
       <c r="E289" s="4">
         <v>12.882004250720911</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F289" s="4">
+        <v>2613.1776062087415</v>
+      </c>
+      <c r="G289" s="4">
+        <v>15.448279014960235</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A290" s="1" t="s">
         <v>291</v>
       </c>
@@ -6238,8 +7978,14 @@
       <c r="E290" s="4">
         <v>13.068716821076578</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F290" s="4">
+        <v>2648.6532889116634</v>
+      </c>
+      <c r="G290" s="4">
+        <v>15.981721758544609</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A291" s="1" t="s">
         <v>292</v>
       </c>
@@ -6255,8 +8001,14 @@
       <c r="E291" s="4">
         <v>14.373969464372294</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F291" s="4">
+        <v>3233.6229759200774</v>
+      </c>
+      <c r="G291" s="4">
+        <v>18.308071713442814</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>

--- a/Vasey20/N3.xlsx
+++ b/Vasey20/N3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyvas\git\dz-caucasus\Vasey20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F2D5E2-F95B-4D5C-AB2B-5DB527B5C5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92175252-2FF3-4896-8272-EDDFB9D6B30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
   <si>
     <t>Zircon Sample Number</t>
   </si>
@@ -922,14 +922,30 @@
   </si>
   <si>
     <t>235 Error</t>
+  </si>
+  <si>
+    <t>75_ratio</t>
+  </si>
+  <si>
+    <t>75_1s</t>
+  </si>
+  <si>
+    <t>68_ratio</t>
+  </si>
+  <si>
+    <t>68_1s</t>
+  </si>
+  <si>
+    <t>rho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -980,12 +996,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1302,11 +1324,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G292"/>
+  <dimension ref="A1:L292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:G291"/>
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:L291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1315,7 +1337,7 @@
     <col min="3" max="3" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1337,8 +1359,23 @@
       <c r="G1" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1360,8 +1397,23 @@
       <c r="G2" s="4">
         <v>4.2069429500112108</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2" s="5">
+        <v>0.37825765002661754</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.5096522492978517</v>
+      </c>
+      <c r="J2" s="5">
+        <v>5.2062840469793065E-2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.2160530010714483</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.80551862300542521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1383,8 +1435,23 @@
       <c r="G3" s="4">
         <v>5.3002992101415884</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3" s="5">
+        <v>0.37776920507218509</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.903778652858882</v>
+      </c>
+      <c r="J3" s="5">
+        <v>5.208344685218725E-2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.6488466868395466</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.86609159334962227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1406,8 +1473,23 @@
       <c r="G4" s="4">
         <v>6.2452020258992889</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4" s="5">
+        <v>0.39562317777147971</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2.169689319575459</v>
+      </c>
+      <c r="J4" s="5">
+        <v>5.3976408154912496E-2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.9497528471131549</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.89863227399518253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1429,8 +1511,23 @@
       <c r="G5" s="4">
         <v>4.5674176549641174</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5" s="5">
+        <v>0.40284892672060518</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.5664140852917852</v>
+      </c>
+      <c r="J5" s="5">
+        <v>5.4857763536232181E-2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.37051536934818</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.87493810367064373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1452,8 +1549,23 @@
       <c r="G6" s="4">
         <v>4.8935807433131515</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6" s="5">
+        <v>0.40551254312804336</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.6704132216678651</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5.5027545830278649E-2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.4712116006707072</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.88074709993120137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1475,8 +1587,23 @@
       <c r="G7" s="4">
         <v>3.8745939240718315</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7" s="5">
+        <v>0.41380914153683335</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.3037216551747266</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5.5662949686574592E-2</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.84711705067625509</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0.64976833614282725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1498,8 +1625,23 @@
       <c r="G8" s="4">
         <v>4.1272974959876194</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8" s="5">
+        <v>0.41740871461748758</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.3802795640229704</v>
+      </c>
+      <c r="J8" s="5">
+        <v>5.5880496353669928E-2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.0279557020556656</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0.7447445639632454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1521,8 +1663,23 @@
       <c r="G9" s="4">
         <v>4.2917585594368006</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9" s="5">
+        <v>0.42113005710306317</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.4263311621723775</v>
+      </c>
+      <c r="J9" s="5">
+        <v>5.6015268967050946E-2</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1.050693625092417</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0.7366407275938327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1544,8 +1701,23 @@
       <c r="G10" s="4">
         <v>4.452560473301503</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10" s="5">
+        <v>0.41652002865389676</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1.4912963747765138</v>
+      </c>
+      <c r="J10" s="5">
+        <v>5.6044801071264486E-2</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.2614845442005442</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.84589794861507051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1567,8 +1739,23 @@
       <c r="G11" s="4">
         <v>3.6737485747926257</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11" s="5">
+        <v>0.42626026466208788</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1.2106024752377611</v>
+      </c>
+      <c r="J11" s="5">
+        <v>5.6351209728981361E-2</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.95100510338180722</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.78556348829125822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1590,8 +1777,23 @@
       <c r="G12" s="4">
         <v>3.7738323963426694</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12" s="5">
+        <v>0.41700389346919425</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.2629368390759879</v>
+      </c>
+      <c r="J12" s="5">
+        <v>5.6386293964717511E-2</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.95867181402264667</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.75908136049309249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1613,8 +1815,23 @@
       <c r="G13" s="4">
         <v>3.9897326034359821</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13" s="5">
+        <v>0.4220877104975525</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.323839453152776</v>
+      </c>
+      <c r="J13" s="5">
+        <v>5.6599806250436084E-2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.01499460595685</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.76670521001591263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1636,8 +1853,23 @@
       <c r="G14" s="4">
         <v>10.180898431517051</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H14" s="5">
+        <v>0.41990148638652663</v>
+      </c>
+      <c r="I14" s="4">
+        <v>3.3904117340612063</v>
+      </c>
+      <c r="J14" s="5">
+        <v>5.6656404642974667E-2</v>
+      </c>
+      <c r="K14" s="4">
+        <v>2.7539465619114889</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.81227496184148484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1659,8 +1891,23 @@
       <c r="G15" s="4">
         <v>5.5552281339396359</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H15" s="5">
+        <v>0.4204881279991689</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1.8482108888070827</v>
+      </c>
+      <c r="J15" s="5">
+        <v>5.672848243965125E-2</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1.6164146876806966</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0.87458346743320103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1682,8 +1929,23 @@
       <c r="G16" s="4">
         <v>6.024464067491067</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16" s="5">
+        <v>0.42576507055508117</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1.9868329464876591</v>
+      </c>
+      <c r="J16" s="5">
+        <v>5.6977024447536509E-2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1.3631226836448784</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0.68607815571742892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1705,8 +1967,23 @@
       <c r="G17" s="4">
         <v>4.6086209390726651</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17" s="5">
+        <v>0.42135141104766605</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1.5310702153544129</v>
+      </c>
+      <c r="J17" s="5">
+        <v>5.7064047354159944E-2</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1.2493388530673009</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0.81599056694999661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1728,8 +2005,23 @@
       <c r="G18" s="4">
         <v>3.7843996012370837</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18" s="5">
+        <v>0.4220561899214425</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1.2557741803152667</v>
+      </c>
+      <c r="J18" s="5">
+        <v>5.715714727760441E-2</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.99171799540987648</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0.78972637832138104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,8 +2043,23 @@
       <c r="G19" s="4">
         <v>4.5324202584210411</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H19" s="5">
+        <v>0.4310321641089232</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1.4819620863956653</v>
+      </c>
+      <c r="J19" s="5">
+        <v>5.7423821563768969E-2</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.98887958874745441</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.66727725211415156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1774,8 +2081,23 @@
       <c r="G20" s="4">
         <v>3.9675856900219912</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H20" s="5">
+        <v>0.43782911324324875</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1.2832073269839814</v>
+      </c>
+      <c r="J20" s="5">
+        <v>5.7880790360361617E-2</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.89800795118764554</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0.69981516805885213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1797,8 +2119,23 @@
       <c r="G21" s="4">
         <v>4.7067389047047641</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H21" s="5">
+        <v>0.44348684703121366</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1.5087565659893967</v>
+      </c>
+      <c r="J21" s="5">
+        <v>5.8930540898303997E-2</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1.3623865720795001</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.90298634172709535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1820,8 +2157,23 @@
       <c r="G22" s="4">
         <v>3.8395571745043071</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H22" s="5">
+        <v>0.44297308343476899</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1.231771213830801</v>
+      </c>
+      <c r="J22" s="5">
+        <v>5.9019141037958099E-2</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.85202748847390075</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0.69170920614721987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,8 +2195,23 @@
       <c r="G23" s="4">
         <v>4.5297367144262353</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H23" s="5">
+        <v>0.44491426795948558</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1.4487915834113234</v>
+      </c>
+      <c r="J23" s="5">
+        <v>5.9048482094804143E-2</v>
+      </c>
+      <c r="K23" s="4">
+        <v>1.1481296931037406</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0.79247402197102457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +2233,23 @@
       <c r="G24" s="4">
         <v>4.0735473735319943</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H24" s="5">
+        <v>0.44091581686122644</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1.3110626969582764</v>
+      </c>
+      <c r="J24" s="5">
+        <v>5.9119099337926896E-2</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1.0561722168678138</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0.80558482772653084</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1889,8 +2271,23 @@
       <c r="G25" s="4">
         <v>7.0515153761052147</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H25" s="5">
+        <v>0.44220154477876333</v>
+      </c>
+      <c r="I25" s="4">
+        <v>2.2649116505385036</v>
+      </c>
+      <c r="J25" s="5">
+        <v>5.9283080024859859E-2</v>
+      </c>
+      <c r="K25" s="4">
+        <v>2.1148878244695362</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0.93376173148595099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1912,8 +2309,23 @@
       <c r="G26" s="4">
         <v>6.3776866830674237</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H26" s="5">
+        <v>0.43827499627127964</v>
+      </c>
+      <c r="I26" s="4">
+        <v>2.0612126241482831</v>
+      </c>
+      <c r="J26" s="5">
+        <v>5.9567050525004474E-2</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1.9318447683542956</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0.93723701559054651</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1935,8 +2347,23 @@
       <c r="G27" s="4">
         <v>6.4072969715196564</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H27" s="5">
+        <v>0.48347085730843287</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1.9361896611164944</v>
+      </c>
+      <c r="J27" s="5">
+        <v>5.9882029204535447E-2</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1.161920436641104</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0.60010672506694851</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1958,8 +2385,23 @@
       <c r="G28" s="4">
         <v>4.6070414969410649</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H28" s="5">
+        <v>0.4594548349337238</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1.4412425212180817</v>
+      </c>
+      <c r="J28" s="5">
+        <v>5.9907431207558481E-2</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1.1313332414291346</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0.78497076291710854</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -1981,8 +2423,23 @@
       <c r="G29" s="4">
         <v>5.5127364525507119</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H29" s="5">
+        <v>0.46507887628039979</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1.7102808974283885</v>
+      </c>
+      <c r="J29" s="5">
+        <v>6.0575329795189863E-2</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1.2222187339039812</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0.71463040705286096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -2004,8 +2461,23 @@
       <c r="G30" s="4">
         <v>4.6222492328140845</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H30" s="5">
+        <v>0.45951096430868882</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1.4458789392190661</v>
+      </c>
+      <c r="J30" s="5">
+        <v>6.0793521410169117E-2</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1.0977240535605097</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0.75920882709129267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -2027,8 +2499,23 @@
       <c r="G31" s="4">
         <v>5.6638023030406259</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H31" s="5">
+        <v>0.45502115527435366</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1.7836571941577215</v>
+      </c>
+      <c r="J31" s="5">
+        <v>6.0802377814787485E-2</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1.4467715482093906</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0.811126461378463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -2050,8 +2537,23 @@
       <c r="G32" s="4">
         <v>5.6297270844657419</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H32" s="5">
+        <v>0.46492113055056766</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1.7469800245620888</v>
+      </c>
+      <c r="J32" s="5">
+        <v>6.1145679790021244E-2</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1.3192552168033418</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0.75516330939962306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -2073,8 +2575,23 @@
       <c r="G33" s="4">
         <v>4.5560193861837774</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H33" s="5">
+        <v>0.4670730806475839</v>
+      </c>
+      <c r="I33" s="4">
+        <v>1.4093525594597358</v>
+      </c>
+      <c r="J33" s="5">
+        <v>6.1267163034756315E-2</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0.95788094169411253</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0.67966027043035182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -2096,8 +2613,23 @@
       <c r="G34" s="4">
         <v>4.5817786854517806</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H34" s="5">
+        <v>0.47339473000845145</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1.4044197959994291</v>
+      </c>
+      <c r="J34" s="5">
+        <v>6.2441207376535371E-2</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1.3162578930176878</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0.93722539141581762</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -2119,8 +2651,23 @@
       <c r="G35" s="4">
         <v>5.404470227124051</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H35" s="5">
+        <v>0.54722773929853985</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1.5048917310073047</v>
+      </c>
+      <c r="J35" s="5">
+        <v>7.0930068972610172E-2</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1.1435699579917509</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0.75990181514672694</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,8 +2689,23 @@
       <c r="G36" s="4">
         <v>17.55292473044824</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H36" s="5">
+        <v>0.55719228705382817</v>
+      </c>
+      <c r="I36" s="4">
+        <v>4.8307378372874581</v>
+      </c>
+      <c r="J36" s="5">
+        <v>7.2792748146931346E-2</v>
+      </c>
+      <c r="K36" s="4">
+        <v>4.7493614251369749</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0.98315445489043995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -2165,8 +2727,23 @@
       <c r="G37" s="4">
         <v>5.6593832184608743</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H37" s="5">
+        <v>0.57570441057451005</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1.5254918394160923</v>
+      </c>
+      <c r="J37" s="5">
+        <v>7.2863658070216941E-2</v>
+      </c>
+      <c r="K37" s="4">
+        <v>1.18788614949192</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0.77869059591076095</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
@@ -2188,8 +2765,23 @@
       <c r="G38" s="4">
         <v>5.242452863550028</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H38" s="5">
+        <v>0.56540910031995206</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1.4294396503509528</v>
+      </c>
+      <c r="J38" s="5">
+        <v>7.3033698608086312E-2</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1.2441685993224072</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0.87038903602327089</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -2211,8 +2803,23 @@
       <c r="G39" s="4">
         <v>5.5514362709174918</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H39" s="5">
+        <v>0.57465159548914968</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1.4981351070367899</v>
+      </c>
+      <c r="J39" s="5">
+        <v>7.3283751607206626E-2</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1.2506507167464678</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0.83480502584321015</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -2234,8 +2841,23 @@
       <c r="G40" s="4">
         <v>6.0032967115221822</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H40" s="5">
+        <v>0.57929704015253569</v>
+      </c>
+      <c r="I40" s="4">
+        <v>1.6118230034741738</v>
+      </c>
+      <c r="J40" s="5">
+        <v>7.3597228934668843E-2</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1.3628013608771414</v>
+      </c>
+      <c r="L40" s="6">
+        <v>0.84550310917496319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -2257,8 +2879,23 @@
       <c r="G41" s="4">
         <v>4.2568547700225565</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H41" s="5">
+        <v>0.5754819992252086</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1.1477256309896833</v>
+      </c>
+      <c r="J41" s="5">
+        <v>7.431271695539679E-2</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0.98033385322647226</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0.85415348996007934</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -2280,8 +2917,23 @@
       <c r="G42" s="4">
         <v>5.2380122125274227</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H42" s="5">
+        <v>0.57075713529239713</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1.4196799052375821</v>
+      </c>
+      <c r="J42" s="5">
+        <v>7.4379377106613104E-2</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1.1692495034381774</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0.82360079840850098</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -2303,8 +2955,23 @@
       <c r="G43" s="4">
         <v>4.8540686733810219</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H43" s="5">
+        <v>0.58279292731332455</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1.2983223266119701</v>
+      </c>
+      <c r="J43" s="5">
+        <v>7.4536663238395168E-2</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0.92516860222609676</v>
+      </c>
+      <c r="L43" s="6">
+        <v>0.71258776288655956</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
@@ -2326,8 +2993,23 @@
       <c r="G44" s="4">
         <v>4.9052218829294532</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H44" s="5">
+        <v>0.58846379384551395</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1.3040160620748342</v>
+      </c>
+      <c r="J44" s="5">
+        <v>7.4733260994740924E-2</v>
+      </c>
+      <c r="K44" s="4">
+        <v>1.0366919855124095</v>
+      </c>
+      <c r="L44" s="6">
+        <v>0.79499939890534577</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -2349,8 +3031,23 @@
       <c r="G45" s="4">
         <v>4.0404740748629138</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H45" s="5">
+        <v>0.59016017965824508</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1.0721883711830802</v>
+      </c>
+      <c r="J45" s="5">
+        <v>7.4909443000868089E-2</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0.73673017725518353</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0.68712755804491377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -2372,8 +3069,23 @@
       <c r="G46" s="4">
         <v>5.4967121256959217</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H46" s="5">
+        <v>0.59829855487947381</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1.446134850978767</v>
+      </c>
+      <c r="J46" s="5">
+        <v>7.5398969189864107E-2</v>
+      </c>
+      <c r="K46" s="4">
+        <v>1.1730487983558826</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0.81116141939456354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
@@ -2395,8 +3107,23 @@
       <c r="G47" s="4">
         <v>5.4992263549399638</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H47" s="5">
+        <v>0.6064882998284673</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1.4345727565380779</v>
+      </c>
+      <c r="J47" s="5">
+        <v>7.5511307482765022E-2</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1.0854862033688757</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0.75666166001115165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -2418,8 +3145,23 @@
       <c r="G48" s="4">
         <v>5.1834834932628837</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H48" s="5">
+        <v>0.60064361922835141</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1.3603974724409915</v>
+      </c>
+      <c r="J48" s="5">
+        <v>7.5844837617379104E-2</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0.99123883735590046</v>
+      </c>
+      <c r="L48" s="6">
+        <v>0.72863913483851039</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -2441,8 +3183,23 @@
       <c r="G49" s="4">
         <v>5.3687510747642762</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H49" s="5">
+        <v>0.59553821214128255</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1.4165662393676606</v>
+      </c>
+      <c r="J49" s="5">
+        <v>7.6054396590355566E-2</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1.2359098841888365</v>
+      </c>
+      <c r="L49" s="6">
+        <v>0.87246882626578282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
@@ -2464,8 +3221,23 @@
       <c r="G50" s="4">
         <v>4.4245577094421549</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H50" s="5">
+        <v>0.60411131425433451</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1.1570569541015987</v>
+      </c>
+      <c r="J50" s="5">
+        <v>7.6129245780194615E-2</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0.85633625072830755</v>
+      </c>
+      <c r="L50" s="6">
+        <v>0.74009861631505691</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -2487,8 +3259,23 @@
       <c r="G51" s="4">
         <v>5.2273022041229638</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H51" s="5">
+        <v>0.5890615700701185</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1.3887494350181389</v>
+      </c>
+      <c r="J51" s="5">
+        <v>7.6203282788858212E-2</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1.1544959515313824</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0.83132055532847304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -2510,8 +3297,23 @@
       <c r="G52" s="4">
         <v>5.6495398027084889</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H52" s="5">
+        <v>0.60030064410182371</v>
+      </c>
+      <c r="I52" s="4">
+        <v>1.4832400755859514</v>
+      </c>
+      <c r="J52" s="5">
+        <v>7.6233982030754571E-2</v>
+      </c>
+      <c r="K52" s="4">
+        <v>1.168146454962413</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0.78756397847525716</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -2533,8 +3335,23 @@
       <c r="G53" s="4">
         <v>4.799249205175272</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H53" s="5">
+        <v>0.59638715394757624</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1.2651735414099028</v>
+      </c>
+      <c r="J53" s="5">
+        <v>7.6256688708656983E-2</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0.91523197913524668</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0.72340429923575278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -2556,8 +3373,23 @@
       <c r="G54" s="4">
         <v>7.072002186670602</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H54" s="5">
+        <v>0.5979790993401487</v>
+      </c>
+      <c r="I54" s="4">
+        <v>1.8611892830135526</v>
+      </c>
+      <c r="J54" s="5">
+        <v>7.6341356652187817E-2</v>
+      </c>
+      <c r="K54" s="4">
+        <v>1.4943782654531106</v>
+      </c>
+      <c r="L54" s="6">
+        <v>0.80291579104382227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -2579,8 +3411,23 @@
       <c r="G55" s="4">
         <v>6.1013023111209463</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H55" s="5">
+        <v>0.59175181750723715</v>
+      </c>
+      <c r="I55" s="4">
+        <v>1.6163044197006999</v>
+      </c>
+      <c r="J55" s="5">
+        <v>7.6500506470616264E-2</v>
+      </c>
+      <c r="K55" s="4">
+        <v>1.3639204756172705</v>
+      </c>
+      <c r="L55" s="6">
+        <v>0.84385123185509514</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -2602,8 +3449,23 @@
       <c r="G56" s="4">
         <v>4.5917616900250096</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H56" s="5">
+        <v>0.60952558374113508</v>
+      </c>
+      <c r="I56" s="4">
+        <v>1.1941322136967591</v>
+      </c>
+      <c r="J56" s="5">
+        <v>7.6700585453519349E-2</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0.9825759919890511</v>
+      </c>
+      <c r="L56" s="6">
+        <v>0.82283685233414927</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -2625,8 +3487,23 @@
       <c r="G57" s="4">
         <v>6.471803899184863</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H57" s="5">
+        <v>0.60625683229724614</v>
+      </c>
+      <c r="I57" s="4">
+        <v>1.6886820988370832</v>
+      </c>
+      <c r="J57" s="5">
+        <v>7.6811853135990371E-2</v>
+      </c>
+      <c r="K57" s="4">
+        <v>1.4526694855286135</v>
+      </c>
+      <c r="L57" s="6">
+        <v>0.8602385768931875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -2648,8 +3525,23 @@
       <c r="G58" s="4">
         <v>5.7584799531648798</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H58" s="5">
+        <v>0.60792090823765854</v>
+      </c>
+      <c r="I58" s="4">
+        <v>1.499998741389132</v>
+      </c>
+      <c r="J58" s="5">
+        <v>7.6840246542509358E-2</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1.1930457770935068</v>
+      </c>
+      <c r="L58" s="6">
+        <v>0.79536451876528924</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -2671,8 +3563,23 @@
       <c r="G59" s="4">
         <v>5.3402901208791036</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H59" s="5">
+        <v>0.59911917663496761</v>
+      </c>
+      <c r="I59" s="4">
+        <v>1.403778372297753</v>
+      </c>
+      <c r="J59" s="5">
+        <v>7.6858203003820083E-2</v>
+      </c>
+      <c r="K59" s="4">
+        <v>1.2156829555991131</v>
+      </c>
+      <c r="L59" s="6">
+        <v>0.86600775420783915</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -2694,8 +3601,23 @@
       <c r="G60" s="4">
         <v>5.4282494677325985</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H60" s="5">
+        <v>0.61925423530552637</v>
+      </c>
+      <c r="I60" s="4">
+        <v>1.3978861643909186</v>
+      </c>
+      <c r="J60" s="5">
+        <v>7.6970950563766544E-2</v>
+      </c>
+      <c r="K60" s="4">
+        <v>1.1756866651677278</v>
+      </c>
+      <c r="L60" s="6">
+        <v>0.84104607021416011</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -2717,8 +3639,23 @@
       <c r="G61" s="4">
         <v>5.1493913073406929</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H61" s="5">
+        <v>0.60914119051310833</v>
+      </c>
+      <c r="I61" s="4">
+        <v>1.339671893286182</v>
+      </c>
+      <c r="J61" s="5">
+        <v>7.6989573007848755E-2</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0.92172059451721977</v>
+      </c>
+      <c r="L61" s="6">
+        <v>0.68801965551151645</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -2740,8 +3677,23 @@
       <c r="G62" s="4">
         <v>5.403725516352381</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H62" s="5">
+        <v>0.6048584982999029</v>
+      </c>
+      <c r="I62" s="4">
+        <v>1.4120244910460304</v>
+      </c>
+      <c r="J62" s="5">
+        <v>7.7071234264349114E-2</v>
+      </c>
+      <c r="K62" s="4">
+        <v>1.0957551957247627</v>
+      </c>
+      <c r="L62" s="6">
+        <v>0.77601713190755295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -2763,8 +3715,23 @@
       <c r="G63" s="4">
         <v>9.2255507100791192</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H63" s="5">
+        <v>0.60486440580798717</v>
+      </c>
+      <c r="I63" s="4">
+        <v>2.4106311032216734</v>
+      </c>
+      <c r="J63" s="5">
+        <v>7.7100242166138422E-2</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1.366075050540789</v>
+      </c>
+      <c r="L63" s="6">
+        <v>0.56668772286025282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -2786,8 +3753,23 @@
       <c r="G64" s="4">
         <v>5.9846285556836563</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H64" s="5">
+        <v>0.60580578481970737</v>
+      </c>
+      <c r="I64" s="4">
+        <v>1.5622907551683212</v>
+      </c>
+      <c r="J64" s="5">
+        <v>7.7115847579507527E-2</v>
+      </c>
+      <c r="K64" s="4">
+        <v>1.3607219012787184</v>
+      </c>
+      <c r="L64" s="6">
+        <v>0.87097865539895236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -2809,8 +3791,23 @@
       <c r="G65" s="4">
         <v>5.0931697928285757</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H65" s="5">
+        <v>0.59763350605515331</v>
+      </c>
+      <c r="I65" s="4">
+        <v>1.3409013366110192</v>
+      </c>
+      <c r="J65" s="5">
+        <v>7.7152463795597315E-2</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0.97514094594195455</v>
+      </c>
+      <c r="L65" s="6">
+        <v>0.7272279617578099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -2832,8 +3829,23 @@
       <c r="G66" s="4">
         <v>5.1802198239858228</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H66" s="5">
+        <v>0.60109711075807359</v>
+      </c>
+      <c r="I66" s="4">
+        <v>1.3589001426720333</v>
+      </c>
+      <c r="J66" s="5">
+        <v>7.7219585387070078E-2</v>
+      </c>
+      <c r="K66" s="4">
+        <v>1.0710016778712925</v>
+      </c>
+      <c r="L66" s="6">
+        <v>0.78813861610563951</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -2855,8 +3867,23 @@
       <c r="G67" s="4">
         <v>4.9330872471213922</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H67" s="5">
+        <v>0.59870812248907446</v>
+      </c>
+      <c r="I67" s="4">
+        <v>1.2972972579896374</v>
+      </c>
+      <c r="J67" s="5">
+        <v>7.7325564678745032E-2</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0.98253676594649142</v>
+      </c>
+      <c r="L67" s="6">
+        <v>0.75737211336520061</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -2878,8 +3905,23 @@
       <c r="G68" s="4">
         <v>7.1254787609020127</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H68" s="5">
+        <v>0.61738066462410601</v>
+      </c>
+      <c r="I68" s="4">
+        <v>1.8383840067615533</v>
+      </c>
+      <c r="J68" s="5">
+        <v>7.7397416818767564E-2</v>
+      </c>
+      <c r="K68" s="4">
+        <v>1.5642382579411964</v>
+      </c>
+      <c r="L68" s="6">
+        <v>0.85087677666251849</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -2901,8 +3943,23 @@
       <c r="G69" s="4">
         <v>7.0362688914662783</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H69" s="5">
+        <v>0.61724035991146242</v>
+      </c>
+      <c r="I69" s="4">
+        <v>1.8156236059062452</v>
+      </c>
+      <c r="J69" s="5">
+        <v>7.7399437628242806E-2</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0.93806244375321768</v>
+      </c>
+      <c r="L69" s="6">
+        <v>0.51666129516144721</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -2924,8 +3981,23 @@
       <c r="G70" s="4">
         <v>5.5907928228173773</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H70" s="5">
+        <v>0.61075257700726138</v>
+      </c>
+      <c r="I70" s="4">
+        <v>1.4521203983755688</v>
+      </c>
+      <c r="J70" s="5">
+        <v>7.7503892485256382E-2</v>
+      </c>
+      <c r="K70" s="4">
+        <v>1.1859739797367239</v>
+      </c>
+      <c r="L70" s="6">
+        <v>0.81671876592562664</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -2947,8 +4019,23 @@
       <c r="G71" s="4">
         <v>5.4432089393374667</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H71" s="5">
+        <v>0.60851465255056625</v>
+      </c>
+      <c r="I71" s="4">
+        <v>1.4170165268129626</v>
+      </c>
+      <c r="J71" s="5">
+        <v>7.7546565905590142E-2</v>
+      </c>
+      <c r="K71" s="4">
+        <v>1.0833065492455927</v>
+      </c>
+      <c r="L71" s="6">
+        <v>0.76449817538972331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -2970,8 +4057,23 @@
       <c r="G72" s="4">
         <v>6.7715307613801485</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H72" s="5">
+        <v>0.62264120711073068</v>
+      </c>
+      <c r="I72" s="4">
+        <v>1.7379414766382326</v>
+      </c>
+      <c r="J72" s="5">
+        <v>7.7622427964584892E-2</v>
+      </c>
+      <c r="K72" s="4">
+        <v>1.1316358884115996</v>
+      </c>
+      <c r="L72" s="6">
+        <v>0.65113578542389483</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -2993,8 +4095,23 @@
       <c r="G73" s="4">
         <v>5.0033188263581394</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H73" s="5">
+        <v>0.62125859927478599</v>
+      </c>
+      <c r="I73" s="4">
+        <v>1.2858924075938327</v>
+      </c>
+      <c r="J73" s="5">
+        <v>7.768053124207952E-2</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0.97978711707113542</v>
+      </c>
+      <c r="L73" s="6">
+        <v>0.76195108648671261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -3016,8 +4133,23 @@
       <c r="G74" s="4">
         <v>4.4189540981981565</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H74" s="5">
+        <v>0.60960263048419727</v>
+      </c>
+      <c r="I74" s="4">
+        <v>1.1491022593297444</v>
+      </c>
+      <c r="J74" s="5">
+        <v>7.77111417529468E-2</v>
+      </c>
+      <c r="K74" s="4">
+        <v>0.90374592078002636</v>
+      </c>
+      <c r="L74" s="6">
+        <v>0.78647997899435773</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -3039,8 +4171,23 @@
       <c r="G75" s="4">
         <v>6.7764857234953979</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H75" s="5">
+        <v>0.61123381653956943</v>
+      </c>
+      <c r="I75" s="4">
+        <v>1.7592168005032838</v>
+      </c>
+      <c r="J75" s="5">
+        <v>7.7712004164644466E-2</v>
+      </c>
+      <c r="K75" s="4">
+        <v>1.3632917103124755</v>
+      </c>
+      <c r="L75" s="6">
+        <v>0.77494241182920698</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -3062,8 +4209,23 @@
       <c r="G76" s="4">
         <v>4.4633636043643605</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H76" s="5">
+        <v>0.60740927864606908</v>
+      </c>
+      <c r="I76" s="4">
+        <v>1.1632541454288201</v>
+      </c>
+      <c r="J76" s="5">
+        <v>7.7811055238573262E-2</v>
+      </c>
+      <c r="K76" s="4">
+        <v>0.81013876415896424</v>
+      </c>
+      <c r="L76" s="6">
+        <v>0.69644175981880185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -3085,8 +4247,23 @@
       <c r="G77" s="4">
         <v>6.1202708969929063</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H77" s="5">
+        <v>0.60237337929495383</v>
+      </c>
+      <c r="I77" s="4">
+        <v>1.6033687899353877</v>
+      </c>
+      <c r="J77" s="5">
+        <v>7.786223278566734E-2</v>
+      </c>
+      <c r="K77" s="4">
+        <v>1.3305092706174972</v>
+      </c>
+      <c r="L77" s="6">
+        <v>0.82982111100660383</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -3108,8 +4285,23 @@
       <c r="G78" s="4">
         <v>6.7708894307971264</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H78" s="5">
+        <v>0.61400688128603809</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1.7528369416107406</v>
+      </c>
+      <c r="J78" s="5">
+        <v>7.8048998474860715E-2</v>
+      </c>
+      <c r="K78" s="4">
+        <v>1.2920654040761166</v>
+      </c>
+      <c r="L78" s="6">
+        <v>0.7371281226471611</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -3131,8 +4323,23 @@
       <c r="G79" s="4">
         <v>4.9207789206041923</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H79" s="5">
+        <v>0.62865619779993798</v>
+      </c>
+      <c r="I79" s="4">
+        <v>1.2555001175719622</v>
+      </c>
+      <c r="J79" s="5">
+        <v>7.8646925957421773E-2</v>
+      </c>
+      <c r="K79" s="4">
+        <v>0.9011879970057356</v>
+      </c>
+      <c r="L79" s="6">
+        <v>0.71779204509240646</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
@@ -3154,8 +4361,23 @@
       <c r="G80" s="4">
         <v>5.5405315413684662</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H80" s="5">
+        <v>0.61987776754781265</v>
+      </c>
+      <c r="I80" s="4">
+        <v>1.4259142039063857</v>
+      </c>
+      <c r="J80" s="5">
+        <v>7.873196658870811E-2</v>
+      </c>
+      <c r="K80" s="4">
+        <v>1.1464353355392671</v>
+      </c>
+      <c r="L80" s="6">
+        <v>0.80400022133066096</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
@@ -3177,8 +4399,23 @@
       <c r="G81" s="4">
         <v>6.4457797375043526</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H81" s="5">
+        <v>0.63084609377537781</v>
+      </c>
+      <c r="I81" s="4">
+        <v>1.6410781980685145</v>
+      </c>
+      <c r="J81" s="5">
+        <v>7.9100789659945756E-2</v>
+      </c>
+      <c r="K81" s="4">
+        <v>1.0395509493692714</v>
+      </c>
+      <c r="L81" s="6">
+        <v>0.63345607210721744</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
@@ -3200,8 +4437,23 @@
       <c r="G82" s="4">
         <v>6.9486071097297497</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H82" s="5">
+        <v>0.63921895936788509</v>
+      </c>
+      <c r="I82" s="4">
+        <v>1.7548838891580569</v>
+      </c>
+      <c r="J82" s="5">
+        <v>7.9252743021283573E-2</v>
+      </c>
+      <c r="K82" s="4">
+        <v>0.99370329960034753</v>
+      </c>
+      <c r="L82" s="6">
+        <v>0.56625016944972784</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
@@ -3223,8 +4475,23 @@
       <c r="G83" s="4">
         <v>8.2419865547863935</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H83" s="5">
+        <v>0.6392717156036688</v>
+      </c>
+      <c r="I83" s="4">
+        <v>2.0814113037305124</v>
+      </c>
+      <c r="J83" s="5">
+        <v>7.9377418573375172E-2</v>
+      </c>
+      <c r="K83" s="4">
+        <v>1.3003226840576803</v>
+      </c>
+      <c r="L83" s="6">
+        <v>0.6247312492860555</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +4513,23 @@
       <c r="G84" s="4">
         <v>6.5295440585702238</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H84" s="5">
+        <v>0.641961919875497</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1.6447533253634106</v>
+      </c>
+      <c r="J84" s="5">
+        <v>7.9614148592187114E-2</v>
+      </c>
+      <c r="K84" s="4">
+        <v>1.4497610119777868</v>
+      </c>
+      <c r="L84" s="6">
+        <v>0.88144586158988913</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -3269,8 +4551,23 @@
       <c r="G85" s="4">
         <v>9.1996034886666394</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H85" s="5">
+        <v>0.64844796641490587</v>
+      </c>
+      <c r="I85" s="4">
+        <v>2.3031775879751604</v>
+      </c>
+      <c r="J85" s="5">
+        <v>7.9719705394541374E-2</v>
+      </c>
+      <c r="K85" s="4">
+        <v>1.2544616888549316</v>
+      </c>
+      <c r="L85" s="6">
+        <v>0.54466563733706375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
@@ -3292,8 +4589,23 @@
       <c r="G86" s="4">
         <v>5.9154003763062519</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H86" s="5">
+        <v>0.63706519104607462</v>
+      </c>
+      <c r="I86" s="4">
+        <v>1.497033154695885</v>
+      </c>
+      <c r="J86" s="5">
+        <v>8.017764453424514E-2</v>
+      </c>
+      <c r="K86" s="4">
+        <v>1.2175105524644914</v>
+      </c>
+      <c r="L86" s="6">
+        <v>0.81328229013860587</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
@@ -3315,8 +4627,23 @@
       <c r="G87" s="4">
         <v>5.3090971483082399</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H87" s="5">
+        <v>0.62914654293308958</v>
+      </c>
+      <c r="I87" s="4">
+        <v>1.3539266616837071</v>
+      </c>
+      <c r="J87" s="5">
+        <v>8.01903193018801E-2</v>
+      </c>
+      <c r="K87" s="4">
+        <v>1.0357469722145398</v>
+      </c>
+      <c r="L87" s="6">
+        <v>0.7649948860055038</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -3338,8 +4665,23 @@
       <c r="G88" s="4">
         <v>5.6354810379097273</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H88" s="5">
+        <v>0.63263521542310386</v>
+      </c>
+      <c r="I88" s="4">
+        <v>1.4322948143854815</v>
+      </c>
+      <c r="J88" s="5">
+        <v>8.0331720484075317E-2</v>
+      </c>
+      <c r="K88" s="4">
+        <v>1.1837891186336724</v>
+      </c>
+      <c r="L88" s="6">
+        <v>0.8264982228128579</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
@@ -3361,8 +4703,23 @@
       <c r="G89" s="4">
         <v>6.2787574152240211</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H89" s="5">
+        <v>0.65766939915249945</v>
+      </c>
+      <c r="I89" s="4">
+        <v>1.5585780061310377</v>
+      </c>
+      <c r="J89" s="5">
+        <v>8.0436871553752509E-2</v>
+      </c>
+      <c r="K89" s="4">
+        <v>1.3375082953537145</v>
+      </c>
+      <c r="L89" s="6">
+        <v>0.85815935429109558</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -3384,8 +4741,23 @@
       <c r="G90" s="4">
         <v>5.4814245767127261</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H90" s="5">
+        <v>0.6505822082604793</v>
+      </c>
+      <c r="I90" s="4">
+        <v>1.3696017125496445</v>
+      </c>
+      <c r="J90" s="5">
+        <v>8.1233781580533237E-2</v>
+      </c>
+      <c r="K90" s="4">
+        <v>0.93092272484126881</v>
+      </c>
+      <c r="L90" s="6">
+        <v>0.67970324241802182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -3407,8 +4779,23 @@
       <c r="G91" s="4">
         <v>5.6520454023793434</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H91" s="5">
+        <v>0.66458334929288776</v>
+      </c>
+      <c r="I91" s="4">
+        <v>1.3942072461338271</v>
+      </c>
+      <c r="J91" s="5">
+        <v>8.129807739484235E-2</v>
+      </c>
+      <c r="K91" s="4">
+        <v>1.0898435505391568</v>
+      </c>
+      <c r="L91" s="6">
+        <v>0.78169407995928974</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
@@ -3430,8 +4817,23 @@
       <c r="G92" s="4">
         <v>5.9777319291495132</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H92" s="5">
+        <v>0.64310153209553444</v>
+      </c>
+      <c r="I92" s="4">
+        <v>1.5041334292769235</v>
+      </c>
+      <c r="J92" s="5">
+        <v>8.1855654258410751E-2</v>
+      </c>
+      <c r="K92" s="4">
+        <v>1.176940509613571</v>
+      </c>
+      <c r="L92" s="6">
+        <v>0.78247081456021961</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
@@ -3453,8 +4855,23 @@
       <c r="G93" s="4">
         <v>5.1801551781362036</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H93" s="5">
+        <v>0.66078658483251307</v>
+      </c>
+      <c r="I93" s="4">
+        <v>1.282217505891859</v>
+      </c>
+      <c r="J93" s="5">
+        <v>8.2338750127227911E-2</v>
+      </c>
+      <c r="K93" s="4">
+        <v>0.95703263573828912</v>
+      </c>
+      <c r="L93" s="6">
+        <v>0.74638868315295348</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -3476,8 +4893,23 @@
       <c r="G94" s="4">
         <v>5.4522448628026723</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H94" s="5">
+        <v>0.66354346915888285</v>
+      </c>
+      <c r="I94" s="4">
+        <v>1.3461890134135484</v>
+      </c>
+      <c r="J94" s="5">
+        <v>8.2922877545613616E-2</v>
+      </c>
+      <c r="K94" s="4">
+        <v>0.9836750022897196</v>
+      </c>
+      <c r="L94" s="6">
+        <v>0.73071091242633346</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
@@ -3499,8 +4931,23 @@
       <c r="G95" s="4">
         <v>6.6078762628447407</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H95" s="5">
+        <v>0.67127178879335558</v>
+      </c>
+      <c r="I95" s="4">
+        <v>1.6202220821287865</v>
+      </c>
+      <c r="J95" s="5">
+        <v>8.4519665630811383E-2</v>
+      </c>
+      <c r="K95" s="4">
+        <v>1.3955372724392519</v>
+      </c>
+      <c r="L95" s="6">
+        <v>0.86132468371599735</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -3522,8 +4969,23 @@
       <c r="G96" s="4">
         <v>6.8049913969351792</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H96" s="5">
+        <v>0.67804227761466329</v>
+      </c>
+      <c r="I96" s="4">
+        <v>1.6585833147694991</v>
+      </c>
+      <c r="J96" s="5">
+        <v>8.453847217605838E-2</v>
+      </c>
+      <c r="K96" s="4">
+        <v>1.4654160339151139</v>
+      </c>
+      <c r="L96" s="6">
+        <v>0.88353477384328438</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -3545,8 +5007,23 @@
       <c r="G97" s="4">
         <v>8.23802449654778</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H97" s="5">
+        <v>0.70506328331797874</v>
+      </c>
+      <c r="I97" s="4">
+        <v>1.9619866264528694</v>
+      </c>
+      <c r="J97" s="5">
+        <v>8.5092342056603334E-2</v>
+      </c>
+      <c r="K97" s="4">
+        <v>1.5121406355399727</v>
+      </c>
+      <c r="L97" s="6">
+        <v>0.77071913495853639</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -3568,8 +5045,23 @@
       <c r="G98" s="4">
         <v>6.2328937686103814</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H98" s="5">
+        <v>0.69398013901980848</v>
+      </c>
+      <c r="I98" s="4">
+        <v>1.4983581415974592</v>
+      </c>
+      <c r="J98" s="5">
+        <v>8.518131453188281E-2</v>
+      </c>
+      <c r="K98" s="4">
+        <v>1.1032380421044523</v>
+      </c>
+      <c r="L98" s="6">
+        <v>0.73629795939724163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -3591,8 +5083,23 @@
       <c r="G99" s="4">
         <v>6.5349934884863501</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H99" s="5">
+        <v>0.70626669458403124</v>
+      </c>
+      <c r="I99" s="4">
+        <v>1.5548462086492687</v>
+      </c>
+      <c r="J99" s="5">
+        <v>8.575593872313729E-2</v>
+      </c>
+      <c r="K99" s="4">
+        <v>1.0792866347194592</v>
+      </c>
+      <c r="L99" s="6">
+        <v>0.69414365788437737</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -3614,8 +5121,23 @@
       <c r="G100" s="4">
         <v>5.1372479404406022</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H100" s="5">
+        <v>0.70891708725284486</v>
+      </c>
+      <c r="I100" s="4">
+        <v>1.2196141605232111</v>
+      </c>
+      <c r="J100" s="5">
+        <v>8.659338359182582E-2</v>
+      </c>
+      <c r="K100" s="4">
+        <v>0.97381746667407942</v>
+      </c>
+      <c r="L100" s="6">
+        <v>0.79846356183361655</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -3637,8 +5159,23 @@
       <c r="G101" s="4">
         <v>6.9586273989629603</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H101" s="5">
+        <v>0.70752498437408518</v>
+      </c>
+      <c r="I101" s="4">
+        <v>1.6539110908243544</v>
+      </c>
+      <c r="J101" s="5">
+        <v>8.699263638828536E-2</v>
+      </c>
+      <c r="K101" s="4">
+        <v>1.3738197680917035</v>
+      </c>
+      <c r="L101" s="6">
+        <v>0.83064910545279336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -3660,8 +5197,23 @@
       <c r="G102" s="4">
         <v>5.288994178427572</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H102" s="5">
+        <v>0.70306404454085614</v>
+      </c>
+      <c r="I102" s="4">
+        <v>1.2617558947486065</v>
+      </c>
+      <c r="J102" s="5">
+        <v>8.7066245678697529E-2</v>
+      </c>
+      <c r="K102" s="4">
+        <v>0.96386170363327062</v>
+      </c>
+      <c r="L102" s="6">
+        <v>0.76390505298595146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -3683,8 +5235,23 @@
       <c r="G103" s="4">
         <v>7.7418450196504409</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H103" s="5">
+        <v>0.71455708450813404</v>
+      </c>
+      <c r="I103" s="4">
+        <v>1.8294526201454395</v>
+      </c>
+      <c r="J103" s="5">
+        <v>8.7189758124572206E-2</v>
+      </c>
+      <c r="K103" s="4">
+        <v>1.3633797632317972</v>
+      </c>
+      <c r="L103" s="6">
+        <v>0.74523917603474743</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
@@ -3706,8 +5273,23 @@
       <c r="G104" s="4">
         <v>9.2797957227652432</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H104" s="5">
+        <v>0.71311712645349146</v>
+      </c>
+      <c r="I104" s="4">
+        <v>2.1954452151963761</v>
+      </c>
+      <c r="J104" s="5">
+        <v>8.7238357421058288E-2</v>
+      </c>
+      <c r="K104" s="4">
+        <v>1.7855380445257401</v>
+      </c>
+      <c r="L104" s="6">
+        <v>0.81329200663566958</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -3729,8 +5311,23 @@
       <c r="G105" s="4">
         <v>8.6973157004583754</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H105" s="5">
+        <v>0.72303096872363093</v>
+      </c>
+      <c r="I105" s="4">
+        <v>2.0411780376284052</v>
+      </c>
+      <c r="J105" s="5">
+        <v>8.7463739763432052E-2</v>
+      </c>
+      <c r="K105" s="4">
+        <v>1.4539298887109386</v>
+      </c>
+      <c r="L105" s="6">
+        <v>0.71229939863561531</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -3752,8 +5349,23 @@
       <c r="G106" s="4">
         <v>5.6092573217795803</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H106" s="5">
+        <v>0.69941217081088425</v>
+      </c>
+      <c r="I106" s="4">
+        <v>1.3422597698824192</v>
+      </c>
+      <c r="J106" s="5">
+        <v>8.7546904343826115E-2</v>
+      </c>
+      <c r="K106" s="4">
+        <v>1.1576213347185416</v>
+      </c>
+      <c r="L106" s="6">
+        <v>0.86244210002654587</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -3775,8 +5387,23 @@
       <c r="G107" s="4">
         <v>5.8086125316295352</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H107" s="5">
+        <v>0.71403025272983822</v>
+      </c>
+      <c r="I107" s="4">
+        <v>1.3732184489338686</v>
+      </c>
+      <c r="J107" s="5">
+        <v>8.781519144063181E-2</v>
+      </c>
+      <c r="K107" s="4">
+        <v>1.1618359883956606</v>
+      </c>
+      <c r="L107" s="6">
+        <v>0.84606785562608777</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -3798,8 +5425,23 @@
       <c r="G108" s="4">
         <v>6.5733084976335476</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H108" s="5">
+        <v>0.71177079525977738</v>
+      </c>
+      <c r="I108" s="4">
+        <v>1.5568740699858521</v>
+      </c>
+      <c r="J108" s="5">
+        <v>8.8695818255547954E-2</v>
+      </c>
+      <c r="K108" s="4">
+        <v>1.2360163035996095</v>
+      </c>
+      <c r="L108" s="6">
+        <v>0.79390897917057723</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -3821,8 +5463,23 @@
       <c r="G109" s="4">
         <v>5.1978656585091016</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H109" s="5">
+        <v>0.72762678297434857</v>
+      </c>
+      <c r="I109" s="4">
+        <v>1.2154374064059665</v>
+      </c>
+      <c r="J109" s="5">
+        <v>8.8760796121505572E-2</v>
+      </c>
+      <c r="K109" s="4">
+        <v>0.88653402899863853</v>
+      </c>
+      <c r="L109" s="6">
+        <v>0.72939505097190394</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -3844,8 +5501,23 @@
       <c r="G110" s="4">
         <v>5.9308057911522951</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H110" s="5">
+        <v>0.71247385425199483</v>
+      </c>
+      <c r="I110" s="4">
+        <v>1.4038925559018851</v>
+      </c>
+      <c r="J110" s="5">
+        <v>8.8879426631763334E-2</v>
+      </c>
+      <c r="K110" s="4">
+        <v>1.1333281626714817</v>
+      </c>
+      <c r="L110" s="6">
+        <v>0.80727556956337865</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -3867,8 +5539,23 @@
       <c r="G111" s="4">
         <v>6.3396724345992084</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H111" s="5">
+        <v>0.73615587034507657</v>
+      </c>
+      <c r="I111" s="4">
+        <v>1.4724826906512603</v>
+      </c>
+      <c r="J111" s="5">
+        <v>8.8921500232694961E-2</v>
+      </c>
+      <c r="K111" s="4">
+        <v>1.0434903507776592</v>
+      </c>
+      <c r="L111" s="6">
+        <v>0.70866052103888366</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -3890,8 +5577,23 @@
       <c r="G112" s="4">
         <v>8.0227831817236961</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H112" s="5">
+        <v>0.73301142888651327</v>
+      </c>
+      <c r="I112" s="4">
+        <v>1.8679996388190929</v>
+      </c>
+      <c r="J112" s="5">
+        <v>8.9867143981061756E-2</v>
+      </c>
+      <c r="K112" s="4">
+        <v>1.4975604715218349</v>
+      </c>
+      <c r="L112" s="6">
+        <v>0.8016920562514448</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -3913,8 +5615,23 @@
       <c r="G113" s="4">
         <v>6.1784534006393983</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H113" s="5">
+        <v>0.73093439852715791</v>
+      </c>
+      <c r="I113" s="4">
+        <v>1.440942705237102</v>
+      </c>
+      <c r="J113" s="5">
+        <v>9.0213475177594954E-2</v>
+      </c>
+      <c r="K113" s="4">
+        <v>1.1987360022638673</v>
+      </c>
+      <c r="L113" s="6">
+        <v>0.83191094129354681</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -3936,8 +5653,23 @@
       <c r="G114" s="4">
         <v>6.0760371131337365</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H114" s="5">
+        <v>0.7249203168613112</v>
+      </c>
+      <c r="I114" s="4">
+        <v>1.4238495075635049</v>
+      </c>
+      <c r="J114" s="5">
+        <v>9.0220052052326569E-2</v>
+      </c>
+      <c r="K114" s="4">
+        <v>1.2685039141737515</v>
+      </c>
+      <c r="L114" s="6">
+        <v>0.89089746313458273</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -3959,8 +5691,23 @@
       <c r="G115" s="4">
         <v>6.317690074873326</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H115" s="5">
+        <v>0.73860640547408885</v>
+      </c>
+      <c r="I115" s="4">
+        <v>1.4645729467692128</v>
+      </c>
+      <c r="J115" s="5">
+        <v>9.0346372587686741E-2</v>
+      </c>
+      <c r="K115" s="4">
+        <v>1.1635213405491125</v>
+      </c>
+      <c r="L115" s="6">
+        <v>0.79444410270979837</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -3982,8 +5729,23 @@
       <c r="G116" s="4">
         <v>4.6394166214413417</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H116" s="5">
+        <v>0.741607993646762</v>
+      </c>
+      <c r="I116" s="4">
+        <v>1.0730166182822798</v>
+      </c>
+      <c r="J116" s="5">
+        <v>9.0439298436241003E-2</v>
+      </c>
+      <c r="K116" s="4">
+        <v>0.75221715292697544</v>
+      </c>
+      <c r="L116" s="6">
+        <v>0.7010302917126755</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -4005,8 +5767,23 @@
       <c r="G117" s="4">
         <v>8.2661707530984927</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H117" s="5">
+        <v>0.73010423855451667</v>
+      </c>
+      <c r="I117" s="4">
+        <v>1.9290890137805352</v>
+      </c>
+      <c r="J117" s="5">
+        <v>9.0776061618369222E-2</v>
+      </c>
+      <c r="K117" s="4">
+        <v>1.5079277830329689</v>
+      </c>
+      <c r="L117" s="6">
+        <v>0.78167869510479726</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -4028,8 +5805,23 @@
       <c r="G118" s="4">
         <v>6.4149804182171692</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H118" s="5">
+        <v>0.74826889550646303</v>
+      </c>
+      <c r="I118" s="4">
+        <v>1.4760809806392527</v>
+      </c>
+      <c r="J118" s="5">
+        <v>9.1101446888490395E-2</v>
+      </c>
+      <c r="K118" s="4">
+        <v>1.0641657932558499</v>
+      </c>
+      <c r="L118" s="6">
+        <v>0.72093998040336982</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -4051,8 +5843,23 @@
       <c r="G119" s="4">
         <v>7.6027244723194372</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H119" s="5">
+        <v>0.73623574258371638</v>
+      </c>
+      <c r="I119" s="4">
+        <v>1.7657248123055556</v>
+      </c>
+      <c r="J119" s="5">
+        <v>9.1107374498432259E-2</v>
+      </c>
+      <c r="K119" s="4">
+        <v>1.5120834597340698</v>
+      </c>
+      <c r="L119" s="6">
+        <v>0.85635284116538013</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -4074,8 +5881,23 @@
       <c r="G120" s="4">
         <v>7.0568830385020647</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H120" s="5">
+        <v>0.74101536564869264</v>
+      </c>
+      <c r="I120" s="4">
+        <v>1.6328692361033228</v>
+      </c>
+      <c r="J120" s="5">
+        <v>9.1181594326962684E-2</v>
+      </c>
+      <c r="K120" s="4">
+        <v>0.99658015345686402</v>
+      </c>
+      <c r="L120" s="6">
+        <v>0.61032453268278963</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -4097,8 +5919,23 @@
       <c r="G121" s="4">
         <v>6.554657378501588</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H121" s="5">
+        <v>0.73770788816530675</v>
+      </c>
+      <c r="I121" s="4">
+        <v>1.5205699283717835</v>
+      </c>
+      <c r="J121" s="5">
+        <v>9.1667273234617236E-2</v>
+      </c>
+      <c r="K121" s="4">
+        <v>1.2585814625645948</v>
+      </c>
+      <c r="L121" s="6">
+        <v>0.82770377019903052</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -4120,8 +5957,23 @@
       <c r="G122" s="4">
         <v>8.3095986902083609</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H122" s="5">
+        <v>0.75538583987469554</v>
+      </c>
+      <c r="I122" s="4">
+        <v>1.9017095851075059</v>
+      </c>
+      <c r="J122" s="5">
+        <v>9.2060803508327696E-2</v>
+      </c>
+      <c r="K122" s="4">
+        <v>1.6459334246607664</v>
+      </c>
+      <c r="L122" s="6">
+        <v>0.86550198702801417</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -4143,8 +5995,23 @@
       <c r="G123" s="4">
         <v>5.3260632100632961</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H123" s="5">
+        <v>0.75998678643152617</v>
+      </c>
+      <c r="I123" s="4">
+        <v>1.2147188988421442</v>
+      </c>
+      <c r="J123" s="5">
+        <v>9.215218675324735E-2</v>
+      </c>
+      <c r="K123" s="4">
+        <v>0.87860296579765196</v>
+      </c>
+      <c r="L123" s="6">
+        <v>0.72329735433862596</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -4166,8 +6033,23 @@
       <c r="G124" s="4">
         <v>6.7492094278994159</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H124" s="5">
+        <v>0.75409682798719768</v>
+      </c>
+      <c r="I124" s="4">
+        <v>1.5461194622764163</v>
+      </c>
+      <c r="J124" s="5">
+        <v>9.2161157978340263E-2</v>
+      </c>
+      <c r="K124" s="4">
+        <v>1.2887655474686885</v>
+      </c>
+      <c r="L124" s="6">
+        <v>0.83354849279963472</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -4189,8 +6071,23 @@
       <c r="G125" s="4">
         <v>6.6657577075079644</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H125" s="5">
+        <v>0.76227804626346807</v>
+      </c>
+      <c r="I125" s="4">
+        <v>1.5176596678446956</v>
+      </c>
+      <c r="J125" s="5">
+        <v>9.2171094812049228E-2</v>
+      </c>
+      <c r="K125" s="4">
+        <v>1.2464446057531824</v>
+      </c>
+      <c r="L125" s="6">
+        <v>0.8212938856860581</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -4212,8 +6109,23 @@
       <c r="G126" s="4">
         <v>6.9379488230928246</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H126" s="5">
+        <v>0.74895163764830119</v>
+      </c>
+      <c r="I126" s="4">
+        <v>1.5955795016104943</v>
+      </c>
+      <c r="J126" s="5">
+        <v>9.2184510992473628E-2</v>
+      </c>
+      <c r="K126" s="4">
+        <v>1.3679808898234527</v>
+      </c>
+      <c r="L126" s="6">
+        <v>0.85735677128133359</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -4235,8 +6147,23 @@
       <c r="G127" s="4">
         <v>6.3170067682167428</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H127" s="5">
+        <v>0.74950610825502906</v>
+      </c>
+      <c r="I127" s="4">
+        <v>1.452165500841931</v>
+      </c>
+      <c r="J127" s="5">
+        <v>9.2434779429523301E-2</v>
+      </c>
+      <c r="K127" s="4">
+        <v>1.2481941610813103</v>
+      </c>
+      <c r="L127" s="6">
+        <v>0.85953988051474639</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -4258,8 +6185,23 @@
       <c r="G128" s="4">
         <v>6.0902999889899547</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H128" s="5">
+        <v>0.77769275165930696</v>
+      </c>
+      <c r="I128" s="4">
+        <v>1.3710466019477228</v>
+      </c>
+      <c r="J128" s="5">
+        <v>9.2871890170201338E-2</v>
+      </c>
+      <c r="K128" s="4">
+        <v>0.85626506638012012</v>
+      </c>
+      <c r="L128" s="6">
+        <v>0.62453388904775453</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -4281,8 +6223,23 @@
       <c r="G129" s="4">
         <v>7.3577948965514679</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H129" s="5">
+        <v>0.77105966359949007</v>
+      </c>
+      <c r="I129" s="4">
+        <v>1.6643910537420923</v>
+      </c>
+      <c r="J129" s="5">
+        <v>9.3073239001438199E-2</v>
+      </c>
+      <c r="K129" s="4">
+        <v>1.3698207143173398</v>
+      </c>
+      <c r="L129" s="6">
+        <v>0.82301614830092806</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -4304,8 +6261,23 @@
       <c r="G130" s="4">
         <v>7.7908591902715898</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H130" s="5">
+        <v>0.78871510130007028</v>
+      </c>
+      <c r="I130" s="4">
+        <v>1.7400748866237354</v>
+      </c>
+      <c r="J130" s="5">
+        <v>9.3097459872505492E-2</v>
+      </c>
+      <c r="K130" s="4">
+        <v>1.2019131372146241</v>
+      </c>
+      <c r="L130" s="6">
+        <v>0.69072494893980907</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -4327,8 +6299,23 @@
       <c r="G131" s="4">
         <v>5.9761388911568929</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H131" s="5">
+        <v>0.76433677823515755</v>
+      </c>
+      <c r="I131" s="4">
+        <v>1.358571459383358</v>
+      </c>
+      <c r="J131" s="5">
+        <v>9.3135640063070874E-2</v>
+      </c>
+      <c r="K131" s="4">
+        <v>1.1134020662672206</v>
+      </c>
+      <c r="L131" s="6">
+        <v>0.81953883145210671</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -4350,8 +6337,23 @@
       <c r="G132" s="4">
         <v>6.6946051312807526</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H132" s="5">
+        <v>0.79061421762652717</v>
+      </c>
+      <c r="I132" s="4">
+        <v>1.4932281582020195</v>
+      </c>
+      <c r="J132" s="5">
+        <v>9.3562212283007554E-2</v>
+      </c>
+      <c r="K132" s="4">
+        <v>1.274364500026296</v>
+      </c>
+      <c r="L132" s="6">
+        <v>0.85342919166535469</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -4373,8 +6375,23 @@
       <c r="G133" s="4">
         <v>7.6612120048852148</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H133" s="5">
+        <v>0.81264995279602759</v>
+      </c>
+      <c r="I133" s="4">
+        <v>1.6829443606275327</v>
+      </c>
+      <c r="J133" s="5">
+        <v>9.3810632812488859E-2</v>
+      </c>
+      <c r="K133" s="4">
+        <v>1.1135641787152557</v>
+      </c>
+      <c r="L133" s="6">
+        <v>0.66167616991213662</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -4396,8 +6413,23 @@
       <c r="G134" s="4">
         <v>5.8696864018717747</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H134" s="5">
+        <v>0.76268562980902443</v>
+      </c>
+      <c r="I134" s="4">
+        <v>1.3360092064340345</v>
+      </c>
+      <c r="J134" s="5">
+        <v>9.3823681937239237E-2</v>
+      </c>
+      <c r="K134" s="4">
+        <v>1.1390872238149199</v>
+      </c>
+      <c r="L134" s="6">
+        <v>0.8526043221328371</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
@@ -4419,8 +6451,23 @@
       <c r="G135" s="4">
         <v>7.3393676675150914</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H135" s="5">
+        <v>0.7735997443259921</v>
+      </c>
+      <c r="I135" s="4">
+        <v>1.6571448449902082</v>
+      </c>
+      <c r="J135" s="5">
+        <v>9.3861621791414621E-2</v>
+      </c>
+      <c r="K135" s="4">
+        <v>1.4722884722901421</v>
+      </c>
+      <c r="L135" s="6">
+        <v>0.88844887442463816</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -4442,8 +6489,23 @@
       <c r="G136" s="4">
         <v>5.4279752763900433</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H136" s="5">
+        <v>0.76071494821313357</v>
+      </c>
+      <c r="I136" s="4">
+        <v>1.2372883228562679</v>
+      </c>
+      <c r="J136" s="5">
+        <v>9.3940351207630113E-2</v>
+      </c>
+      <c r="K136" s="4">
+        <v>0.95391545385033838</v>
+      </c>
+      <c r="L136" s="6">
+        <v>0.77097264738443028</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
@@ -4465,8 +6527,23 @@
       <c r="G137" s="4">
         <v>6.030307411180047</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H137" s="5">
+        <v>0.78355980265884606</v>
+      </c>
+      <c r="I137" s="4">
+        <v>1.3518234097135053</v>
+      </c>
+      <c r="J137" s="5">
+        <v>9.3992312954995924E-2</v>
+      </c>
+      <c r="K137" s="4">
+        <v>0.92658807581111702</v>
+      </c>
+      <c r="L137" s="6">
+        <v>0.68543573750323705</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -4488,8 +6565,23 @@
       <c r="G138" s="4">
         <v>9.874562579048586</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H138" s="5">
+        <v>0.79246087617910199</v>
+      </c>
+      <c r="I138" s="4">
+        <v>2.1996121997319604</v>
+      </c>
+      <c r="J138" s="5">
+        <v>9.413635333488711E-2</v>
+      </c>
+      <c r="K138" s="4">
+        <v>1.2153226203401104</v>
+      </c>
+      <c r="L138" s="6">
+        <v>0.55251676658649485</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
@@ -4511,8 +6603,23 @@
       <c r="G139" s="4">
         <v>5.4292329607770853</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H139" s="5">
+        <v>0.79424262482524122</v>
+      </c>
+      <c r="I139" s="4">
+        <v>1.2079039638533695</v>
+      </c>
+      <c r="J139" s="5">
+        <v>9.4140302665429304E-2</v>
+      </c>
+      <c r="K139" s="4">
+        <v>0.94667918528427242</v>
+      </c>
+      <c r="L139" s="6">
+        <v>0.78373712945211593</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
@@ -4534,8 +6641,23 @@
       <c r="G140" s="4">
         <v>5.8682709711011967</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H140" s="5">
+        <v>0.78459914233391626</v>
+      </c>
+      <c r="I140" s="4">
+        <v>1.3145232270790057</v>
+      </c>
+      <c r="J140" s="5">
+        <v>9.4218168026114407E-2</v>
+      </c>
+      <c r="K140" s="4">
+        <v>0.96774244529053921</v>
+      </c>
+      <c r="L140" s="6">
+        <v>0.73619273159665199</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -4557,8 +6679,23 @@
       <c r="G141" s="4">
         <v>7.4334033265875519</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H141" s="5">
+        <v>0.77806382816843089</v>
+      </c>
+      <c r="I141" s="4">
+        <v>1.6729468746025942</v>
+      </c>
+      <c r="J141" s="5">
+        <v>9.4326971779291571E-2</v>
+      </c>
+      <c r="K141" s="4">
+        <v>1.1243913440846551</v>
+      </c>
+      <c r="L141" s="6">
+        <v>0.67210224135285368</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
@@ -4580,8 +6717,23 @@
       <c r="G142" s="4">
         <v>6.1046826958006477</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H142" s="5">
+        <v>0.78040063636103219</v>
+      </c>
+      <c r="I142" s="4">
+        <v>1.371601899825889</v>
+      </c>
+      <c r="J142" s="5">
+        <v>9.4607384194466473E-2</v>
+      </c>
+      <c r="K142" s="4">
+        <v>1.1032376172564677</v>
+      </c>
+      <c r="L142" s="6">
+        <v>0.8043424388640118</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
@@ -4603,8 +6755,23 @@
       <c r="G143" s="4">
         <v>5.9291314704048546</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H143" s="5">
+        <v>0.79071346852753388</v>
+      </c>
+      <c r="I143" s="4">
+        <v>1.3224010860385904</v>
+      </c>
+      <c r="J143" s="5">
+        <v>9.469926438509163E-2</v>
+      </c>
+      <c r="K143" s="4">
+        <v>1.0245884142627428</v>
+      </c>
+      <c r="L143" s="6">
+        <v>0.77479399032559715</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
@@ -4626,8 +6793,23 @@
       <c r="G144" s="4">
         <v>8.6621061703305031</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H144" s="5">
+        <v>0.80811495393840682</v>
+      </c>
+      <c r="I144" s="4">
+        <v>1.9086924307682804</v>
+      </c>
+      <c r="J144" s="5">
+        <v>9.475530479752392E-2</v>
+      </c>
+      <c r="K144" s="4">
+        <v>1.3822676364331137</v>
+      </c>
+      <c r="L144" s="6">
+        <v>0.72419611151112917</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -4649,8 +6831,23 @@
       <c r="G145" s="4">
         <v>6.4398528157599344</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H145" s="5">
+        <v>0.77811732315701032</v>
+      </c>
+      <c r="I145" s="4">
+        <v>1.4492908046651662</v>
+      </c>
+      <c r="J145" s="5">
+        <v>9.5002213252303E-2</v>
+      </c>
+      <c r="K145" s="4">
+        <v>1.2312103942472996</v>
+      </c>
+      <c r="L145" s="6">
+        <v>0.84952612014381035</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
@@ -4672,8 +6869,23 @@
       <c r="G146" s="4">
         <v>5.6518753670663386</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H146" s="5">
+        <v>0.78259718875424156</v>
+      </c>
+      <c r="I146" s="4">
+        <v>1.267865295098737</v>
+      </c>
+      <c r="J146" s="5">
+        <v>9.5075373114371503E-2</v>
+      </c>
+      <c r="K146" s="4">
+        <v>0.90070042326922262</v>
+      </c>
+      <c r="L146" s="6">
+        <v>0.71040703357928814</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
@@ -4695,8 +6907,23 @@
       <c r="G147" s="4">
         <v>7.5605954351983655</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H147" s="5">
+        <v>0.77635257902873056</v>
+      </c>
+      <c r="I147" s="4">
+        <v>1.7036808178009819</v>
+      </c>
+      <c r="J147" s="5">
+        <v>9.5124548292854397E-2</v>
+      </c>
+      <c r="K147" s="4">
+        <v>1.4939921778641299</v>
+      </c>
+      <c r="L147" s="6">
+        <v>0.8769202319202567</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
@@ -4718,8 +6945,23 @@
       <c r="G148" s="4">
         <v>6.1018406740825526</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H148" s="5">
+        <v>0.78241871211986669</v>
+      </c>
+      <c r="I148" s="4">
+        <v>1.3689772449834279</v>
+      </c>
+      <c r="J148" s="5">
+        <v>9.5526597423771301E-2</v>
+      </c>
+      <c r="K148" s="4">
+        <v>1.0633750446252812</v>
+      </c>
+      <c r="L148" s="6">
+        <v>0.77676604817354278</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
@@ -4741,8 +6983,23 @@
       <c r="G149" s="4">
         <v>6.2429683832922933</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H149" s="5">
+        <v>0.78771092112496355</v>
+      </c>
+      <c r="I149" s="4">
+        <v>1.3953597098129873</v>
+      </c>
+      <c r="J149" s="5">
+        <v>9.6027341532003027E-2</v>
+      </c>
+      <c r="K149" s="4">
+        <v>1.126248316589795</v>
+      </c>
+      <c r="L149" s="6">
+        <v>0.80713833764108034</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
@@ -4764,8 +7021,23 @@
       <c r="G150" s="4">
         <v>6.2431089412869483</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H150" s="5">
+        <v>0.80752661597509412</v>
+      </c>
+      <c r="I150" s="4">
+        <v>1.3762374936892996</v>
+      </c>
+      <c r="J150" s="5">
+        <v>9.6139428184273443E-2</v>
+      </c>
+      <c r="K150" s="4">
+        <v>1.1582613771489354</v>
+      </c>
+      <c r="L150" s="6">
+        <v>0.84161446150109442</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
@@ -4787,8 +7059,23 @@
       <c r="G151" s="4">
         <v>6.0793064834518304</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H151" s="5">
+        <v>0.81136607273150907</v>
+      </c>
+      <c r="I151" s="4">
+        <v>1.3366211344469896</v>
+      </c>
+      <c r="J151" s="5">
+        <v>9.6213203333182243E-2</v>
+      </c>
+      <c r="K151" s="4">
+        <v>1.0357014272877703</v>
+      </c>
+      <c r="L151" s="6">
+        <v>0.7748653680508194</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
         <v>153</v>
       </c>
@@ -4810,8 +7097,23 @@
       <c r="G152" s="4">
         <v>6.0379814182619498</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H152" s="5">
+        <v>0.78808515316958583</v>
+      </c>
+      <c r="I152" s="4">
+        <v>1.3491858996666026</v>
+      </c>
+      <c r="J152" s="5">
+        <v>9.6746293678327294E-2</v>
+      </c>
+      <c r="K152" s="4">
+        <v>0.94360174112058792</v>
+      </c>
+      <c r="L152" s="6">
+        <v>0.69938600852096156</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
         <v>154</v>
       </c>
@@ -4833,8 +7135,23 @@
       <c r="G153" s="4">
         <v>5.5065832380536222</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H153" s="5">
+        <v>0.78947939637523035</v>
+      </c>
+      <c r="I153" s="4">
+        <v>1.2292322394293866</v>
+      </c>
+      <c r="J153" s="5">
+        <v>9.680942903088452E-2</v>
+      </c>
+      <c r="K153" s="4">
+        <v>0.97935584743816784</v>
+      </c>
+      <c r="L153" s="6">
+        <v>0.79672157630098261</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
@@ -4856,8 +7173,23 @@
       <c r="G154" s="4">
         <v>7.5971078473426701</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H154" s="5">
+        <v>0.85092737374846683</v>
+      </c>
+      <c r="I154" s="4">
+        <v>1.6274481481394016</v>
+      </c>
+      <c r="J154" s="5">
+        <v>9.6915115508711042E-2</v>
+      </c>
+      <c r="K154" s="4">
+        <v>1.0032369654278241</v>
+      </c>
+      <c r="L154" s="6">
+        <v>0.6164478828863369</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
         <v>156</v>
       </c>
@@ -4879,8 +7211,23 @@
       <c r="G155" s="4">
         <v>6.722010535185575</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H155" s="5">
+        <v>0.80972869610451526</v>
+      </c>
+      <c r="I155" s="4">
+        <v>1.4795746296310042</v>
+      </c>
+      <c r="J155" s="5">
+        <v>9.6970858733933754E-2</v>
+      </c>
+      <c r="K155" s="4">
+        <v>1.1306782483519022</v>
+      </c>
+      <c r="L155" s="6">
+        <v>0.76419142752798197</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
@@ -4902,8 +7249,23 @@
       <c r="G156" s="4">
         <v>7.4067026546079546</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H156" s="5">
+        <v>0.79777082654666065</v>
+      </c>
+      <c r="I156" s="4">
+        <v>1.643779176397731</v>
+      </c>
+      <c r="J156" s="5">
+        <v>9.701907948328492E-2</v>
+      </c>
+      <c r="K156" s="4">
+        <v>1.215998577029888</v>
+      </c>
+      <c r="L156" s="6">
+        <v>0.73975786680464894</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
         <v>158</v>
       </c>
@@ -4925,8 +7287,23 @@
       <c r="G157" s="4">
         <v>7.402668825219223</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H157" s="5">
+        <v>0.82489078825710871</v>
+      </c>
+      <c r="I157" s="4">
+        <v>1.6128394611209864</v>
+      </c>
+      <c r="J157" s="5">
+        <v>9.7166084124560168E-2</v>
+      </c>
+      <c r="K157" s="4">
+        <v>1.3117727828655601</v>
+      </c>
+      <c r="L157" s="6">
+        <v>0.8133312797008494</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
@@ -4948,8 +7325,23 @@
       <c r="G158" s="4">
         <v>7.5555180057899634</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H158" s="5">
+        <v>0.82056371891949542</v>
+      </c>
+      <c r="I158" s="4">
+        <v>1.6508966701898131</v>
+      </c>
+      <c r="J158" s="5">
+        <v>9.7493742485047191E-2</v>
+      </c>
+      <c r="K158" s="4">
+        <v>1.37322270257965</v>
+      </c>
+      <c r="L158" s="6">
+        <v>0.83180415066302282</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
@@ -4971,8 +7363,23 @@
       <c r="G159" s="4">
         <v>6.6383115664150978</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H159" s="5">
+        <v>0.82253602311439644</v>
+      </c>
+      <c r="I159" s="4">
+        <v>1.4485808105356912</v>
+      </c>
+      <c r="J159" s="5">
+        <v>9.7637581269733292E-2</v>
+      </c>
+      <c r="K159" s="4">
+        <v>1.0231059508550417</v>
+      </c>
+      <c r="L159" s="6">
+        <v>0.70628158499261962</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -4994,8 +7401,23 @@
       <c r="G160" s="4">
         <v>6.5709985834330951</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H160" s="5">
+        <v>0.79508557981480843</v>
+      </c>
+      <c r="I160" s="4">
+        <v>1.4610553923774339</v>
+      </c>
+      <c r="J160" s="5">
+        <v>9.7833945605166228E-2</v>
+      </c>
+      <c r="K160" s="4">
+        <v>1.2937980742456781</v>
+      </c>
+      <c r="L160" s="6">
+        <v>0.88552294525973163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
@@ -5017,8 +7439,23 @@
       <c r="G161" s="4">
         <v>6.0217034336453708</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H161" s="5">
+        <v>0.80324620174020112</v>
+      </c>
+      <c r="I161" s="4">
+        <v>1.3313452900394167</v>
+      </c>
+      <c r="J161" s="5">
+        <v>9.7862498054087546E-2</v>
+      </c>
+      <c r="K161" s="4">
+        <v>1.1005777141029629</v>
+      </c>
+      <c r="L161" s="6">
+        <v>0.82666587123343394</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
         <v>163</v>
       </c>
@@ -5040,8 +7477,23 @@
       <c r="G162" s="4">
         <v>5.5078828459920146</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H162" s="5">
+        <v>0.82602155444846503</v>
+      </c>
+      <c r="I162" s="4">
+        <v>1.1991266176666353</v>
+      </c>
+      <c r="J162" s="5">
+        <v>9.7884575480328945E-2</v>
+      </c>
+      <c r="K162" s="4">
+        <v>0.87355034674744503</v>
+      </c>
+      <c r="L162" s="6">
+        <v>0.72848883001803011</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
         <v>164</v>
       </c>
@@ -5063,8 +7515,23 @@
       <c r="G163" s="4">
         <v>8.2164063943615133</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H163" s="5">
+        <v>0.8537389560981391</v>
+      </c>
+      <c r="I163" s="4">
+        <v>1.7569766917874508</v>
+      </c>
+      <c r="J163" s="5">
+        <v>9.8705397400864286E-2</v>
+      </c>
+      <c r="K163" s="4">
+        <v>1.3799065869598042</v>
+      </c>
+      <c r="L163" s="6">
+        <v>0.78538696239388561</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>165</v>
       </c>
@@ -5086,8 +7553,23 @@
       <c r="G164" s="4">
         <v>8.2985302315442482</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H164" s="5">
+        <v>0.81206173982010521</v>
+      </c>
+      <c r="I164" s="4">
+        <v>1.8236670098169581</v>
+      </c>
+      <c r="J164" s="5">
+        <v>9.8765939442709408E-2</v>
+      </c>
+      <c r="K164" s="4">
+        <v>1.6247149340154579</v>
+      </c>
+      <c r="L164" s="6">
+        <v>0.89090548069876574</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
         <v>166</v>
       </c>
@@ -5109,8 +7591,23 @@
       <c r="G165" s="4">
         <v>6.0628484714800948</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H165" s="5">
+        <v>0.83675145326911304</v>
+      </c>
+      <c r="I165" s="4">
+        <v>1.3106766393328777</v>
+      </c>
+      <c r="J165" s="5">
+        <v>9.8869204632138982E-2</v>
+      </c>
+      <c r="K165" s="4">
+        <v>1.0698437408824333</v>
+      </c>
+      <c r="L165" s="6">
+        <v>0.81625300152368141</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
@@ -5132,8 +7629,23 @@
       <c r="G166" s="4">
         <v>6.5614463364401558</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H166" s="5">
+        <v>0.83766904789674301</v>
+      </c>
+      <c r="I166" s="4">
+        <v>1.4176155145766705</v>
+      </c>
+      <c r="J166" s="5">
+        <v>9.917079830829402E-2</v>
+      </c>
+      <c r="K166" s="4">
+        <v>1.1084093010564857</v>
+      </c>
+      <c r="L166" s="6">
+        <v>0.78188287984946314</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
         <v>168</v>
       </c>
@@ -5155,8 +7667,23 @@
       <c r="G167" s="4">
         <v>8.7321200208995151</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H167" s="5">
+        <v>0.83898737263127199</v>
+      </c>
+      <c r="I167" s="4">
+        <v>1.8849611436663918</v>
+      </c>
+      <c r="J167" s="5">
+        <v>9.9311001812428842E-2</v>
+      </c>
+      <c r="K167" s="4">
+        <v>1.4596622298949309</v>
+      </c>
+      <c r="L167" s="6">
+        <v>0.77437258311637003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
@@ -5178,8 +7705,23 @@
       <c r="G168" s="4">
         <v>8.2938642334307247</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H168" s="5">
+        <v>0.84395132567146713</v>
+      </c>
+      <c r="I168" s="4">
+        <v>1.7846349990688861</v>
+      </c>
+      <c r="J168" s="5">
+        <v>9.9472787991875408E-2</v>
+      </c>
+      <c r="K168" s="4">
+        <v>1.4420630779366168</v>
+      </c>
+      <c r="L168" s="6">
+        <v>0.8080437056815527</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
@@ -5201,8 +7743,23 @@
       <c r="G169" s="4">
         <v>5.7532607867963179</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H169" s="5">
+        <v>0.83258829400063761</v>
+      </c>
+      <c r="I169" s="4">
+        <v>1.2471368437635015</v>
+      </c>
+      <c r="J169" s="5">
+        <v>9.9873205441439572E-2</v>
+      </c>
+      <c r="K169" s="4">
+        <v>1.0662021154793722</v>
+      </c>
+      <c r="L169" s="6">
+        <v>0.85491990779606808</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
@@ -5224,8 +7781,23 @@
       <c r="G170" s="4">
         <v>6.4339979993645784</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H170" s="5">
+        <v>0.83666308068161599</v>
+      </c>
+      <c r="I170" s="4">
+        <v>1.3909902604919369</v>
+      </c>
+      <c r="J170" s="5">
+        <v>9.9873642085711381E-2</v>
+      </c>
+      <c r="K170" s="4">
+        <v>1.1128170085535867</v>
+      </c>
+      <c r="L170" s="6">
+        <v>0.80001782913995989</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
@@ -5247,8 +7819,23 @@
       <c r="G171" s="4">
         <v>8.7533471911202696</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H171" s="5">
+        <v>0.86850637721179691</v>
+      </c>
+      <c r="I171" s="4">
+        <v>1.8546205098887403</v>
+      </c>
+      <c r="J171" s="5">
+        <v>0.10013231365419986</v>
+      </c>
+      <c r="K171" s="4">
+        <v>1.3629659727990093</v>
+      </c>
+      <c r="L171" s="6">
+        <v>0.7349028901232062</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
@@ -5270,8 +7857,23 @@
       <c r="G172" s="4">
         <v>6.1315113562674242</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H172" s="5">
+        <v>0.85959162028264124</v>
+      </c>
+      <c r="I172" s="4">
+        <v>1.3063446012087856</v>
+      </c>
+      <c r="J172" s="5">
+        <v>0.10025656128912679</v>
+      </c>
+      <c r="K172" s="4">
+        <v>1.0907291135594062</v>
+      </c>
+      <c r="L172" s="6">
+        <v>0.83494746527840635</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
@@ -5293,8 +7895,23 @@
       <c r="G173" s="4">
         <v>5.3763117947235628</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H173" s="5">
+        <v>0.86263270133196723</v>
+      </c>
+      <c r="I173" s="4">
+        <v>1.1432778348091051</v>
+      </c>
+      <c r="J173" s="5">
+        <v>0.10038299242935601</v>
+      </c>
+      <c r="K173" s="4">
+        <v>0.8701335380162265</v>
+      </c>
+      <c r="L173" s="6">
+        <v>0.76108668560124249</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
         <v>175</v>
       </c>
@@ -5316,8 +7933,23 @@
       <c r="G174" s="4">
         <v>8.606806501726453</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H174" s="5">
+        <v>0.85093089954019985</v>
+      </c>
+      <c r="I174" s="4">
+        <v>1.8437313431763431</v>
+      </c>
+      <c r="J174" s="5">
+        <v>0.10041572898181411</v>
+      </c>
+      <c r="K174" s="4">
+        <v>1.2334243721142213</v>
+      </c>
+      <c r="L174" s="6">
+        <v>0.66898270004419558</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
@@ -5339,8 +7971,23 @@
       <c r="G175" s="4">
         <v>7.4190501436183922</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H175" s="5">
+        <v>0.85041514734884827</v>
+      </c>
+      <c r="I175" s="4">
+        <v>1.5898232901833163</v>
+      </c>
+      <c r="J175" s="5">
+        <v>0.10046797007857584</v>
+      </c>
+      <c r="K175" s="4">
+        <v>1.157381982555459</v>
+      </c>
+      <c r="L175" s="6">
+        <v>0.72799410456617863</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
@@ -5362,8 +8009,23 @@
       <c r="G176" s="4">
         <v>5.9198373732587015</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H176" s="5">
+        <v>0.83240481739804661</v>
+      </c>
+      <c r="I176" s="4">
+        <v>1.2833992605177653</v>
+      </c>
+      <c r="J176" s="5">
+        <v>0.10071506871749693</v>
+      </c>
+      <c r="K176" s="4">
+        <v>1.0658180237365746</v>
+      </c>
+      <c r="L176" s="6">
+        <v>0.83046488846081201</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
         <v>178</v>
       </c>
@@ -5385,8 +8047,23 @@
       <c r="G177" s="4">
         <v>7.1132506436118774</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H177" s="5">
+        <v>0.85384580696231671</v>
+      </c>
+      <c r="I177" s="4">
+        <v>1.5209861363879735</v>
+      </c>
+      <c r="J177" s="5">
+        <v>0.10096180765974952</v>
+      </c>
+      <c r="K177" s="4">
+        <v>1.3227946734087586</v>
+      </c>
+      <c r="L177" s="6">
+        <v>0.86969541783603743</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
         <v>179</v>
       </c>
@@ -5408,8 +8085,23 @@
       <c r="G178" s="4">
         <v>11.442246557848364</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H178" s="5">
+        <v>0.86352715538987457</v>
+      </c>
+      <c r="I178" s="4">
+        <v>2.4317713326429398</v>
+      </c>
+      <c r="J178" s="5">
+        <v>0.10103391898346407</v>
+      </c>
+      <c r="K178" s="4">
+        <v>2.1536915949903399</v>
+      </c>
+      <c r="L178" s="6">
+        <v>0.88564725066054106</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
@@ -5431,8 +8123,23 @@
       <c r="G179" s="4">
         <v>7.1505186730162222</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H179" s="5">
+        <v>0.85303194310674757</v>
+      </c>
+      <c r="I179" s="4">
+        <v>1.5297415635988847</v>
+      </c>
+      <c r="J179" s="5">
+        <v>0.10111886204265473</v>
+      </c>
+      <c r="K179" s="4">
+        <v>1.2596369147191904</v>
+      </c>
+      <c r="L179" s="6">
+        <v>0.82343118909298407</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
@@ -5454,8 +8161,23 @@
       <c r="G180" s="4">
         <v>6.4413764418749224</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H180" s="5">
+        <v>0.84184634968555994</v>
+      </c>
+      <c r="I180" s="4">
+        <v>1.3879170426595813</v>
+      </c>
+      <c r="J180" s="5">
+        <v>0.10119707240972735</v>
+      </c>
+      <c r="K180" s="4">
+        <v>1.0470416574222441</v>
+      </c>
+      <c r="L180" s="6">
+        <v>0.75439786762461081</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
@@ -5477,8 +8199,23 @@
       <c r="G181" s="4">
         <v>11.065203564633975</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H181" s="5">
+        <v>0.86304607217543161</v>
+      </c>
+      <c r="I181" s="4">
+        <v>2.3523498952413817</v>
+      </c>
+      <c r="J181" s="5">
+        <v>0.1014962974616133</v>
+      </c>
+      <c r="K181" s="4">
+        <v>2.1870078843520231</v>
+      </c>
+      <c r="L181" s="6">
+        <v>0.92971198237820274</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
@@ -5500,8 +8237,23 @@
       <c r="G182" s="4">
         <v>7.5170698686087576</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H182" s="5">
+        <v>0.85270975744046884</v>
+      </c>
+      <c r="I182" s="4">
+        <v>1.6084845668174517</v>
+      </c>
+      <c r="J182" s="5">
+        <v>0.10159991986195009</v>
+      </c>
+      <c r="K182" s="4">
+        <v>1.38525710209053</v>
+      </c>
+      <c r="L182" s="6">
+        <v>0.86121877117627588</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
@@ -5523,8 +8275,23 @@
       <c r="G183" s="4">
         <v>10.088040805278979</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H183" s="5">
+        <v>0.89332957986120787</v>
+      </c>
+      <c r="I183" s="4">
+        <v>2.1056061276196654</v>
+      </c>
+      <c r="J183" s="5">
+        <v>0.10160359112686317</v>
+      </c>
+      <c r="K183" s="4">
+        <v>1.0001856671457272</v>
+      </c>
+      <c r="L183" s="6">
+        <v>0.47501080758936204</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
@@ -5546,8 +8313,23 @@
       <c r="G184" s="4">
         <v>6.942344648985852</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H184" s="5">
+        <v>0.8427354510585876</v>
+      </c>
+      <c r="I184" s="4">
+        <v>1.4950000926907265</v>
+      </c>
+      <c r="J184" s="5">
+        <v>0.1016861171985339</v>
+      </c>
+      <c r="K184" s="4">
+        <v>1.2977578385132851</v>
+      </c>
+      <c r="L184" s="6">
+        <v>0.86806539000111937</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
@@ -5569,8 +8351,23 @@
       <c r="G185" s="4">
         <v>5.6494741494762479</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H185" s="5">
+        <v>0.87972863129057144</v>
+      </c>
+      <c r="I185" s="4">
+        <v>1.1888308419072082</v>
+      </c>
+      <c r="J185" s="5">
+        <v>0.1018220463874641</v>
+      </c>
+      <c r="K185" s="4">
+        <v>1.0321438913629861</v>
+      </c>
+      <c r="L185" s="6">
+        <v>0.86820080282165835</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
         <v>187</v>
       </c>
@@ -5592,8 +8389,23 @@
       <c r="G186" s="4">
         <v>6.9136946974297757</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H186" s="5">
+        <v>0.85903923159899431</v>
+      </c>
+      <c r="I186" s="4">
+        <v>1.4734965794940409</v>
+      </c>
+      <c r="J186" s="5">
+        <v>0.10202320526896973</v>
+      </c>
+      <c r="K186" s="4">
+        <v>1.2262273434163296</v>
+      </c>
+      <c r="L186" s="6">
+        <v>0.83218879533292389</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
         <v>188</v>
       </c>
@@ -5615,8 +8427,23 @@
       <c r="G187" s="4">
         <v>6.0253580125313988</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H187" s="5">
+        <v>0.86458247466356686</v>
+      </c>
+      <c r="I187" s="4">
+        <v>1.2797437532993121</v>
+      </c>
+      <c r="J187" s="5">
+        <v>0.10203993470996496</v>
+      </c>
+      <c r="K187" s="4">
+        <v>1.0030930635414821</v>
+      </c>
+      <c r="L187" s="6">
+        <v>0.78382337163623894</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
         <v>189</v>
       </c>
@@ -5638,8 +8465,23 @@
       <c r="G188" s="4">
         <v>6.6515388046465205</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H188" s="5">
+        <v>0.86434149361462809</v>
+      </c>
+      <c r="I188" s="4">
+        <v>1.4129477735521072</v>
+      </c>
+      <c r="J188" s="5">
+        <v>0.1024008702460692</v>
+      </c>
+      <c r="K188" s="4">
+        <v>1.0941189704330627</v>
+      </c>
+      <c r="L188" s="6">
+        <v>0.77435202554053451</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
         <v>190</v>
       </c>
@@ -5661,8 +8503,23 @@
       <c r="G189" s="4">
         <v>9.3781542009978693</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H189" s="5">
+        <v>0.87745620300093274</v>
+      </c>
+      <c r="I189" s="4">
+        <v>1.9761480395809512</v>
+      </c>
+      <c r="J189" s="5">
+        <v>0.10244729448088398</v>
+      </c>
+      <c r="K189" s="4">
+        <v>1.3265988540303897</v>
+      </c>
+      <c r="L189" s="6">
+        <v>0.67130540195343835</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
         <v>191</v>
       </c>
@@ -5684,8 +8541,23 @@
       <c r="G190" s="4">
         <v>6.6154679345656859</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H190" s="5">
+        <v>0.86484603986574937</v>
+      </c>
+      <c r="I190" s="4">
+        <v>1.4048459200200258</v>
+      </c>
+      <c r="J190" s="5">
+        <v>0.10262948623755676</v>
+      </c>
+      <c r="K190" s="4">
+        <v>1.1417432510633279</v>
+      </c>
+      <c r="L190" s="6">
+        <v>0.81271777551736946</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
         <v>192</v>
       </c>
@@ -5707,8 +8579,23 @@
       <c r="G191" s="4">
         <v>6.1382790938519065</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H191" s="5">
+        <v>0.87283776353362186</v>
+      </c>
+      <c r="I191" s="4">
+        <v>1.2971137399228467</v>
+      </c>
+      <c r="J191" s="5">
+        <v>0.10283895520630847</v>
+      </c>
+      <c r="K191" s="4">
+        <v>1.0147211909496809</v>
+      </c>
+      <c r="L191" s="6">
+        <v>0.78229160613936388</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
         <v>193</v>
       </c>
@@ -5730,8 +8617,23 @@
       <c r="G192" s="4">
         <v>7.1529396936912804</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H192" s="5">
+        <v>0.88132964431563887</v>
+      </c>
+      <c r="I192" s="4">
+        <v>1.5037442831700951</v>
+      </c>
+      <c r="J192" s="5">
+        <v>0.10286249585940806</v>
+      </c>
+      <c r="K192" s="4">
+        <v>1.186910107617088</v>
+      </c>
+      <c r="L192" s="6">
+        <v>0.78930315539748686</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
@@ -5753,8 +8655,23 @@
       <c r="G193" s="4">
         <v>6.7797420001166415</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H193" s="5">
+        <v>0.86369253314340189</v>
+      </c>
+      <c r="I193" s="4">
+        <v>1.4407608632326583</v>
+      </c>
+      <c r="J193" s="5">
+        <v>0.10307111445449413</v>
+      </c>
+      <c r="K193" s="4">
+        <v>0.98314694377486589</v>
+      </c>
+      <c r="L193" s="6">
+        <v>0.68238037891240566</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
         <v>195</v>
       </c>
@@ -5776,8 +8693,23 @@
       <c r="G194" s="4">
         <v>7.8908092729703299</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H194" s="5">
+        <v>0.88033485546887225</v>
+      </c>
+      <c r="I194" s="4">
+        <v>1.6598551569718791</v>
+      </c>
+      <c r="J194" s="5">
+        <v>0.10314735458403292</v>
+      </c>
+      <c r="K194" s="4">
+        <v>1.1489362987828327</v>
+      </c>
+      <c r="L194" s="6">
+        <v>0.69219069745752371</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
@@ -5799,8 +8731,23 @@
       <c r="G195" s="4">
         <v>7.2395969187987248</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H195" s="5">
+        <v>0.88433324822756376</v>
+      </c>
+      <c r="I195" s="4">
+        <v>1.519213721537394</v>
+      </c>
+      <c r="J195" s="5">
+        <v>0.10334161135506703</v>
+      </c>
+      <c r="K195" s="4">
+        <v>1.1131533060297782</v>
+      </c>
+      <c r="L195" s="6">
+        <v>0.73271672724447467</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
@@ -5822,8 +8769,23 @@
       <c r="G196" s="4">
         <v>8.0306087618766924</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H196" s="5">
+        <v>0.87594653228581887</v>
+      </c>
+      <c r="I196" s="4">
+        <v>1.6937619052889701</v>
+      </c>
+      <c r="J196" s="5">
+        <v>0.10337086209309321</v>
+      </c>
+      <c r="K196" s="4">
+        <v>1.2769841613281829</v>
+      </c>
+      <c r="L196" s="6">
+        <v>0.75393368887365486</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
@@ -5845,8 +8807,23 @@
       <c r="G197" s="4">
         <v>8.1345289776718346</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H197" s="5">
+        <v>0.88282240510882826</v>
+      </c>
+      <c r="I197" s="4">
+        <v>1.7085560080304631</v>
+      </c>
+      <c r="J197" s="5">
+        <v>0.10337115471436231</v>
+      </c>
+      <c r="K197" s="4">
+        <v>1.1723720359822272</v>
+      </c>
+      <c r="L197" s="6">
+        <v>0.68617711709297613</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
         <v>199</v>
       </c>
@@ -5868,8 +8845,23 @@
       <c r="G198" s="4">
         <v>8.2935234763816084</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H198" s="5">
+        <v>0.87423244336774364</v>
+      </c>
+      <c r="I198" s="4">
+        <v>1.7510398982399311</v>
+      </c>
+      <c r="J198" s="5">
+        <v>0.10397137727661236</v>
+      </c>
+      <c r="K198" s="4">
+        <v>1.1818433627787945</v>
+      </c>
+      <c r="L198" s="6">
+        <v>0.67493799768168128</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
         <v>200</v>
       </c>
@@ -5891,8 +8883,23 @@
       <c r="G199" s="4">
         <v>9.037891407070731</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H199" s="5">
+        <v>0.87468916482776682</v>
+      </c>
+      <c r="I199" s="4">
+        <v>1.9076612653321678</v>
+      </c>
+      <c r="J199" s="5">
+        <v>0.10415298138290335</v>
+      </c>
+      <c r="K199" s="4">
+        <v>1.2625384919905809</v>
+      </c>
+      <c r="L199" s="6">
+        <v>0.66182530144875795</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
         <v>201</v>
       </c>
@@ -5914,8 +8921,23 @@
       <c r="G200" s="4">
         <v>6.8895226951132145</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H200" s="5">
+        <v>0.88500906095919152</v>
+      </c>
+      <c r="I200" s="4">
+        <v>1.4451678275504323</v>
+      </c>
+      <c r="J200" s="5">
+        <v>0.10430012243618826</v>
+      </c>
+      <c r="K200" s="4">
+        <v>1.142332526783135</v>
+      </c>
+      <c r="L200" s="6">
+        <v>0.79044973532201801</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
         <v>202</v>
       </c>
@@ -5937,8 +8959,23 @@
       <c r="G201" s="4">
         <v>7.7981765590733403</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H201" s="5">
+        <v>0.90130566494443443</v>
+      </c>
+      <c r="I201" s="4">
+        <v>1.620072521977338</v>
+      </c>
+      <c r="J201" s="5">
+        <v>0.10571473327618718</v>
+      </c>
+      <c r="K201" s="4">
+        <v>1.4103249301925194</v>
+      </c>
+      <c r="L201" s="6">
+        <v>0.8705319737607693</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
         <v>203</v>
       </c>
@@ -5960,8 +8997,23 @@
       <c r="G202" s="4">
         <v>9.7925848652804461</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H202" s="5">
+        <v>0.89981115931998212</v>
+      </c>
+      <c r="I202" s="4">
+        <v>2.0361652821480019</v>
+      </c>
+      <c r="J202" s="5">
+        <v>0.10571785017411049</v>
+      </c>
+      <c r="K202" s="4">
+        <v>1.2524963062826324</v>
+      </c>
+      <c r="L202" s="6">
+        <v>0.61512506733311112</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
@@ -5983,8 +9035,23 @@
       <c r="G203" s="4">
         <v>5.8583077119278641</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H203" s="5">
+        <v>0.89134720714031368</v>
+      </c>
+      <c r="I203" s="4">
+        <v>1.2242265796608072</v>
+      </c>
+      <c r="J203" s="5">
+        <v>0.10624186268263223</v>
+      </c>
+      <c r="K203" s="4">
+        <v>0.83115915966158327</v>
+      </c>
+      <c r="L203" s="6">
+        <v>0.67892592226830284</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
         <v>205</v>
       </c>
@@ -6006,8 +9073,23 @@
       <c r="G204" s="4">
         <v>8.4418748702806852</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H204" s="5">
+        <v>0.94464619568782504</v>
+      </c>
+      <c r="I204" s="4">
+        <v>1.711474417735636</v>
+      </c>
+      <c r="J204" s="5">
+        <v>0.1070815373010683</v>
+      </c>
+      <c r="K204" s="4">
+        <v>1.3460041329531098</v>
+      </c>
+      <c r="L204" s="6">
+        <v>0.78645880943633317</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
         <v>206</v>
       </c>
@@ -6029,8 +9111,23 @@
       <c r="G205" s="4">
         <v>7.4096116770687672</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H205" s="5">
+        <v>0.91893047595990862</v>
+      </c>
+      <c r="I205" s="4">
+        <v>1.5238226119902691</v>
+      </c>
+      <c r="J205" s="5">
+        <v>0.1083084567179213</v>
+      </c>
+      <c r="K205" s="4">
+        <v>1.2687974596676008</v>
+      </c>
+      <c r="L205" s="6">
+        <v>0.83264118125299424</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
@@ -6052,8 +9149,23 @@
       <c r="G206" s="4">
         <v>9.0218353071603588</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H206" s="5">
+        <v>0.94122392960695445</v>
+      </c>
+      <c r="I206" s="4">
+        <v>1.8324672929756383</v>
+      </c>
+      <c r="J206" s="5">
+        <v>0.11023925981168245</v>
+      </c>
+      <c r="K206" s="4">
+        <v>1.6148140485543083</v>
+      </c>
+      <c r="L206" s="6">
+        <v>0.88122394039137508</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
@@ -6075,8 +9187,23 @@
       <c r="G207" s="4">
         <v>8.6382472721826389</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H207" s="5">
+        <v>0.93727788636751352</v>
+      </c>
+      <c r="I207" s="4">
+        <v>1.7583640427277769</v>
+      </c>
+      <c r="J207" s="5">
+        <v>0.11080011161589406</v>
+      </c>
+      <c r="K207" s="4">
+        <v>1.4379932189776965</v>
+      </c>
+      <c r="L207" s="6">
+        <v>0.81780176575205421</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
@@ -6098,8 +9225,23 @@
       <c r="G208" s="4">
         <v>9.7579809998606493</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H208" s="5">
+        <v>0.97122758191011482</v>
+      </c>
+      <c r="I208" s="4">
+        <v>1.9504393389755776</v>
+      </c>
+      <c r="J208" s="5">
+        <v>0.11123109253334147</v>
+      </c>
+      <c r="K208" s="4">
+        <v>1.2769537104424893</v>
+      </c>
+      <c r="L208" s="6">
+        <v>0.65470055126819748</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
@@ -6121,8 +9263,23 @@
       <c r="G209" s="4">
         <v>9.6789323230173636</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H209" s="5">
+        <v>0.95957430239913721</v>
+      </c>
+      <c r="I209" s="4">
+        <v>1.9465587473209707</v>
+      </c>
+      <c r="J209" s="5">
+        <v>0.11130071639600062</v>
+      </c>
+      <c r="K209" s="4">
+        <v>0.99530516307856787</v>
+      </c>
+      <c r="L209" s="6">
+        <v>0.51131524514654203</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
@@ -6144,8 +9301,23 @@
       <c r="G210" s="4">
         <v>7.6990020562971608</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H210" s="5">
+        <v>0.96149721515832087</v>
+      </c>
+      <c r="I210" s="4">
+        <v>1.5468060686895952</v>
+      </c>
+      <c r="J210" s="5">
+        <v>0.11157472730447886</v>
+      </c>
+      <c r="K210" s="4">
+        <v>1.2229324117869727</v>
+      </c>
+      <c r="L210" s="6">
+        <v>0.79061780047385122</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
@@ -6167,8 +9339,23 @@
       <c r="G211" s="4">
         <v>6.78934784910291</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H211" s="5">
+        <v>0.94820043907438267</v>
+      </c>
+      <c r="I211" s="4">
+        <v>1.3738052190761934</v>
+      </c>
+      <c r="J211" s="5">
+        <v>0.11187623058039375</v>
+      </c>
+      <c r="K211" s="4">
+        <v>1.0942636959870207</v>
+      </c>
+      <c r="L211" s="6">
+        <v>0.79652026414840038</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
@@ -6190,8 +9377,23 @@
       <c r="G212" s="4">
         <v>7.1352318404875064</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H212" s="5">
+        <v>0.99273334185881512</v>
+      </c>
+      <c r="I212" s="4">
+        <v>1.4105471530997151</v>
+      </c>
+      <c r="J212" s="5">
+        <v>0.11398968875119717</v>
+      </c>
+      <c r="K212" s="4">
+        <v>0.98046023123650117</v>
+      </c>
+      <c r="L212" s="6">
+        <v>0.69509213434085737</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
         <v>214</v>
       </c>
@@ -6213,8 +9415,23 @@
       <c r="G213" s="4">
         <v>8.380298013833567</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H213" s="5">
+        <v>0.99381314736565562</v>
+      </c>
+      <c r="I213" s="4">
+        <v>1.6557677100853387</v>
+      </c>
+      <c r="J213" s="5">
+        <v>0.11404453703022421</v>
+      </c>
+      <c r="K213" s="4">
+        <v>1.4628881422592277</v>
+      </c>
+      <c r="L213" s="6">
+        <v>0.88351049084284283</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
         <v>215</v>
       </c>
@@ -6236,8 +9453,23 @@
       <c r="G214" s="4">
         <v>9.6053899172811157</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H214" s="5">
+        <v>1.036561396030049</v>
+      </c>
+      <c r="I214" s="4">
+        <v>1.8585515452416832</v>
+      </c>
+      <c r="J214" s="5">
+        <v>0.11622202636776105</v>
+      </c>
+      <c r="K214" s="4">
+        <v>1.3581428882876156</v>
+      </c>
+      <c r="L214" s="6">
+        <v>0.73075341481099709</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
         <v>216</v>
       </c>
@@ -6259,8 +9491,23 @@
       <c r="G215" s="4">
         <v>6.7358504455415869</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H215" s="5">
+        <v>0.99934170033870995</v>
+      </c>
+      <c r="I215" s="4">
+        <v>1.3271779844464653</v>
+      </c>
+      <c r="J215" s="5">
+        <v>0.11643623596877241</v>
+      </c>
+      <c r="K215" s="4">
+        <v>1.155457273891711</v>
+      </c>
+      <c r="L215" s="6">
+        <v>0.87061214654914953</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
         <v>217</v>
       </c>
@@ -6282,8 +9529,23 @@
       <c r="G216" s="4">
         <v>10.677046294928971</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H216" s="5">
+        <v>1.0245511792705393</v>
+      </c>
+      <c r="I216" s="4">
+        <v>2.077783585403151</v>
+      </c>
+      <c r="J216" s="5">
+        <v>0.11775239517191764</v>
+      </c>
+      <c r="K216" s="4">
+        <v>1.9175027510883544</v>
+      </c>
+      <c r="L216" s="6">
+        <v>0.92285970712214616</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
@@ -6305,8 +9567,23 @@
       <c r="G217" s="4">
         <v>8.3469776975371133</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H217" s="5">
+        <v>1.0215994277783533</v>
+      </c>
+      <c r="I217" s="4">
+        <v>1.6266871078381495</v>
+      </c>
+      <c r="J217" s="5">
+        <v>0.11843035188960217</v>
+      </c>
+      <c r="K217" s="4">
+        <v>1.3618832784264032</v>
+      </c>
+      <c r="L217" s="6">
+        <v>0.8372128062392602</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
@@ -6328,8 +9605,23 @@
       <c r="G218" s="4">
         <v>11.517846164107937</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H218" s="5">
+        <v>1.0278751300557787</v>
+      </c>
+      <c r="I218" s="4">
+        <v>2.2378119422913163</v>
+      </c>
+      <c r="J218" s="5">
+        <v>0.11885949510589053</v>
+      </c>
+      <c r="K218" s="4">
+        <v>2.1045921820512832</v>
+      </c>
+      <c r="L218" s="6">
+        <v>0.94046874193386054</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
         <v>220</v>
       </c>
@@ -6351,8 +9643,23 @@
       <c r="G219" s="4">
         <v>10.453474767096054</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H219" s="5">
+        <v>1.0397284067630699</v>
+      </c>
+      <c r="I219" s="4">
+        <v>2.0196115977206062</v>
+      </c>
+      <c r="J219" s="5">
+        <v>0.119767643483901</v>
+      </c>
+      <c r="K219" s="4">
+        <v>1.1797884693933711</v>
+      </c>
+      <c r="L219" s="6">
+        <v>0.58416602020156516</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
         <v>221</v>
       </c>
@@ -6374,8 +9681,23 @@
       <c r="G220" s="4">
         <v>7.1962733241359729</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H220" s="5">
+        <v>1.1330303831609618</v>
+      </c>
+      <c r="I220" s="4">
+        <v>1.3342154138764279</v>
+      </c>
+      <c r="J220" s="5">
+        <v>0.12723423438952106</v>
+      </c>
+      <c r="K220" s="4">
+        <v>1.0939461085925275</v>
+      </c>
+      <c r="L220" s="6">
+        <v>0.81991715671622878</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
         <v>222</v>
       </c>
@@ -6397,8 +9719,23 @@
       <c r="G221" s="4">
         <v>8.0503761422208413</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H221" s="5">
+        <v>1.1813597945871663</v>
+      </c>
+      <c r="I221" s="4">
+        <v>1.4639366379351417</v>
+      </c>
+      <c r="J221" s="5">
+        <v>0.12959443435701282</v>
+      </c>
+      <c r="K221" s="4">
+        <v>1.1339067635180993</v>
+      </c>
+      <c r="L221" s="6">
+        <v>0.7745600008463861</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
         <v>223</v>
       </c>
@@ -6420,8 +9757,23 @@
       <c r="G222" s="4">
         <v>5.8165414249758669</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H222" s="5">
+        <v>1.2030202369609961</v>
+      </c>
+      <c r="I222" s="4">
+        <v>1.0490005548189731</v>
+      </c>
+      <c r="J222" s="5">
+        <v>0.13219140399046761</v>
+      </c>
+      <c r="K222" s="4">
+        <v>0.8231353303166612</v>
+      </c>
+      <c r="L222" s="6">
+        <v>0.78468531454562529</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
         <v>224</v>
       </c>
@@ -6443,8 +9795,23 @@
       <c r="G223" s="4">
         <v>16.00327668442452</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H223" s="5">
+        <v>1.2899109755478884</v>
+      </c>
+      <c r="I223" s="4">
+        <v>2.7977049145084383</v>
+      </c>
+      <c r="J223" s="5">
+        <v>0.13396198406812235</v>
+      </c>
+      <c r="K223" s="4">
+        <v>2.1499212182184047</v>
+      </c>
+      <c r="L223" s="6">
+        <v>0.76845889181137972</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
         <v>225</v>
       </c>
@@ -6466,8 +9833,23 @@
       <c r="G224" s="4">
         <v>9.3735747311417299</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H224" s="5">
+        <v>1.224612485404222</v>
+      </c>
+      <c r="I224" s="4">
+        <v>1.6769444863435246</v>
+      </c>
+      <c r="J224" s="5">
+        <v>0.13428015379203262</v>
+      </c>
+      <c r="K224" s="4">
+        <v>1.4288352626383585</v>
+      </c>
+      <c r="L224" s="6">
+        <v>0.85204684727152002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
         <v>226</v>
       </c>
@@ -6489,8 +9871,23 @@
       <c r="G225" s="4">
         <v>8.9954709206835446</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H225" s="5">
+        <v>1.2923167607341854</v>
+      </c>
+      <c r="I225" s="4">
+        <v>1.5714055562532654</v>
+      </c>
+      <c r="J225" s="5">
+        <v>0.13848666325120523</v>
+      </c>
+      <c r="K225" s="4">
+        <v>1.2134789239905841</v>
+      </c>
+      <c r="L225" s="6">
+        <v>0.77222517074707742</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
         <v>227</v>
       </c>
@@ -6512,8 +9909,23 @@
       <c r="G226" s="4">
         <v>7.6614468318797435</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H226" s="5">
+        <v>1.2877181488007108</v>
+      </c>
+      <c r="I226" s="4">
+        <v>1.3404614863027224</v>
+      </c>
+      <c r="J226" s="5">
+        <v>0.14038798670152877</v>
+      </c>
+      <c r="K226" s="4">
+        <v>1.1082138581590422</v>
+      </c>
+      <c r="L226" s="6">
+        <v>0.8267405438225095</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
         <v>228</v>
       </c>
@@ -6535,8 +9947,23 @@
       <c r="G227" s="4">
         <v>9.6194212578505471</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H227" s="5">
+        <v>1.3673137738579741</v>
+      </c>
+      <c r="I227" s="4">
+        <v>1.6401881766943498</v>
+      </c>
+      <c r="J227" s="5">
+        <v>0.14136753601466437</v>
+      </c>
+      <c r="K227" s="4">
+        <v>1.2600093764989955</v>
+      </c>
+      <c r="L227" s="6">
+        <v>0.76821025441021662</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
         <v>229</v>
       </c>
@@ -6558,8 +9985,23 @@
       <c r="G228" s="4">
         <v>7.5771918140643493</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H228" s="5">
+        <v>1.3107798184898194</v>
+      </c>
+      <c r="I228" s="4">
+        <v>1.3155250703637793</v>
+      </c>
+      <c r="J228" s="5">
+        <v>0.14155594692344797</v>
+      </c>
+      <c r="K228" s="4">
+        <v>1.0557338482207257</v>
+      </c>
+      <c r="L228" s="6">
+        <v>0.80251898804846467</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
         <v>230</v>
       </c>
@@ -6581,8 +10023,23 @@
       <c r="G229" s="4">
         <v>7.2004656415297745</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H229" s="5">
+        <v>1.5419401610981303</v>
+      </c>
+      <c r="I229" s="4">
+        <v>1.1690179897681183</v>
+      </c>
+      <c r="J229" s="5">
+        <v>0.15851716024725562</v>
+      </c>
+      <c r="K229" s="4">
+        <v>0.95671843715273786</v>
+      </c>
+      <c r="L229" s="6">
+        <v>0.81839496528407474</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
         <v>231</v>
       </c>
@@ -6604,8 +10061,23 @@
       <c r="G230" s="4">
         <v>8.1568793757174376</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H230" s="5">
+        <v>1.6231975982504372</v>
+      </c>
+      <c r="I230" s="4">
+        <v>1.2982083606790416</v>
+      </c>
+      <c r="J230" s="5">
+        <v>0.16592483581787423</v>
+      </c>
+      <c r="K230" s="4">
+        <v>1.0331784083102533</v>
+      </c>
+      <c r="L230" s="6">
+        <v>0.79584944882795139</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
         <v>232</v>
       </c>
@@ -6627,8 +10099,23 @@
       <c r="G231" s="4">
         <v>10.424608980654455</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H231" s="5">
+        <v>1.6010789472619438</v>
+      </c>
+      <c r="I231" s="4">
+        <v>1.6678438644255384</v>
+      </c>
+      <c r="J231" s="5">
+        <v>0.16165923209327038</v>
+      </c>
+      <c r="K231" s="4">
+        <v>1.2928586076813302</v>
+      </c>
+      <c r="L231" s="6">
+        <v>0.7751676492371391</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
         <v>233</v>
       </c>
@@ -6650,8 +10137,23 @@
       <c r="G232" s="4">
         <v>8.2009739736478764</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H232" s="5">
+        <v>1.6436706402878214</v>
+      </c>
+      <c r="I232" s="4">
+        <v>1.2990283514375647</v>
+      </c>
+      <c r="J232" s="5">
+        <v>0.16556863691457416</v>
+      </c>
+      <c r="K232" s="4">
+        <v>1.0368496787523596</v>
+      </c>
+      <c r="L232" s="6">
+        <v>0.79817324818579494</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
         <v>234</v>
       </c>
@@ -6673,8 +10175,23 @@
       <c r="G233" s="4">
         <v>13.126254759858227</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H233" s="5">
+        <v>1.6397600092508351</v>
+      </c>
+      <c r="I233" s="4">
+        <v>2.0809942545085995</v>
+      </c>
+      <c r="J233" s="5">
+        <v>0.16432182156116815</v>
+      </c>
+      <c r="K233" s="4">
+        <v>1.1279427764507937</v>
+      </c>
+      <c r="L233" s="6">
+        <v>0.54202109112364794</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
         <v>235</v>
       </c>
@@ -6696,8 +10213,23 @@
       <c r="G234" s="4">
         <v>9.1539801279509447</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H234" s="5">
+        <v>1.6187741237486204</v>
+      </c>
+      <c r="I234" s="4">
+        <v>1.4584114871277025</v>
+      </c>
+      <c r="J234" s="5">
+        <v>0.16146982675074933</v>
+      </c>
+      <c r="K234" s="4">
+        <v>1.0944851568796397</v>
+      </c>
+      <c r="L234" s="6">
+        <v>0.75046388933427466</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
         <v>236</v>
       </c>
@@ -6719,8 +10251,23 @@
       <c r="G235" s="4">
         <v>8.224669451554405</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H235" s="5">
+        <v>1.6809295884665445</v>
+      </c>
+      <c r="I235" s="4">
+        <v>1.2918584490405414</v>
+      </c>
+      <c r="J235" s="5">
+        <v>0.16668753182639268</v>
+      </c>
+      <c r="K235" s="4">
+        <v>0.9996313342990204</v>
+      </c>
+      <c r="L235" s="6">
+        <v>0.77379323953134571</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
         <v>237</v>
       </c>
@@ -6742,8 +10289,23 @@
       <c r="G236" s="4">
         <v>10.155982802961091</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H236" s="5">
+        <v>1.6470084855446654</v>
+      </c>
+      <c r="I236" s="4">
+        <v>1.6074484735835728</v>
+      </c>
+      <c r="J236" s="5">
+        <v>0.16305613006777675</v>
+      </c>
+      <c r="K236" s="4">
+        <v>1.1687518802507364</v>
+      </c>
+      <c r="L236" s="6">
+        <v>0.72708512867300423</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
         <v>238</v>
       </c>
@@ -6765,8 +10327,23 @@
       <c r="G237" s="4">
         <v>10.344895454474909</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H237" s="5">
+        <v>1.8793621573885668</v>
+      </c>
+      <c r="I237" s="4">
+        <v>1.560870900467092</v>
+      </c>
+      <c r="J237" s="5">
+        <v>0.17959793401002611</v>
+      </c>
+      <c r="K237" s="4">
+        <v>1.0702224736265995</v>
+      </c>
+      <c r="L237" s="6">
+        <v>0.68565726563698171</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
         <v>239</v>
       </c>
@@ -6788,8 +10365,23 @@
       <c r="G238" s="4">
         <v>11.005425627907925</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H238" s="5">
+        <v>2.8453255659452674</v>
+      </c>
+      <c r="I238" s="4">
+        <v>1.4647418009873003</v>
+      </c>
+      <c r="J238" s="5">
+        <v>0.23072680635432685</v>
+      </c>
+      <c r="K238" s="4">
+        <v>1.2827753896073533</v>
+      </c>
+      <c r="L238" s="6">
+        <v>0.87576895036565916</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
         <v>240</v>
       </c>
@@ -6811,8 +10403,23 @@
       <c r="G239" s="4">
         <v>15.968282547309741</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H239" s="5">
+        <v>3.7873100197841705</v>
+      </c>
+      <c r="I239" s="4">
+        <v>1.9877107784748771</v>
+      </c>
+      <c r="J239" s="5">
+        <v>0.26340945113215936</v>
+      </c>
+      <c r="K239" s="4">
+        <v>1.8517717731819057</v>
+      </c>
+      <c r="L239" s="6">
+        <v>0.9316102690768352</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
         <v>241</v>
       </c>
@@ -6834,8 +10441,23 @@
       <c r="G240" s="4">
         <v>12.298023277046468</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H240" s="5">
+        <v>4.2881787378202292</v>
+      </c>
+      <c r="I240" s="4">
+        <v>1.4935419011106166</v>
+      </c>
+      <c r="J240" s="5">
+        <v>0.29356151206888664</v>
+      </c>
+      <c r="K240" s="4">
+        <v>1.0446815820545752</v>
+      </c>
+      <c r="L240" s="6">
+        <v>0.6994658678660014</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
         <v>242</v>
       </c>
@@ -6857,8 +10479,23 @@
       <c r="G241" s="4">
         <v>11.995523749722906</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H241" s="5">
+        <v>4.6115337658610569</v>
+      </c>
+      <c r="I241" s="4">
+        <v>1.4374915095230072</v>
+      </c>
+      <c r="J241" s="5">
+        <v>0.31249653587089632</v>
+      </c>
+      <c r="K241" s="4">
+        <v>1.2555732048007051</v>
+      </c>
+      <c r="L241" s="6">
+        <v>0.87344738837263358</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
         <v>243</v>
       </c>
@@ -6880,8 +10517,23 @@
       <c r="G242" s="4">
         <v>10.030814036382139</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H242" s="5">
+        <v>4.565419795686724</v>
+      </c>
+      <c r="I242" s="4">
+        <v>1.204229748621535</v>
+      </c>
+      <c r="J242" s="5">
+        <v>0.29677286424384064</v>
+      </c>
+      <c r="K242" s="4">
+        <v>0.99322649822956377</v>
+      </c>
+      <c r="L242" s="6">
+        <v>0.82478156628043453</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
         <v>244</v>
       </c>
@@ -6903,8 +10555,23 @@
       <c r="G243" s="4">
         <v>22.849635117813591</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H243" s="5">
+        <v>5.4353593145317483</v>
+      </c>
+      <c r="I243" s="4">
+        <v>2.6639164441034722</v>
+      </c>
+      <c r="J243" s="5">
+        <v>0.34964570422199609</v>
+      </c>
+      <c r="K243" s="4">
+        <v>2.2534731795635006</v>
+      </c>
+      <c r="L243" s="6">
+        <v>0.84592487296345953</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
         <v>245</v>
       </c>
@@ -6926,8 +10593,23 @@
       <c r="G244" s="4">
         <v>13.992521197115593</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H244" s="5">
+        <v>4.5319613879004947</v>
+      </c>
+      <c r="I244" s="4">
+        <v>1.6820213799984696</v>
+      </c>
+      <c r="J244" s="5">
+        <v>0.29119986787081642</v>
+      </c>
+      <c r="K244" s="4">
+        <v>1.4852290686807763</v>
+      </c>
+      <c r="L244" s="6">
+        <v>0.88300249113487939</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
         <v>246</v>
       </c>
@@ -6949,8 +10631,23 @@
       <c r="G245" s="4">
         <v>12.573472921498592</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H245" s="5">
+        <v>5.1345175674496559</v>
+      </c>
+      <c r="I245" s="4">
+        <v>1.4793942052522717</v>
+      </c>
+      <c r="J245" s="5">
+        <v>0.32831080288986747</v>
+      </c>
+      <c r="K245" s="4">
+        <v>1.1682467193760471</v>
+      </c>
+      <c r="L245" s="6">
+        <v>0.78967912354153968</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
         <v>247</v>
       </c>
@@ -6972,8 +10669,23 @@
       <c r="G246" s="4">
         <v>14.5639516275495</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H246" s="5">
+        <v>5.4842136930717036</v>
+      </c>
+      <c r="I246" s="4">
+        <v>1.6957525785968903</v>
+      </c>
+      <c r="J246" s="5">
+        <v>0.34810501600912669</v>
+      </c>
+      <c r="K246" s="4">
+        <v>1.5380814526612745</v>
+      </c>
+      <c r="L246" s="6">
+        <v>0.90701996982008015</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
         <v>248</v>
       </c>
@@ -6995,8 +10707,23 @@
       <c r="G247" s="4">
         <v>11.835698549102972</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H247" s="5">
+        <v>5.1548564005591553</v>
+      </c>
+      <c r="I247" s="4">
+        <v>1.3917001338664061</v>
+      </c>
+      <c r="J247" s="5">
+        <v>0.32566639785485768</v>
+      </c>
+      <c r="K247" s="4">
+        <v>1.1357043116469889</v>
+      </c>
+      <c r="L247" s="6">
+        <v>0.8160553297439066</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
         <v>249</v>
       </c>
@@ -7018,8 +10745,23 @@
       <c r="G248" s="4">
         <v>17.345095218635606</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H248" s="5">
+        <v>5.5825629882898236</v>
+      </c>
+      <c r="I248" s="4">
+        <v>2.0140299701452733</v>
+      </c>
+      <c r="J248" s="5">
+        <v>0.34868509434291206</v>
+      </c>
+      <c r="K248" s="4">
+        <v>1.8133636558104906</v>
+      </c>
+      <c r="L248" s="6">
+        <v>0.90036577543068619</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
         <v>250</v>
       </c>
@@ -7041,8 +10783,23 @@
       <c r="G249" s="4">
         <v>12.153073024369291</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H249" s="5">
+        <v>4.9483730576732574</v>
+      </c>
+      <c r="I249" s="4">
+        <v>1.4387032452581883</v>
+      </c>
+      <c r="J249" s="5">
+        <v>0.30888813300363516</v>
+      </c>
+      <c r="K249" s="4">
+        <v>1.2853951461373663</v>
+      </c>
+      <c r="L249" s="6">
+        <v>0.89344008250060669</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
         <v>251</v>
       </c>
@@ -7064,8 +10821,23 @@
       <c r="G250" s="4">
         <v>10.384774725950365</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H250" s="5">
+        <v>5.4405961974359238</v>
+      </c>
+      <c r="I250" s="4">
+        <v>1.2106862350342604</v>
+      </c>
+      <c r="J250" s="5">
+        <v>0.33947487530708981</v>
+      </c>
+      <c r="K250" s="4">
+        <v>0.96289746796763409</v>
+      </c>
+      <c r="L250" s="6">
+        <v>0.79533196967452569</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
         <v>252</v>
       </c>
@@ -7087,8 +10859,23 @@
       <c r="G251" s="4">
         <v>13.70361058158062</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H251" s="5">
+        <v>5.4091873574362905</v>
+      </c>
+      <c r="I251" s="4">
+        <v>1.5990044571662132</v>
+      </c>
+      <c r="J251" s="5">
+        <v>0.33450495049460488</v>
+      </c>
+      <c r="K251" s="4">
+        <v>1.3231943402752842</v>
+      </c>
+      <c r="L251" s="6">
+        <v>0.82751135204480597</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
         <v>253</v>
       </c>
@@ -7110,8 +10897,23 @@
       <c r="G252" s="4">
         <v>8.4421843915818044</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H252" s="5">
+        <v>5.4166267063190716</v>
+      </c>
+      <c r="I252" s="4">
+        <v>0.98490146556270541</v>
+      </c>
+      <c r="J252" s="5">
+        <v>0.33319046999832413</v>
+      </c>
+      <c r="K252" s="4">
+        <v>0.75848687038517637</v>
+      </c>
+      <c r="L252" s="6">
+        <v>0.7701144702346735</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
         <v>254</v>
       </c>
@@ -7133,8 +10935,23 @@
       <c r="G253" s="4">
         <v>13.082318281656171</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H253" s="5">
+        <v>5.8112439160538276</v>
+      </c>
+      <c r="I253" s="4">
+        <v>1.5100387723248947</v>
+      </c>
+      <c r="J253" s="5">
+        <v>0.35687334073381333</v>
+      </c>
+      <c r="K253" s="4">
+        <v>1.3258958761361315</v>
+      </c>
+      <c r="L253" s="6">
+        <v>0.87805419333355783</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
         <v>255</v>
       </c>
@@ -7156,8 +10973,23 @@
       <c r="G254" s="4">
         <v>10.699251814277886</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H254" s="5">
+        <v>5.9953980337992148</v>
+      </c>
+      <c r="I254" s="4">
+        <v>1.2294244184673866</v>
+      </c>
+      <c r="J254" s="5">
+        <v>0.36528986086202275</v>
+      </c>
+      <c r="K254" s="4">
+        <v>1.0093045878935392</v>
+      </c>
+      <c r="L254" s="6">
+        <v>0.8209570045401805</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
         <v>256</v>
       </c>
@@ -7179,8 +11011,23 @@
       <c r="G255" s="4">
         <v>11.780860883953892</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H255" s="5">
+        <v>5.9822820545630337</v>
+      </c>
+      <c r="I255" s="4">
+        <v>1.3541230568490572</v>
+      </c>
+      <c r="J255" s="5">
+        <v>0.36442243935646051</v>
+      </c>
+      <c r="K255" s="4">
+        <v>1.1178086769036775</v>
+      </c>
+      <c r="L255" s="6">
+        <v>0.82548529932333803</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
         <v>257</v>
       </c>
@@ -7202,8 +11049,23 @@
       <c r="G256" s="4">
         <v>10.807861128019795</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H256" s="5">
+        <v>4.9361306082557244</v>
+      </c>
+      <c r="I256" s="4">
+        <v>1.2800008242764862</v>
+      </c>
+      <c r="J256" s="5">
+        <v>0.30023263118322979</v>
+      </c>
+      <c r="K256" s="4">
+        <v>1.1392190632679193</v>
+      </c>
+      <c r="L256" s="6">
+        <v>0.89001432003909597</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
         <v>258</v>
       </c>
@@ -7225,8 +11087,23 @@
       <c r="G257" s="4">
         <v>13.067974559662161</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H257" s="5">
+        <v>4.8270990324843597</v>
+      </c>
+      <c r="I257" s="4">
+        <v>1.5535333555091664</v>
+      </c>
+      <c r="J257" s="5">
+        <v>0.29329432235555414</v>
+      </c>
+      <c r="K257" s="4">
+        <v>1.3357919728431127</v>
+      </c>
+      <c r="L257" s="6">
+        <v>0.85984119240575341</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
         <v>259</v>
       </c>
@@ -7248,8 +11125,23 @@
       <c r="G258" s="4">
         <v>12.596083071551107</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H258" s="5">
+        <v>5.7797659386758156</v>
+      </c>
+      <c r="I258" s="4">
+        <v>1.4550830367371961</v>
+      </c>
+      <c r="J258" s="5">
+        <v>0.34723597566091569</v>
+      </c>
+      <c r="K258" s="4">
+        <v>1.3294499898309335</v>
+      </c>
+      <c r="L258" s="6">
+        <v>0.91365919075795443</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
         <v>260</v>
       </c>
@@ -7271,8 +11163,23 @@
       <c r="G259" s="4">
         <v>11.958390318802572</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H259" s="5">
+        <v>6.1773635781609588</v>
+      </c>
+      <c r="I259" s="4">
+        <v>1.3683100554561025</v>
+      </c>
+      <c r="J259" s="5">
+        <v>0.36855418681699964</v>
+      </c>
+      <c r="K259" s="4">
+        <v>1.1666742809437418</v>
+      </c>
+      <c r="L259" s="6">
+        <v>0.85263882721000039</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
         <v>261</v>
       </c>
@@ -7294,8 +11201,23 @@
       <c r="G260" s="4">
         <v>10.647503135838292</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H260" s="5">
+        <v>6.0219554285946195</v>
+      </c>
+      <c r="I260" s="4">
+        <v>1.2227072283151796</v>
+      </c>
+      <c r="J260" s="5">
+        <v>0.35897282305478817</v>
+      </c>
+      <c r="K260" s="4">
+        <v>0.94991671552888057</v>
+      </c>
+      <c r="L260" s="6">
+        <v>0.77689629498454138</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
         <v>262</v>
       </c>
@@ -7317,8 +11239,23 @@
       <c r="G261" s="4">
         <v>10.555421513221404</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H261" s="5">
+        <v>6.4357675384719597</v>
+      </c>
+      <c r="I261" s="4">
+        <v>1.2010344963325994</v>
+      </c>
+      <c r="J261" s="5">
+        <v>0.38013065660963052</v>
+      </c>
+      <c r="K261" s="4">
+        <v>0.89076868393291175</v>
+      </c>
+      <c r="L261" s="6">
+        <v>0.74166785937698299</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
         <v>263</v>
       </c>
@@ -7340,8 +11277,23 @@
       <c r="G262" s="4">
         <v>13.778797086830764</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H262" s="5">
+        <v>5.9950231706830523</v>
+      </c>
+      <c r="I262" s="4">
+        <v>1.5832628754074214</v>
+      </c>
+      <c r="J262" s="5">
+        <v>0.35396539524483195</v>
+      </c>
+      <c r="K262" s="4">
+        <v>1.31403005647759</v>
+      </c>
+      <c r="L262" s="6">
+        <v>0.82995065247105626</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
         <v>264</v>
       </c>
@@ -7363,8 +11315,23 @@
       <c r="G263" s="4">
         <v>16.153001775857433</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H263" s="5">
+        <v>5.9661848984487964</v>
+      </c>
+      <c r="I263" s="4">
+        <v>1.8573125146826746</v>
+      </c>
+      <c r="J263" s="5">
+        <v>0.35178096499856465</v>
+      </c>
+      <c r="K263" s="4">
+        <v>1.7309258188506607</v>
+      </c>
+      <c r="L263" s="6">
+        <v>0.93195184179674406</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
         <v>265</v>
       </c>
@@ -7386,8 +11353,23 @@
       <c r="G264" s="4">
         <v>9.2971009500447508</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H264" s="5">
+        <v>6.4481032581400015</v>
+      </c>
+      <c r="I264" s="4">
+        <v>1.0575945518812664</v>
+      </c>
+      <c r="J264" s="5">
+        <v>0.38012560728451383</v>
+      </c>
+      <c r="K264" s="4">
+        <v>0.8446417462014979</v>
+      </c>
+      <c r="L264" s="6">
+        <v>0.79864419185881319</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
         <v>266</v>
       </c>
@@ -7409,8 +11391,23 @@
       <c r="G265" s="4">
         <v>10.378227668727277</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H265" s="5">
+        <v>6.3003845797929099</v>
+      </c>
+      <c r="I265" s="4">
+        <v>1.1842866646537582</v>
+      </c>
+      <c r="J265" s="5">
+        <v>0.36869931552952301</v>
+      </c>
+      <c r="K265" s="4">
+        <v>0.98079249065054508</v>
+      </c>
+      <c r="L265" s="6">
+        <v>0.82817152292877727</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
         <v>267</v>
       </c>
@@ -7432,8 +11429,23 @@
       <c r="G266" s="4">
         <v>10.790100144346184</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H266" s="5">
+        <v>6.3413215636699123</v>
+      </c>
+      <c r="I266" s="4">
+        <v>1.2301942376769763</v>
+      </c>
+      <c r="J266" s="5">
+        <v>0.36951049969758687</v>
+      </c>
+      <c r="K266" s="4">
+        <v>0.98674247998106202</v>
+      </c>
+      <c r="L266" s="6">
+        <v>0.80210299297480547</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
         <v>268</v>
       </c>
@@ -7455,8 +11467,23 @@
       <c r="G267" s="4">
         <v>14.44670565725562</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H267" s="5">
+        <v>5.9942418901672081</v>
+      </c>
+      <c r="I267" s="4">
+        <v>1.6600302178541331</v>
+      </c>
+      <c r="J267" s="5">
+        <v>0.34529980514717828</v>
+      </c>
+      <c r="K267" s="4">
+        <v>1.4469119452728278</v>
+      </c>
+      <c r="L267" s="6">
+        <v>0.87161783545314264</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
         <v>269</v>
       </c>
@@ -7478,8 +11505,23 @@
       <c r="G268" s="4">
         <v>12.331924149160841</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H268" s="5">
+        <v>6.6974976317152715</v>
+      </c>
+      <c r="I268" s="4">
+        <v>1.3957787326855096</v>
+      </c>
+      <c r="J268" s="5">
+        <v>0.38367879521093556</v>
+      </c>
+      <c r="K268" s="4">
+        <v>1.1810869840245264</v>
+      </c>
+      <c r="L268" s="6">
+        <v>0.84618496926951203</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
         <v>270</v>
       </c>
@@ -7501,8 +11543,23 @@
       <c r="G269" s="4">
         <v>11.905601137392637</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H269" s="5">
+        <v>6.1285662240535332</v>
+      </c>
+      <c r="I269" s="4">
+        <v>1.3637815831413718</v>
+      </c>
+      <c r="J269" s="5">
+        <v>0.35020338177523047</v>
+      </c>
+      <c r="K269" s="4">
+        <v>1.0607271141993309</v>
+      </c>
+      <c r="L269" s="6">
+        <v>0.7777837208770797</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A270" s="1" t="s">
         <v>271</v>
       </c>
@@ -7524,8 +11581,23 @@
       <c r="G270" s="4">
         <v>12.888642744519302</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H270" s="5">
+        <v>6.2528639093778464</v>
+      </c>
+      <c r="I270" s="4">
+        <v>1.4722599670902907</v>
+      </c>
+      <c r="J270" s="5">
+        <v>0.35710441374956609</v>
+      </c>
+      <c r="K270" s="4">
+        <v>1.3515167949218161</v>
+      </c>
+      <c r="L270" s="6">
+        <v>0.917987872476689</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
         <v>272</v>
       </c>
@@ -7547,8 +11619,23 @@
       <c r="G271" s="4">
         <v>11.456215926372693</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H271" s="5">
+        <v>6.5087615511879555</v>
+      </c>
+      <c r="I271" s="4">
+        <v>1.3015558356489367</v>
+      </c>
+      <c r="J271" s="5">
+        <v>0.36952268264740218</v>
+      </c>
+      <c r="K271" s="4">
+        <v>1.0858810309127969</v>
+      </c>
+      <c r="L271" s="6">
+        <v>0.8342946196936627</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
         <v>273</v>
       </c>
@@ -7570,8 +11657,23 @@
       <c r="G272" s="4">
         <v>8.9755828046052102</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H272" s="5">
+        <v>7.4087609223430331</v>
+      </c>
+      <c r="I272" s="4">
+        <v>1.003246977293077</v>
+      </c>
+      <c r="J272" s="5">
+        <v>0.41195674494819084</v>
+      </c>
+      <c r="K272" s="4">
+        <v>0.81253356226425044</v>
+      </c>
+      <c r="L272" s="6">
+        <v>0.80990382294158325</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
         <v>274</v>
       </c>
@@ -7593,8 +11695,23 @@
       <c r="G273" s="4">
         <v>12.739119306834937</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H273" s="5">
+        <v>6.3754511721273115</v>
+      </c>
+      <c r="I273" s="4">
+        <v>1.4513239982264114</v>
+      </c>
+      <c r="J273" s="5">
+        <v>0.35240153888048364</v>
+      </c>
+      <c r="K273" s="4">
+        <v>1.2410857862132323</v>
+      </c>
+      <c r="L273" s="6">
+        <v>0.85514040126801405</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
         <v>275</v>
       </c>
@@ -7616,8 +11733,23 @@
       <c r="G274" s="4">
         <v>11.520710664564831</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H274" s="5">
+        <v>6.9620163797708319</v>
+      </c>
+      <c r="I274" s="4">
+        <v>1.2975340071230068</v>
+      </c>
+      <c r="J274" s="5">
+        <v>0.38335040831233641</v>
+      </c>
+      <c r="K274" s="4">
+        <v>1.0359007148852233</v>
+      </c>
+      <c r="L274" s="6">
+        <v>0.79836112903283585</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
         <v>276</v>
       </c>
@@ -7639,8 +11771,23 @@
       <c r="G275" s="4">
         <v>13.394484761265858</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H275" s="5">
+        <v>6.6447979881674968</v>
+      </c>
+      <c r="I275" s="4">
+        <v>1.5175923990084443</v>
+      </c>
+      <c r="J275" s="5">
+        <v>0.36112790386538118</v>
+      </c>
+      <c r="K275" s="4">
+        <v>1.3490305311166335</v>
+      </c>
+      <c r="L275" s="6">
+        <v>0.88892810216897189</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
         <v>277</v>
       </c>
@@ -7662,8 +11809,23 @@
       <c r="G276" s="4">
         <v>16.15577742135315</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H276" s="5">
+        <v>6.7229856386103837</v>
+      </c>
+      <c r="I276" s="4">
+        <v>1.8276134589544795</v>
+      </c>
+      <c r="J276" s="5">
+        <v>0.3652428868761059</v>
+      </c>
+      <c r="K276" s="4">
+        <v>1.424171638712614</v>
+      </c>
+      <c r="L276" s="6">
+        <v>0.77925210702231207</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
         <v>278</v>
       </c>
@@ -7685,8 +11847,23 @@
       <c r="G277" s="4">
         <v>11.321101077780895</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H277" s="5">
+        <v>6.4704519504027616</v>
+      </c>
+      <c r="I277" s="4">
+        <v>1.2872207196523966</v>
+      </c>
+      <c r="J277" s="5">
+        <v>0.34778487037636824</v>
+      </c>
+      <c r="K277" s="4">
+        <v>1.0634931820132036</v>
+      </c>
+      <c r="L277" s="6">
+        <v>0.82619333714608867</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
         <v>279</v>
       </c>
@@ -7708,8 +11885,23 @@
       <c r="G278" s="4">
         <v>12.337864527538841</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H278" s="5">
+        <v>8.1070753867873186</v>
+      </c>
+      <c r="I278" s="4">
+        <v>1.3649081704883554</v>
+      </c>
+      <c r="J278" s="5">
+        <v>0.42598324090007861</v>
+      </c>
+      <c r="K278" s="4">
+        <v>1.1333965266130084</v>
+      </c>
+      <c r="L278" s="6">
+        <v>0.83038298921420217</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A279" s="1" t="s">
         <v>280</v>
       </c>
@@ -7731,8 +11923,23 @@
       <c r="G279" s="4">
         <v>22.564094739072971</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H279" s="5">
+        <v>7.2273422203055446</v>
+      </c>
+      <c r="I279" s="4">
+        <v>2.5292832387037421</v>
+      </c>
+      <c r="J279" s="5">
+        <v>0.3722677169649854</v>
+      </c>
+      <c r="K279" s="4">
+        <v>1.2559098673458431</v>
+      </c>
+      <c r="L279" s="6">
+        <v>0.49654773657911777</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A280" s="1" t="s">
         <v>281</v>
       </c>
@@ -7754,8 +11961,23 @@
       <c r="G280" s="4">
         <v>18.973719258686288</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H280" s="5">
+        <v>8.6540025387009916</v>
+      </c>
+      <c r="I280" s="4">
+        <v>2.0843104485375861</v>
+      </c>
+      <c r="J280" s="5">
+        <v>0.41893502096921464</v>
+      </c>
+      <c r="K280" s="4">
+        <v>1.1189638755473166</v>
+      </c>
+      <c r="L280" s="6">
+        <v>0.53685086899238743</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
         <v>282</v>
       </c>
@@ -7777,8 +11999,23 @@
       <c r="G281" s="4">
         <v>12.289293545661394</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H281" s="5">
+        <v>9.4652979026839983</v>
+      </c>
+      <c r="I281" s="4">
+        <v>1.33811398708653</v>
+      </c>
+      <c r="J281" s="5">
+        <v>0.45342967532735162</v>
+      </c>
+      <c r="K281" s="4">
+        <v>1.0236088186257073</v>
+      </c>
+      <c r="L281" s="6">
+        <v>0.76496384351710311</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
         <v>283</v>
       </c>
@@ -7800,8 +12037,23 @@
       <c r="G282" s="4">
         <v>14.267192098124497</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H282" s="5">
+        <v>9.4522756789425451</v>
+      </c>
+      <c r="I282" s="4">
+        <v>1.5536546685240149</v>
+      </c>
+      <c r="J282" s="5">
+        <v>0.44753276131000258</v>
+      </c>
+      <c r="K282" s="4">
+        <v>1.3449484081075374</v>
+      </c>
+      <c r="L282" s="6">
+        <v>0.8656675356211877</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A283" s="1" t="s">
         <v>284</v>
       </c>
@@ -7823,8 +12075,23 @@
       <c r="G283" s="4">
         <v>19.770808023757354</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H283" s="5">
+        <v>9.8352958133264163</v>
+      </c>
+      <c r="I283" s="4">
+        <v>2.1448304874095885</v>
+      </c>
+      <c r="J283" s="5">
+        <v>0.45211491400181975</v>
+      </c>
+      <c r="K283" s="4">
+        <v>1.6229914911790961</v>
+      </c>
+      <c r="L283" s="6">
+        <v>0.75669918937941716</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A284" s="1" t="s">
         <v>285</v>
       </c>
@@ -7846,8 +12113,23 @@
       <c r="G284" s="4">
         <v>15.964629285524779</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H284" s="5">
+        <v>11.037678341417889</v>
+      </c>
+      <c r="I284" s="4">
+        <v>1.7145815397223452</v>
+      </c>
+      <c r="J284" s="5">
+        <v>0.48765849558305652</v>
+      </c>
+      <c r="K284" s="4">
+        <v>1.2313536163082517</v>
+      </c>
+      <c r="L284" s="6">
+        <v>0.71816567936900455</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A285" s="1" t="s">
         <v>286</v>
       </c>
@@ -7869,8 +12151,23 @@
       <c r="G285" s="4">
         <v>13.922338127704052</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H285" s="5">
+        <v>11.206672064686327</v>
+      </c>
+      <c r="I285" s="4">
+        <v>1.4933983429015525</v>
+      </c>
+      <c r="J285" s="5">
+        <v>0.49507248739267434</v>
+      </c>
+      <c r="K285" s="4">
+        <v>1.2702994982491544</v>
+      </c>
+      <c r="L285" s="6">
+        <v>0.85060995566733055</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A286" s="1" t="s">
         <v>287</v>
       </c>
@@ -7892,8 +12189,23 @@
       <c r="G286" s="4">
         <v>13.624441321541099</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H286" s="5">
+        <v>10.72242229587251</v>
+      </c>
+      <c r="I286" s="4">
+        <v>1.4668549952982624</v>
+      </c>
+      <c r="J286" s="5">
+        <v>0.4620336227363363</v>
+      </c>
+      <c r="K286" s="4">
+        <v>1.2924358563844796</v>
+      </c>
+      <c r="L286" s="6">
+        <v>0.88109312817364227</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A287" s="1" t="s">
         <v>288</v>
       </c>
@@ -7915,8 +12227,23 @@
       <c r="G287" s="4">
         <v>19.478033234290024</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H287" s="5">
+        <v>11.97399341148331</v>
+      </c>
+      <c r="I287" s="4">
+        <v>2.07824422907927</v>
+      </c>
+      <c r="J287" s="5">
+        <v>0.50235948078918347</v>
+      </c>
+      <c r="K287" s="4">
+        <v>1.7686715072704906</v>
+      </c>
+      <c r="L287" s="6">
+        <v>0.85104122149015649</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A288" s="1" t="s">
         <v>289</v>
       </c>
@@ -7938,8 +12265,23 @@
       <c r="G288" s="4">
         <v>19.495603723049271</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H288" s="5">
+        <v>11.630460371340233</v>
+      </c>
+      <c r="I288" s="4">
+        <v>2.0848542038152855</v>
+      </c>
+      <c r="J288" s="5">
+        <v>0.48787727405242198</v>
+      </c>
+      <c r="K288" s="4">
+        <v>1.6948365717512315</v>
+      </c>
+      <c r="L288" s="6">
+        <v>0.81292810243022195</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A289" s="1" t="s">
         <v>290</v>
       </c>
@@ -7961,8 +12303,23 @@
       <c r="G289" s="4">
         <v>15.448279014960235</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H289" s="5">
+        <v>12.112788370022427</v>
+      </c>
+      <c r="I289" s="4">
+        <v>1.64690143997412</v>
+      </c>
+      <c r="J289" s="5">
+        <v>0.50119470148994016</v>
+      </c>
+      <c r="K289" s="4">
+        <v>1.4539359595431265</v>
+      </c>
+      <c r="L289" s="6">
+        <v>0.88283119089747963</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A290" s="1" t="s">
         <v>291</v>
       </c>
@@ -7984,8 +12341,23 @@
       <c r="G290" s="4">
         <v>15.981721758544609</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H290" s="5">
+        <v>12.579023218317337</v>
+      </c>
+      <c r="I290" s="4">
+        <v>1.6989453358096673</v>
+      </c>
+      <c r="J290" s="5">
+        <v>0.51891112149497232</v>
+      </c>
+      <c r="K290" s="4">
+        <v>1.5067457592993527</v>
+      </c>
+      <c r="L290" s="6">
+        <v>0.88687124155250241</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A291" s="1" t="s">
         <v>292</v>
       </c>
@@ -8007,8 +12379,23 @@
       <c r="G291" s="4">
         <v>18.308071713442814</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H291" s="5">
+        <v>23.158434839501687</v>
+      </c>
+      <c r="I291" s="4">
+        <v>1.8807246794727723</v>
+      </c>
+      <c r="J291" s="5">
+        <v>0.64245371735503931</v>
+      </c>
+      <c r="K291" s="4">
+        <v>1.6443219865036205</v>
+      </c>
+      <c r="L291" s="6">
+        <v>0.8743023391199275</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
